--- a/Web/coyni/resources/testdata.xlsx
+++ b/Web/coyni/resources/testdata.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ideyalabs/eclipse-workspace/coyni_automation/Web/coyni/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Myfolder\workspace\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48F5669-82A7-F740-A1BF-0FBA1D5C980E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C727216F-B0AF-4E54-A09F-A39A28F5113E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15480" windowHeight="11640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="filters" sheetId="3" r:id="rId2"/>
-    <sheet name="profile" sheetId="2" r:id="rId3"/>
+    <sheet name="PaymentMethods" sheetId="4" r:id="rId2"/>
+    <sheet name="TokenAccount-Customer" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="filters" sheetId="3" r:id="rId5"/>
+    <sheet name="profile" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="233">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -53,6 +56,45 @@
     <t>securityKey</t>
   </si>
   <si>
+    <t>errMessage</t>
+  </si>
+  <si>
+    <t>invalidAttempts</t>
+  </si>
+  <si>
+    <t>loginHeading</t>
+  </si>
+  <si>
+    <t>authyHeading</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>forgotHeading</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>createAccountHeading</t>
+  </si>
+  <si>
+    <t>verificationHeading</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>resendMessage</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
     <t>Customer Login with valid credentials</t>
   </si>
   <si>
@@ -69,13 +111,637 @@
   </si>
   <si>
     <t>WS74XOHIJIBRUQYLOLIBWU6JFEQ52FHUC7WGJ4NMJD7PYTYSPLZQ</t>
+  </si>
+  <si>
+    <t>Log In to Coyni</t>
+  </si>
+  <si>
+    <t>Two-Step Authentication</t>
+  </si>
+  <si>
+    <t>Verification Successful</t>
+  </si>
+  <si>
+    <t>Customer Login with invalid credentials</t>
+  </si>
+  <si>
+    <t>login with empty email</t>
+  </si>
+  <si>
+    <t>Please enter your email</t>
+  </si>
+  <si>
+    <t>login with empty password</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Please enter your password</t>
+  </si>
+  <si>
+    <t>login with invalid email</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>suryap@gmail</t>
+  </si>
+  <si>
+    <t>Please enter valid email address</t>
+  </si>
+  <si>
+    <t>login with unregistered email</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>suryap@gmail.com</t>
+  </si>
+  <si>
+    <t>User data not found in the system</t>
+  </si>
+  <si>
+    <t>login with invalid password first attempt</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Surya@1234</t>
+  </si>
+  <si>
+    <t>Please enter valid password</t>
+  </si>
+  <si>
+    <t>login with invalid password second attempt</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>login with valid credentials to reset failed attempts</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Forgot email with valid credentials</t>
+  </si>
+  <si>
+    <t>forgot email with valid credentials</t>
+  </si>
+  <si>
+    <t>Forgot Email?</t>
+  </si>
+  <si>
+    <t>9515747740</t>
+  </si>
+  <si>
+    <t>Phone Verification</t>
+  </si>
+  <si>
+    <t>Surya</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Forgot email with invalid phone number</t>
+  </si>
+  <si>
+    <t>forgot email with empty phone number</t>
+  </si>
+  <si>
+    <t>Please enter phone number</t>
+  </si>
+  <si>
+    <t>forgot email with invalid phone number</t>
+  </si>
+  <si>
+    <t>Phone number must contain 10 digits</t>
+  </si>
+  <si>
+    <t>9515</t>
+  </si>
+  <si>
+    <t>forgot email with unregistered phone number</t>
+  </si>
+  <si>
+    <t>This phone number is not registered to an account in our system.</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>Forgot email with invalid first and last name</t>
+  </si>
+  <si>
+    <t>forgot email with empty first name</t>
+  </si>
+  <si>
+    <t>Please enter first name</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>forgot email with empty last name</t>
+  </si>
+  <si>
+    <t>Please enter last name</t>
+  </si>
+  <si>
+    <t>surya</t>
+  </si>
+  <si>
+    <t>Forgot password with valid credentials</t>
+  </si>
+  <si>
+    <t>Verification Failed</t>
+  </si>
+  <si>
+    <t>Forgot Password?</t>
+  </si>
+  <si>
+    <t>Email Verification</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>A new code has sent.</t>
+  </si>
+  <si>
+    <t>Forgot password with invalid email</t>
+  </si>
+  <si>
+    <t>forgot password with empty email</t>
+  </si>
+  <si>
+    <t>forgot password with invalid email</t>
+  </si>
+  <si>
+    <t>abc@gmail</t>
+  </si>
+  <si>
+    <t>forgot password with unregistered email</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>This email is not registered to an account in our system.</t>
+  </si>
+  <si>
+    <t>Sign Up in login Page</t>
+  </si>
+  <si>
+    <t>sign up in login page</t>
+  </si>
+  <si>
+    <t>Create an Account</t>
+  </si>
+  <si>
+    <t>nameOnCard</t>
+  </si>
+  <si>
+    <t>cardNumber</t>
+  </si>
+  <si>
+    <t>cardType</t>
+  </si>
+  <si>
+    <t>cardExpiry</t>
+  </si>
+  <si>
+    <t>cvvNumber</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>Verify Add Credit Card with Invalid Data in Paymenent Methods</t>
+  </si>
+  <si>
+    <t>Verify Invalid Zipcode</t>
+  </si>
+  <si>
+    <t>Sangeetha</t>
+  </si>
+  <si>
+    <t>5233489909189303</t>
+  </si>
+  <si>
+    <t>4/26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 500</t>
+  </si>
+  <si>
+    <t>Kphb</t>
+  </si>
+  <si>
+    <t>Phase1</t>
+  </si>
+  <si>
+    <t>Hyd</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>5001</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Verify Invalid Expirydate</t>
+  </si>
+  <si>
+    <t>11/20</t>
+  </si>
+  <si>
+    <t>50901</t>
+  </si>
+  <si>
+    <t>Verify Invalid CardNumber</t>
+  </si>
+  <si>
+    <t>4233489909189303</t>
+  </si>
+  <si>
+    <t>Verify Empty CardHolder Name</t>
+  </si>
+  <si>
+    <t>Verify Empty Card Number</t>
+  </si>
+  <si>
+    <t>Verify Empty ExpiryDate</t>
+  </si>
+  <si>
+    <t>Verify Empty State</t>
+  </si>
+  <si>
+    <t>'4/26</t>
+  </si>
+  <si>
+    <t>Verify Empty CVV Number</t>
+  </si>
+  <si>
+    <t>Verify Empty Address1</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>Verify Empty City</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Verify Empty Zipcode</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Verify Add Credit Card with Invalid Data in PreAuthy Amount</t>
+  </si>
+  <si>
+    <t>Verify PreAuthy Amount</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>'50901</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>Verify Add DebitCard in PaymentMethods</t>
+  </si>
+  <si>
+    <t>add Debit Card</t>
+  </si>
+  <si>
+    <t>Rachana</t>
+  </si>
+  <si>
+    <t>4291564816776160</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>4/25</t>
+  </si>
+  <si>
+    <t>988</t>
+  </si>
+  <si>
+    <t>addline1</t>
+  </si>
+  <si>
+    <t>addline2</t>
+  </si>
+  <si>
+    <t>twinhills</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>500091</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Verify Add DebitCard with InvalidPreauthi in PaymentMethods</t>
+  </si>
+  <si>
+    <t>add Debit Card with invalidPreauthi</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>Verify Add CreditCard in PaymentMethods</t>
+  </si>
+  <si>
+    <t>add Credit Card</t>
+  </si>
+  <si>
+    <t>5553219137401520</t>
+  </si>
+  <si>
+    <t>MASTERCARD</t>
+  </si>
+  <si>
+    <t>3/27</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>500092</t>
+  </si>
+  <si>
+    <t>Verify Add CreditCard with InvalidPreauthi in PaymentMethods</t>
+  </si>
+  <si>
+    <t>add Credit Card with invalidPreauthi</t>
+  </si>
+  <si>
+    <t>Verify Edit Card in PaymentMethods</t>
+  </si>
+  <si>
+    <t>Edit Card</t>
+  </si>
+  <si>
+    <t>1520</t>
+  </si>
+  <si>
+    <t>newaddline1</t>
+  </si>
+  <si>
+    <t>newaddline2</t>
+  </si>
+  <si>
+    <t>500659</t>
+  </si>
+  <si>
+    <t>Verify Delete Card in PaymentMethods</t>
+  </si>
+  <si>
+    <t>Delete Card</t>
+  </si>
+  <si>
+    <t>Verify Add Debit Card With invalid data in PaymentMethods</t>
+  </si>
+  <si>
+    <t>With invalid ZipCode</t>
+  </si>
+  <si>
+    <t>With invalid ExpiryDate</t>
+  </si>
+  <si>
+    <t>4/27</t>
+  </si>
+  <si>
+    <t>With invalid CardNumber</t>
+  </si>
+  <si>
+    <t>With Empty CardHolderName</t>
+  </si>
+  <si>
+    <t>With Empty CardNumber</t>
+  </si>
+  <si>
+    <t>With Empty ExpiryDate</t>
+  </si>
+  <si>
+    <t>With Empty State</t>
+  </si>
+  <si>
+    <t>With Empty CVVnumber</t>
+  </si>
+  <si>
+    <t>With Empty address1</t>
+  </si>
+  <si>
+    <t>With Empty City</t>
+  </si>
+  <si>
+    <t>With Empty ZipCode</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>accountHolderName</t>
+  </si>
+  <si>
+    <t>successFailureHeading</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>sucessMessage</t>
+  </si>
+  <si>
+    <t>Verify Available Balance in Token Account</t>
+  </si>
+  <si>
+    <t>Verify Available Balance</t>
+  </si>
+  <si>
+    <t>Verify PayAndRequestTokens in Token Account</t>
+  </si>
+  <si>
+    <t>Verify PayAndRequest</t>
+  </si>
+  <si>
+    <t>Verify BuyTokens in Token Account</t>
+  </si>
+  <si>
+    <t>Verify BuyTokens</t>
+  </si>
+  <si>
+    <t>Verify WithdrawToUSD  in TokenAccount</t>
+  </si>
+  <si>
+    <t>Verify WithdrawToUSD</t>
+  </si>
+  <si>
+    <t>Verify TokenSent in Token Account</t>
+  </si>
+  <si>
+    <t>Verify TokenSent</t>
+  </si>
+  <si>
+    <t>Verify TokenPurchased in Token Account</t>
+  </si>
+  <si>
+    <t>Verify TokenPurchased</t>
+  </si>
+  <si>
+    <t>Verify TokenReceived in Token Account</t>
+  </si>
+  <si>
+    <t>Verify TokenReceived</t>
+  </si>
+  <si>
+    <t>Verify TokenWithDraw in Token Account</t>
+  </si>
+  <si>
+    <t>Verify TokenWithdraw</t>
+  </si>
+  <si>
+    <t>Verify PaidOrders in Token Account</t>
+  </si>
+  <si>
+    <t>Verify PaidOrders</t>
+  </si>
+  <si>
+    <t>Verify Today TransactionList in Token Account</t>
+  </si>
+  <si>
+    <t>Veify Today</t>
+  </si>
+  <si>
+    <t>Verify Yesterday TransactionList in Token Account</t>
+  </si>
+  <si>
+    <t>Verify Yesterday</t>
+  </si>
+  <si>
+    <t>Verify Last7Days TransactionList in Token Account</t>
+  </si>
+  <si>
+    <t>Verify Last7Days</t>
+  </si>
+  <si>
+    <t>Verify LastMonth TransactionList in Token Account</t>
+  </si>
+  <si>
+    <t>Verify LastMonth</t>
+  </si>
+  <si>
+    <t>Verify MonthToDate TransactionList in Token Account</t>
+  </si>
+  <si>
+    <t>Verify MonthToDate</t>
+  </si>
+  <si>
+    <t>Verify CustomDateRange TransactionList in Token Account</t>
+  </si>
+  <si>
+    <t>Verify CustomDateRange</t>
+  </si>
+  <si>
+    <t>10/21/2021</t>
+  </si>
+  <si>
+    <t>10/22/2021</t>
+  </si>
+  <si>
+    <t>Verify PayTransaction in Token Account</t>
+  </si>
+  <si>
+    <t>Verify PayTransaction</t>
+  </si>
+  <si>
+    <t>This is My First Transaction</t>
+  </si>
+  <si>
+    <t>Verify Your Identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Notifications </t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>colour</t>
+  </si>
+  <si>
+    <t>AnudeepG@ideyalabs.com</t>
+  </si>
+  <si>
+    <t>Admin@999</t>
+  </si>
+  <si>
+    <t>AAE7DXH4O6XJVTKPBNVZMNSJC5KPZU3GVJDE7MHYEPE2ABN2F5GQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -91,6 +757,32 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -116,7 +808,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -127,6 +819,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -500,29 +1200,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1:J1"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="2" max="2" width="50.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="63.88671875" customWidth="1"/>
+    <col min="7" max="7" width="63.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43" customWidth="1"/>
+    <col min="11" max="11" width="33.88671875" customWidth="1"/>
+    <col min="12" max="12" width="20.109375" customWidth="1"/>
+    <col min="13" max="13" width="34.109375" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" customWidth="1"/>
+    <col min="15" max="15" width="26.44140625" customWidth="1"/>
+    <col min="16" max="16" width="32.88671875" customWidth="1"/>
+    <col min="17" max="17" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,35 +1247,560 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>230</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>11</v>
+        <v>232</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="S16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="G17" t="s">
+        <v>73</v>
+      </c>
+      <c r="R17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" t="s">
+        <v>77</v>
+      </c>
+      <c r="O18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{139BA713-4145-437C-9CCC-210F078C9BDC}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{1C7DF172-9EDB-4935-8B45-09386634EB85}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{3BBB3BC8-48EF-4B6A-9882-E132FD597CD3}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{C2AA8B7D-C328-453E-9F63-198AEC513E9B}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{481FAD86-321C-44E7-B490-BF495FD8EA7A}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{F7256E9C-4022-4780-833A-655F59EAB363}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{F6C10BD6-11F2-41ED-8FAC-52150C49717F}"/>
+    <hyperlink ref="D6" r:id="rId8" xr:uid="{CD0937F4-810C-4D17-96C6-B13A440A42E1}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{80E26FC8-77EC-4DBE-A0EE-FCBE973E43ED}"/>
+    <hyperlink ref="E7" r:id="rId10" xr:uid="{6C6B926F-99D3-4FB2-B866-309056B50A6B}"/>
+    <hyperlink ref="D9" r:id="rId11" xr:uid="{81FDD1F6-9821-4331-88D3-26C4046AF811}"/>
+    <hyperlink ref="E9" r:id="rId12" xr:uid="{A2F8BF05-8AE1-4DA2-BA85-A19493AC882A}"/>
+    <hyperlink ref="D10" r:id="rId13" xr:uid="{6713700F-2230-444D-BD78-F9B20BFF327C}"/>
+    <hyperlink ref="D11" r:id="rId14" xr:uid="{33CCC9FD-2707-44AE-B14C-3006A2135252}"/>
+    <hyperlink ref="E10" r:id="rId15" xr:uid="{66EB3076-69B8-4DFF-AD65-D1BC324EAC73}"/>
+    <hyperlink ref="E11" r:id="rId16" xr:uid="{9334EF6B-C153-4170-8C07-5901965C1C70}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{10B3F1F5-83AB-4F5C-81E8-848DF763C7E1}"/>
+    <hyperlink ref="D20" r:id="rId18" xr:uid="{7B504ADD-55FC-4471-91D5-10B310D2AD18}"/>
+    <hyperlink ref="D21" r:id="rId19" xr:uid="{DA1EAA8B-FC26-4D9A-AB34-2D2AED0059E9}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -578,33 +1809,2149 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D06DFA-D6F9-4A05-B463-4DDA52F0E3E7}">
+  <dimension ref="A1:T30"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q2" s="5"/>
+      <c r="S2" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="S3" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4" t="s">
+        <v>111</v>
+      </c>
+      <c r="O4" t="s">
+        <v>112</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="S4" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" t="s">
+        <v>109</v>
+      </c>
+      <c r="M5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="S5" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O6" t="s">
+        <v>112</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="S6" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7" t="s">
+        <v>110</v>
+      </c>
+      <c r="N7" t="s">
+        <v>111</v>
+      </c>
+      <c r="O7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q7" s="5"/>
+      <c r="S7" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" t="s">
+        <v>110</v>
+      </c>
+      <c r="N8" t="s">
+        <v>111</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="S8" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="s">
+        <v>110</v>
+      </c>
+      <c r="N9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="S9" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s">
+        <v>110</v>
+      </c>
+      <c r="N10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="S10" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>112</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="S11" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" t="s">
+        <v>112</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" t="s">
+        <v>110</v>
+      </c>
+      <c r="N13" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" t="s">
+        <v>112</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="S13" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" t="s">
+        <v>145</v>
+      </c>
+      <c r="N14" t="s">
+        <v>146</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>149</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" t="s">
+        <v>145</v>
+      </c>
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>149</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="s">
+        <v>145</v>
+      </c>
+      <c r="N16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>149</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" t="s">
+        <v>145</v>
+      </c>
+      <c r="N17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>149</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" t="s">
+        <v>167</v>
+      </c>
+      <c r="N18" t="s">
+        <v>146</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" t="s">
+        <v>144</v>
+      </c>
+      <c r="M20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N20" t="s">
+        <v>146</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>149</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L21" t="s">
+        <v>144</v>
+      </c>
+      <c r="M21" t="s">
+        <v>145</v>
+      </c>
+      <c r="N21" t="s">
+        <v>146</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>149</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="L22" t="s">
+        <v>144</v>
+      </c>
+      <c r="M22" t="s">
+        <v>145</v>
+      </c>
+      <c r="N22" t="s">
+        <v>146</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>149</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="L23" t="s">
+        <v>144</v>
+      </c>
+      <c r="M23" t="s">
+        <v>145</v>
+      </c>
+      <c r="N23" t="s">
+        <v>146</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>149</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="L24" t="s">
+        <v>144</v>
+      </c>
+      <c r="M24" t="s">
+        <v>145</v>
+      </c>
+      <c r="N24" t="s">
+        <v>146</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>149</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="K25" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N25" t="s">
+        <v>146</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>149</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="L26" t="s">
+        <v>144</v>
+      </c>
+      <c r="M26" t="s">
+        <v>145</v>
+      </c>
+      <c r="N26" t="s">
+        <v>146</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>149</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K27" s="8"/>
+      <c r="L27" t="s">
+        <v>144</v>
+      </c>
+      <c r="M27" t="s">
+        <v>145</v>
+      </c>
+      <c r="N27" t="s">
+        <v>146</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>149</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="M28" t="s">
+        <v>145</v>
+      </c>
+      <c r="N28" t="s">
+        <v>146</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>149</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="L29" t="s">
+        <v>144</v>
+      </c>
+      <c r="M29" t="s">
+        <v>145</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>149</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="L30" t="s">
+        <v>144</v>
+      </c>
+      <c r="M30" t="s">
+        <v>145</v>
+      </c>
+      <c r="N30" t="s">
+        <v>146</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>149</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D14" r:id="rId1" xr:uid="{F294BF1C-F30D-4A23-BDA8-36DD6E12F778}"/>
+    <hyperlink ref="E14" r:id="rId2" xr:uid="{6CE762B5-F79D-419B-8633-8E0019D99F07}"/>
+    <hyperlink ref="D16" r:id="rId3" xr:uid="{D5975131-BA25-4FB2-B387-F8FF97E30EAE}"/>
+    <hyperlink ref="E16" r:id="rId4" xr:uid="{9EA555EC-0688-440C-8ADD-EE44913BD9F3}"/>
+    <hyperlink ref="D18" r:id="rId5" xr:uid="{9E0DA464-40FE-4C57-B1B8-8A1E12D6529F}"/>
+    <hyperlink ref="E18" r:id="rId6" xr:uid="{9FB3E880-553C-449F-9E97-1E832D8E4EA1}"/>
+    <hyperlink ref="D19" r:id="rId7" xr:uid="{239C6520-1327-4C84-AAD9-AC573B41C648}"/>
+    <hyperlink ref="E19" r:id="rId8" xr:uid="{B872CF83-E337-47ED-893A-88C29CCC249B}"/>
+    <hyperlink ref="D20" r:id="rId9" xr:uid="{F3CF84BE-61E3-4120-8FD6-24A0990DD75B}"/>
+    <hyperlink ref="E20" r:id="rId10" xr:uid="{631F5E9E-4134-4830-99A6-BA7E4B4AF9D9}"/>
+    <hyperlink ref="D15" r:id="rId11" xr:uid="{683C954F-EEB8-4EEA-8328-D75EE91DC1B7}"/>
+    <hyperlink ref="E15" r:id="rId12" xr:uid="{2A6797F2-E2DD-4147-AF46-3094ED220BBF}"/>
+    <hyperlink ref="D21" r:id="rId13" xr:uid="{30E3E812-88CD-4964-AB2B-CAF60492BFE5}"/>
+    <hyperlink ref="E21" r:id="rId14" xr:uid="{2D5E16C5-409A-4929-8DC5-1CF01268F211}"/>
+    <hyperlink ref="D22" r:id="rId15" xr:uid="{7D8B29F0-5637-4237-AE3D-CB640D036316}"/>
+    <hyperlink ref="E22" r:id="rId16" xr:uid="{9BF93788-76A5-43A8-BF6E-8417757E6B77}"/>
+    <hyperlink ref="D23" r:id="rId17" xr:uid="{A080E2CB-FA68-4630-9A08-6893A4AD9EE6}"/>
+    <hyperlink ref="E23" r:id="rId18" xr:uid="{92E73766-1C39-4C58-B75D-675681212CCC}"/>
+    <hyperlink ref="D24" r:id="rId19" xr:uid="{05417273-31AB-4FB0-BE4C-D445F1F09D23}"/>
+    <hyperlink ref="E24" r:id="rId20" xr:uid="{83771B74-A4C3-468E-8D1F-F706512B511C}"/>
+    <hyperlink ref="D25" r:id="rId21" xr:uid="{3E6F9D01-2261-4E49-84BF-363C280589F3}"/>
+    <hyperlink ref="E25" r:id="rId22" xr:uid="{00699850-73AD-4D2E-93E2-2398E521A00B}"/>
+    <hyperlink ref="D26" r:id="rId23" xr:uid="{7801F32A-867A-41C1-88B4-1774133D9F5C}"/>
+    <hyperlink ref="E26" r:id="rId24" xr:uid="{F5F24371-F58C-41A1-B2EC-8906E33ABF67}"/>
+    <hyperlink ref="D27" r:id="rId25" xr:uid="{36F31A35-758F-4D0E-A89D-0EB77214C77F}"/>
+    <hyperlink ref="E27" r:id="rId26" xr:uid="{547E44EE-8FE6-4EEE-BA3B-301EDCD41ED8}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{FE0287E2-091C-45C3-9298-AF152A213315}"/>
+    <hyperlink ref="E28" r:id="rId28" xr:uid="{DAA44001-C64E-41F4-913D-3D73E8419453}"/>
+    <hyperlink ref="D29" r:id="rId29" xr:uid="{21D97146-4724-4692-BDAE-477A960C7471}"/>
+    <hyperlink ref="E29" r:id="rId30" xr:uid="{AC53B4BE-C697-40CD-AEB6-17E962BF5388}"/>
+    <hyperlink ref="D30" r:id="rId31" xr:uid="{6B210225-8129-49E0-93B4-4B876F09C88F}"/>
+    <hyperlink ref="E30" r:id="rId32" xr:uid="{19EB96B7-727B-41A7-9408-36B63D4A7938}"/>
+    <hyperlink ref="D17" r:id="rId33" xr:uid="{C6B72885-EB6B-439D-B8A9-BB2E0B019281}"/>
+    <hyperlink ref="E17" r:id="rId34" xr:uid="{2EFFF847-3AE8-43A9-BD9A-C819A70B28A6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7342C061-16F1-49A5-BA07-4D17E62E882D}">
+  <dimension ref="A1:S17"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17" t="s">
+        <v>225</v>
+      </c>
+      <c r="M17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{94CEBC0F-0F21-43ED-BF4C-9ACB02BA6EB0}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{80DFE636-5B2C-4E1D-8368-4C95C7D19927}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{094CE136-4B25-45CB-B020-20E04612845C}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{7067B478-948D-40DE-825D-38C2AEB1CA76}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{FB8120FB-F2A6-4FDE-98BD-75ED239987C3}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{37DAF745-B93A-4003-BE70-482CEA8C2048}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{7CA8A844-9DC3-469B-94CE-C9C7EDB69D12}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{E73F8848-B4BF-49D3-9F78-AADC7459F417}"/>
+    <hyperlink ref="D6" r:id="rId9" xr:uid="{4B28A190-CF93-42DC-A8B1-4E4E540F956B}"/>
+    <hyperlink ref="E6" r:id="rId10" xr:uid="{EC0470D6-4579-49B7-BB6A-6B24441E1ECB}"/>
+    <hyperlink ref="D7" r:id="rId11" xr:uid="{296A869E-CB5D-4AEC-8A53-728595C112C3}"/>
+    <hyperlink ref="E7" r:id="rId12" xr:uid="{C57A148C-6710-4A25-B7C4-B785528F53B1}"/>
+    <hyperlink ref="D8" r:id="rId13" xr:uid="{85415C37-C4B1-4685-9FCB-92A05176342E}"/>
+    <hyperlink ref="E8" r:id="rId14" xr:uid="{994DB914-5B4C-49D8-8897-957FF1B93317}"/>
+    <hyperlink ref="E9" r:id="rId15" xr:uid="{14565D77-13F4-44E7-B9B3-15B033251750}"/>
+    <hyperlink ref="D9" r:id="rId16" xr:uid="{B81707C5-B725-489A-AF90-81B9B0653A7D}"/>
+    <hyperlink ref="D10" r:id="rId17" xr:uid="{4A5CE8ED-58EB-48DC-91D8-9AC7962A826C}"/>
+    <hyperlink ref="E10" r:id="rId18" xr:uid="{4D5538C9-CC59-4F81-B18E-EBCEF4B4AE54}"/>
+    <hyperlink ref="D11" r:id="rId19" xr:uid="{77A4466B-9512-4918-B3AF-FD5B5B571E93}"/>
+    <hyperlink ref="E11" r:id="rId20" xr:uid="{5DEC4755-F96B-4E19-A2F2-F93F5AB8209C}"/>
+    <hyperlink ref="D12" r:id="rId21" xr:uid="{E812A271-D004-48B8-8C48-0BF9BBD1B01B}"/>
+    <hyperlink ref="E12" r:id="rId22" xr:uid="{1A62423F-2214-4FA2-BB97-14142B8BC3A8}"/>
+    <hyperlink ref="D13" r:id="rId23" xr:uid="{576ED275-31E3-4679-868A-7B7A1815BD88}"/>
+    <hyperlink ref="E13" r:id="rId24" xr:uid="{4B9D6BCF-F687-4C97-94CA-D18B2180D2BE}"/>
+    <hyperlink ref="D14" r:id="rId25" xr:uid="{EF05EA4E-39A7-42F7-899F-B09DF1EDF00C}"/>
+    <hyperlink ref="E14" r:id="rId26" xr:uid="{3E5AAF68-07F8-42CA-9E47-051A2583BBCF}"/>
+    <hyperlink ref="D15" r:id="rId27" xr:uid="{61308A22-E1C2-4A65-A4CF-2811C385645E}"/>
+    <hyperlink ref="E15" r:id="rId28" xr:uid="{8E6D2241-A67E-4E93-8661-4D94E4EB6263}"/>
+    <hyperlink ref="D16" r:id="rId29" xr:uid="{766C5822-EA5A-4355-8766-40D8DA3B27AD}"/>
+    <hyperlink ref="E16" r:id="rId30" xr:uid="{AF63E2A3-F0E1-4AC1-93D9-F26429674D10}"/>
+    <hyperlink ref="D17" r:id="rId31" xr:uid="{1C5AB442-688E-4C5C-A075-C88B2750AA6B}"/>
+    <hyperlink ref="E17" r:id="rId32" xr:uid="{6BD98E2D-3F87-4B25-A8A8-CE8AC7E5782C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F2C328-44FE-4BE7-9D79-D8AE6FF7329F}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{5A4C74B7-C7D0-424B-87E1-DDC5B50652DF}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{93FC2369-44A6-48E4-9D5A-7FE6D825C245}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Web/coyni/resources/testdata.xlsx
+++ b/Web/coyni/resources/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Myfolder\workspace\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Forgot email-web\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C727216F-B0AF-4E54-A09F-A39A28F5113E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF26813-17E9-49B2-90DB-78864B55A18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="233">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -209,27 +209,15 @@
     <t>Phone Verification</t>
   </si>
   <si>
-    <t>Surya</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>Forgot email with invalid phone number</t>
   </si>
   <si>
     <t>forgot email with empty phone number</t>
   </si>
   <si>
-    <t>Please enter phone number</t>
-  </si>
-  <si>
     <t>forgot email with invalid phone number</t>
   </si>
   <si>
-    <t>Phone number must contain 10 digits</t>
-  </si>
-  <si>
     <t>9515</t>
   </si>
   <si>
@@ -248,21 +236,9 @@
     <t>forgot email with empty first name</t>
   </si>
   <si>
-    <t>Please enter first name</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
     <t>forgot email with empty last name</t>
   </si>
   <si>
-    <t>Please enter last name</t>
-  </si>
-  <si>
-    <t>surya</t>
-  </si>
-  <si>
     <t>Forgot password with valid credentials</t>
   </si>
   <si>
@@ -735,6 +711,30 @@
   </si>
   <si>
     <t>AAE7DXH4O6XJVTKPBNVZMNSJC5KPZU3GVJDE7MHYEPE2ABN2F5GQ</t>
+  </si>
+  <si>
+    <t>Please enter your Phone Number</t>
+  </si>
+  <si>
+    <t>2405877098</t>
+  </si>
+  <si>
+    <t>Please enter First Name</t>
+  </si>
+  <si>
+    <t>Please enter Last Name</t>
+  </si>
+  <si>
+    <t>Forgot email with go back option</t>
+  </si>
+  <si>
+    <t>forgot email with go back options</t>
+  </si>
+  <si>
+    <t>Anudeep</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -1200,35 +1200,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2:F2"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1"/>
-    <col min="2" max="2" width="50.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="63.88671875" customWidth="1"/>
-    <col min="7" max="7" width="63.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.36328125" customWidth="1"/>
+    <col min="2" max="2" width="50.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" customWidth="1"/>
+    <col min="4" max="4" width="27.08984375" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" customWidth="1"/>
+    <col min="6" max="6" width="63.90625" customWidth="1"/>
+    <col min="7" max="7" width="63.453125" customWidth="1"/>
+    <col min="8" max="8" width="15.08984375" customWidth="1"/>
+    <col min="9" max="9" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43" customWidth="1"/>
-    <col min="11" max="11" width="33.88671875" customWidth="1"/>
-    <col min="12" max="12" width="20.109375" customWidth="1"/>
-    <col min="13" max="13" width="34.109375" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" customWidth="1"/>
-    <col min="15" max="15" width="26.44140625" customWidth="1"/>
-    <col min="16" max="16" width="32.88671875" customWidth="1"/>
-    <col min="17" max="17" width="22.88671875" customWidth="1"/>
+    <col min="11" max="11" width="33.90625" customWidth="1"/>
+    <col min="12" max="12" width="20.08984375" customWidth="1"/>
+    <col min="13" max="13" width="34.08984375" customWidth="1"/>
+    <col min="14" max="14" width="24.6328125" customWidth="1"/>
+    <col min="15" max="15" width="26.453125" customWidth="1"/>
+    <col min="16" max="16" width="32.90625" customWidth="1"/>
+    <col min="17" max="17" width="22.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1301,13 +1301,13 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I2" t="s">
         <v>25</v>
@@ -1567,25 +1567,25 @@
         <v>56</v>
       </c>
       <c r="R12" t="s">
-        <v>57</v>
+        <v>231</v>
       </c>
       <c r="S12" t="s">
-        <v>58</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="3"/>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>225</v>
       </c>
       <c r="I13" t="s">
         <v>25</v>
@@ -1596,18 +1596,15 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
         <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="G14" t="s">
-        <v>63</v>
-      </c>
       <c r="I14" t="s">
         <v>25</v>
       </c>
@@ -1615,22 +1612,22 @@
         <v>54</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="3"/>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I15" t="s">
         <v>25</v>
@@ -1639,141 +1636,183 @@
         <v>54</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="3"/>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>227</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="S16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="3"/>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>228</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="R17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>230</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>76</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="I18" t="s">
         <v>25</v>
       </c>
       <c r="L18" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="O18" t="s">
-        <v>78</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="R18" t="s">
+        <v>231</v>
+      </c>
+      <c r="S18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="G20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
         <v>81</v>
       </c>
-      <c r="B20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I23" t="s">
         <v>25</v>
       </c>
-      <c r="N22" t="s">
-        <v>90</v>
+      <c r="N23" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1795,9 +1834,9 @@
     <hyperlink ref="D11" r:id="rId14" xr:uid="{33CCC9FD-2707-44AE-B14C-3006A2135252}"/>
     <hyperlink ref="E10" r:id="rId15" xr:uid="{66EB3076-69B8-4DFF-AD65-D1BC324EAC73}"/>
     <hyperlink ref="E11" r:id="rId16" xr:uid="{9334EF6B-C153-4170-8C07-5901965C1C70}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{10B3F1F5-83AB-4F5C-81E8-848DF763C7E1}"/>
-    <hyperlink ref="D20" r:id="rId18" xr:uid="{7B504ADD-55FC-4471-91D5-10B310D2AD18}"/>
-    <hyperlink ref="D21" r:id="rId19" xr:uid="{DA1EAA8B-FC26-4D9A-AB34-2D2AED0059E9}"/>
+    <hyperlink ref="D19" r:id="rId17" xr:uid="{10B3F1F5-83AB-4F5C-81E8-848DF763C7E1}"/>
+    <hyperlink ref="D21" r:id="rId18" xr:uid="{7B504ADD-55FC-4471-91D5-10B310D2AD18}"/>
+    <hyperlink ref="D22" r:id="rId19" xr:uid="{DA1EAA8B-FC26-4D9A-AB34-2D2AED0059E9}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
@@ -1816,18 +1855,18 @@
       <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1847,54 +1886,54 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>21</v>
@@ -1909,44 +1948,44 @@
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="M2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="N2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="O2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="S2" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
@@ -1961,44 +2000,44 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="M3" t="s">
-        <v>110</v>
-      </c>
-      <c r="N3" t="s">
-        <v>111</v>
-      </c>
-      <c r="O3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="S3" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>35</v>
@@ -2013,44 +2052,44 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="M4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N4" t="s">
-        <v>111</v>
-      </c>
-      <c r="O4" t="s">
-        <v>112</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="Q4" s="5"/>
       <c r="S4" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>39</v>
@@ -2065,41 +2104,41 @@
         <v>24</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" t="s">
+        <v>104</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="M5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N5" t="s">
-        <v>111</v>
-      </c>
-      <c r="O5" t="s">
-        <v>112</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="S5" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>43</v>
@@ -2114,40 +2153,40 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P6" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="M6" t="s">
-        <v>110</v>
-      </c>
-      <c r="N6" t="s">
-        <v>111</v>
-      </c>
-      <c r="O6" t="s">
-        <v>112</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="S6" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>47</v>
@@ -2162,41 +2201,41 @@
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" t="s">
+        <v>102</v>
+      </c>
+      <c r="N7" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="M7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N7" t="s">
-        <v>111</v>
-      </c>
-      <c r="O7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="S7" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>49</v>
@@ -2211,41 +2250,41 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="M8" t="s">
-        <v>110</v>
-      </c>
-      <c r="N8" t="s">
-        <v>111</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="S8" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>50</v>
@@ -2260,41 +2299,41 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="s">
+        <v>102</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P9" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="M9" t="s">
-        <v>110</v>
-      </c>
-      <c r="N9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O9" t="s">
-        <v>112</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="S9" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>51</v>
@@ -2309,44 +2348,44 @@
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="S10" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>22</v>
@@ -2358,44 +2397,44 @@
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" t="s">
+        <v>104</v>
+      </c>
+      <c r="P11" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="M11" t="s">
-        <v>110</v>
-      </c>
-      <c r="O11" t="s">
-        <v>112</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="S11" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -2407,40 +2446,40 @@
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="M12" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="O12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>21</v>
@@ -2455,46 +2494,46 @@
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="M13" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="N13" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="O13" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="S13" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>21</v>
@@ -2509,48 +2548,48 @@
         <v>24</v>
       </c>
       <c r="G14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="s">
+        <v>137</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="P14" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="Q14" t="s">
         <v>141</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="S14" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>142</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="B15" t="s">
         <v>143</v>
-      </c>
-      <c r="L14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M14" t="s">
-        <v>145</v>
-      </c>
-      <c r="N14" t="s">
-        <v>146</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>149</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" t="s">
-        <v>151</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>21</v>
@@ -2565,48 +2604,48 @@
         <v>24</v>
       </c>
       <c r="G15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="s">
+        <v>137</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="P15" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="Q15" t="s">
         <v>141</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="S15" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="M15" t="s">
-        <v>145</v>
-      </c>
-      <c r="N15" t="s">
-        <v>146</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>149</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>21</v>
@@ -2621,48 +2660,48 @@
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M16" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="Q16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>21</v>
@@ -2677,48 +2716,48 @@
         <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s">
+        <v>136</v>
+      </c>
+      <c r="M17" t="s">
+        <v>137</v>
+      </c>
+      <c r="N17" t="s">
+        <v>138</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>141</v>
+      </c>
+      <c r="S17" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="M17" t="s">
-        <v>145</v>
-      </c>
-      <c r="N17" t="s">
-        <v>146</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>149</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>21</v>
@@ -2733,42 +2772,42 @@
         <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K18" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s">
         <v>158</v>
       </c>
-      <c r="L18" t="s">
-        <v>166</v>
-      </c>
       <c r="M18" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="N18" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="Q18" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>21</v>
@@ -2783,15 +2822,15 @@
         <v>24</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>21</v>
@@ -2806,46 +2845,46 @@
         <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="L20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="N20" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q20" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>32</v>
@@ -2860,46 +2899,46 @@
         <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="10" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="L21" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M21" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="N21" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="Q21" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>35</v>
@@ -2914,46 +2953,46 @@
         <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="L22" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M22" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="N22" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="Q22" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>39</v>
@@ -2968,43 +3007,43 @@
         <v>24</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="L23" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M23" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="N23" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="Q23" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>43</v>
@@ -3019,43 +3058,43 @@
         <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="L24" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M24" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="N24" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="Q24" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>47</v>
@@ -3070,43 +3109,43 @@
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I25" s="7"/>
       <c r="K25" s="10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="L25" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M25" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="N25" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="Q25" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" t="s">
         <v>171</v>
-      </c>
-      <c r="B26" t="s">
-        <v>179</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>49</v>
@@ -3121,43 +3160,43 @@
         <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M26" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="N26" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="Q26" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>50</v>
@@ -3172,44 +3211,44 @@
         <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K27" s="8"/>
       <c r="L27" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M27" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="N27" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="Q27" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>51</v>
@@ -3224,137 +3263,137 @@
         <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="M28" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="N28" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="O28" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>141</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="14" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>149</v>
-      </c>
-      <c r="S28" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" t="s">
-        <v>182</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>139</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="L29" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M29" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="O29" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>141</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>149</v>
-      </c>
-      <c r="S29" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" t="s">
-        <v>183</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>139</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="L30" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M30" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="N30" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="Q30" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3406,17 +3445,17 @@
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="31.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3436,19 +3475,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -3460,24 +3499,24 @@
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>21</v>
@@ -3492,12 +3531,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>21</v>
@@ -3512,12 +3551,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>21</v>
@@ -3532,12 +3571,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>21</v>
@@ -3552,12 +3591,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>21</v>
@@ -3572,12 +3611,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>21</v>
@@ -3592,12 +3631,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>21</v>
@@ -3612,12 +3651,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>21</v>
@@ -3632,12 +3671,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>21</v>
@@ -3652,12 +3691,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>21</v>
@@ -3672,12 +3711,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>21</v>
@@ -3692,12 +3731,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>21</v>
@@ -3712,12 +3751,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>21</v>
@@ -3732,12 +3771,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B15" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>21</v>
@@ -3752,12 +3791,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>21</v>
@@ -3772,18 +3811,18 @@
         <v>24</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B17" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>21</v>
@@ -3798,13 +3837,13 @@
         <v>24</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="M17" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3854,9 +3893,9 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3882,7 +3921,7 @@
       <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3897,16 +3936,16 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
+    <col min="5" max="5" width="26.36328125" customWidth="1"/>
+    <col min="6" max="6" width="30.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3926,12 +3965,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>21</v>

--- a/Web/coyni/resources/testdata.xlsx
+++ b/Web/coyni/resources/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COYNI-Automation web\clone_03_12_2021\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web (13-12-2-2021)(2)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB54B22-E58A-4006-A7EB-3B8CF44DA4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C32803-362F-412F-AA0C-F206A857A741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="PaymentMethods-Debit" sheetId="7" r:id="rId3"/>
     <sheet name="TokenAccount-Customer" sheetId="5" r:id="rId4"/>
     <sheet name="forgotEmail" sheetId="6" r:id="rId5"/>
-    <sheet name="filters" sheetId="3" r:id="rId6"/>
-    <sheet name="profile" sheetId="2" r:id="rId7"/>
+    <sheet name="requestToken" sheetId="8" r:id="rId6"/>
+    <sheet name="change-password" sheetId="9" r:id="rId7"/>
+    <sheet name="filters" sheetId="3" r:id="rId8"/>
+    <sheet name="profile" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="401">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1090,6 +1092,156 @@
   </si>
   <si>
     <t>CancelNotifications</t>
+  </si>
+  <si>
+    <t>chooseAccount</t>
+  </si>
+  <si>
+    <t>Choose Account</t>
+  </si>
+  <si>
+    <t>2525150456</t>
+  </si>
+  <si>
+    <t>123487</t>
+  </si>
+  <si>
+    <t>messageToRecipient</t>
+  </si>
+  <si>
+    <t>expColour</t>
+  </si>
+  <si>
+    <t>expRequest</t>
+  </si>
+  <si>
+    <t>expCssProp</t>
+  </si>
+  <si>
+    <t>VerifyRequestToken</t>
+  </si>
+  <si>
+    <t>requestToken</t>
+  </si>
+  <si>
+    <t>76S2CEPODVNGPZHMDJHSHRKNSOFOAXCYXPAOPUATAOVUPGJXKD3A</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>569446a6-aea8-4c4c-ade2-6445c5b07481</t>
+  </si>
+  <si>
+    <t>Hi Hero</t>
+  </si>
+  <si>
+    <t>Tokens Requested Successfully</t>
+  </si>
+  <si>
+    <t>rgb(239, 239, 239)</t>
+  </si>
+  <si>
+    <t>rgb(246, 246, 246)</t>
+  </si>
+  <si>
+    <t>rgb(56,56,56)</t>
+  </si>
+  <si>
+    <t>Verify request token with validations</t>
+  </si>
+  <si>
+    <t>request Token with validation</t>
+  </si>
+  <si>
+    <t>A,@$#</t>
+  </si>
+  <si>
+    <t>H,hahhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhsssssssskadj</t>
+  </si>
+  <si>
+    <t>Verify request token with Invalid Wallet Id</t>
+  </si>
+  <si>
+    <t>Invalid Account Address</t>
+  </si>
+  <si>
+    <t>569446a6-aea8-4c4c-ade2</t>
+  </si>
+  <si>
+    <t>Verify request token with Navigation Option</t>
+  </si>
+  <si>
+    <t>heading</t>
+  </si>
+  <si>
+    <t>heading1</t>
+  </si>
+  <si>
+    <t>currentPassword</t>
+  </si>
+  <si>
+    <t>newPassword</t>
+  </si>
+  <si>
+    <t>confirmPassword</t>
+  </si>
+  <si>
+    <t>successMsg</t>
+  </si>
+  <si>
+    <t>LandingHeading</t>
+  </si>
+  <si>
+    <t>verify change password</t>
+  </si>
+  <si>
+    <t>verify change password functionality</t>
+  </si>
+  <si>
+    <t>Y5OW7IC3DLTHD2JOVWWH4AEB6QGJPD2ABHTDXTJBJJ2NLX3BZ5VA</t>
+  </si>
+  <si>
+    <t>Verify your identity</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>Admin@123</t>
+  </si>
+  <si>
+    <t>Your Password Was Updated Successfully!</t>
+  </si>
+  <si>
+    <t>Change password with invalid password</t>
+  </si>
+  <si>
+    <t>Please enter your current password</t>
+  </si>
+  <si>
+    <t>Current Password</t>
+  </si>
+  <si>
+    <t>Confirm password is required</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>Admin@123123</t>
+  </si>
+  <si>
+    <t>Error: Passwords do not match.</t>
+  </si>
+  <si>
+    <t>Passwords</t>
+  </si>
+  <si>
+    <t>New password should not match with Old password</t>
+  </si>
+  <si>
+    <t>verify change password With invalid Credentials</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1209,6 +1361,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1584,7 +1742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B16" sqref="B16"/>
     </sheetView>
@@ -5541,10 +5699,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F2C328-44FE-4BE7-9D79-D8AE6FF7329F}">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:AI1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5571,7 +5729,7 @@
     <col min="21" max="21" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5638,8 +5796,11 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W1" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>268</v>
       </c>
@@ -5680,8 +5841,11 @@
       <c r="U2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>272</v>
       </c>
@@ -5708,7 +5872,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>272</v>
       </c>
@@ -5738,7 +5902,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>272</v>
       </c>
@@ -5759,7 +5923,7 @@
         <v>270</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="T5" t="s">
         <v>33</v>
@@ -5768,7 +5932,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>281</v>
       </c>
@@ -5801,7 +5965,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>281</v>
       </c>
@@ -5834,7 +5998,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>281</v>
       </c>
@@ -5871,7 +6035,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>292</v>
       </c>
@@ -5894,14 +6058,20 @@
       <c r="O9" t="s">
         <v>294</v>
       </c>
+      <c r="P9" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="R9" t="s">
         <v>322</v>
       </c>
       <c r="S9" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>295</v>
       </c>
@@ -5928,7 +6098,7 @@
         <v>75</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>271</v>
+        <v>354</v>
       </c>
       <c r="R10" t="s">
         <v>322</v>
@@ -5943,7 +6113,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>295</v>
       </c>
@@ -5982,7 +6152,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>295</v>
       </c>
@@ -6021,7 +6191,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>295</v>
       </c>
@@ -6063,7 +6233,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P12" r:id="rId1" location="@*&amp;%$" xr:uid="{14652010-8D1C-40AF-904B-7A3CA3C1D17D}"/>
+    <hyperlink ref="P12" r:id="rId1" location="@*&amp;%$" xr:uid="{1F191689-41A3-4184-AFAC-8EAC2F5E8CEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -6071,6 +6241,717 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CB4B52-88BF-4AB0-95D7-DE4FB48CEC18}">
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.26953125" customWidth="1"/>
+    <col min="2" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" customWidth="1"/>
+    <col min="8" max="10" width="15" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" customWidth="1"/>
+    <col min="13" max="13" width="18.81640625" customWidth="1"/>
+    <col min="14" max="14" width="21.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="M2" t="s">
+        <v>364</v>
+      </c>
+      <c r="N2" t="s">
+        <v>365</v>
+      </c>
+      <c r="O2" t="s">
+        <v>366</v>
+      </c>
+      <c r="P2" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" t="s">
+        <v>372</v>
+      </c>
+      <c r="N3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="G4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="M4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="M5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{58D49811-C353-46AA-B831-9D185A48799F}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{3BBB91E6-3F52-4B16-96D7-85F933F66919}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{9E3454FB-6873-45D8-97BE-1C047D8DE515}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{C517C301-BA4C-412D-AFD3-64A8F76F4D1F}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{4BE3DF3C-22E2-443A-9A22-D991EB78FDB2}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{4E758F28-1B71-4FD3-903B-2D40166D6428}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{BA4F0F09-CAF9-4C47-9865-305BEF36D246}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{804C1E0A-5CB6-44C3-B96B-B840FBD2DF9B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6D89BB-036C-439B-A4C9-B3C473F79A68}">
+  <dimension ref="A1:U8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.453125" customWidth="1"/>
+    <col min="2" max="2" width="32.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.90625" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" customWidth="1"/>
+    <col min="9" max="9" width="26.54296875" customWidth="1"/>
+    <col min="10" max="10" width="20.54296875" customWidth="1"/>
+    <col min="11" max="11" width="16.90625" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" customWidth="1"/>
+    <col min="13" max="13" width="12.90625" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="16.1796875" customWidth="1"/>
+    <col min="17" max="17" width="15.1796875" customWidth="1"/>
+    <col min="20" max="20" width="11.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>387</v>
+      </c>
+      <c r="K2" t="s">
+        <v>388</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="S2" t="s">
+        <v>390</v>
+      </c>
+      <c r="T2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>387</v>
+      </c>
+      <c r="K3" t="s">
+        <v>388</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" t="s">
+        <v>390</v>
+      </c>
+      <c r="T3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>387</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="P4" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>393</v>
+      </c>
+      <c r="R4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>387</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="P5" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>395</v>
+      </c>
+      <c r="R5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>387</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="P6" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>398</v>
+      </c>
+      <c r="R6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="P7" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>393</v>
+      </c>
+      <c r="R7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>387</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{80C5DBD4-348D-47F2-ACB9-63A356987772}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{5EB4B08F-F375-4A55-82A1-8CFD6A176F24}"/>
+    <hyperlink ref="L2" r:id="rId3" xr:uid="{EB12E087-1636-41DC-8FCE-B8453C7D569E}"/>
+    <hyperlink ref="M2" r:id="rId4" xr:uid="{B9CBA747-4BBD-494B-A245-129E046771EC}"/>
+    <hyperlink ref="N2" r:id="rId5" xr:uid="{516AF005-B59A-4AFE-ACE6-76FE6BDCE757}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{0101D0A4-AE2C-449E-A2F4-68B88A9D299D}"/>
+    <hyperlink ref="M4" r:id="rId7" xr:uid="{DEB3960A-5AA6-431C-B5FD-D775320F8242}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{8D789175-4341-491F-AE61-8FFABF5E7753}"/>
+    <hyperlink ref="M5" r:id="rId9" xr:uid="{B34CE74B-3457-41AD-8F13-D039E91510BF}"/>
+    <hyperlink ref="N4" r:id="rId10" xr:uid="{4246BCE2-E1F9-4FBE-97D0-C78A2C81BDC3}"/>
+    <hyperlink ref="M6" r:id="rId11" xr:uid="{BB6D21F5-1EBF-46E1-9610-0723ECDD7C89}"/>
+    <hyperlink ref="N6" r:id="rId12" xr:uid="{CCB87B7D-3179-408F-AE5E-D6F015AF1AEF}"/>
+    <hyperlink ref="D6" r:id="rId13" xr:uid="{4735801E-213C-423B-9B9A-313DE141C3B1}"/>
+    <hyperlink ref="L5" r:id="rId14" xr:uid="{DB8F2D00-3B2B-4E78-8C8F-874F15545D4D}"/>
+    <hyperlink ref="L6" r:id="rId15" xr:uid="{0B2648D0-96E8-4B57-9CB1-2B605FE80FBC}"/>
+    <hyperlink ref="M7" r:id="rId16" xr:uid="{AB66BC3F-EE8B-432A-AB8B-AB52D19454DC}"/>
+    <hyperlink ref="D7" r:id="rId17" xr:uid="{7C397FB8-1E1B-4F99-8FC6-B166803010C3}"/>
+    <hyperlink ref="L7" r:id="rId18" xr:uid="{923D4E30-5297-4C13-8BDC-F89EF96A6C8C}"/>
+    <hyperlink ref="E3" r:id="rId19" xr:uid="{B5AAEB49-76BF-4BA7-929E-7DF0230176B8}"/>
+    <hyperlink ref="D3" r:id="rId20" xr:uid="{8D36914E-88C5-4937-B08C-CC40A466DD5F}"/>
+    <hyperlink ref="L3" r:id="rId21" xr:uid="{05B969DB-FB85-4898-8515-EC8AFEA0C8AC}"/>
+    <hyperlink ref="M3" r:id="rId22" xr:uid="{B18E3AEC-B3D2-47B8-AD9B-25A8CB2CC39F}"/>
+    <hyperlink ref="N3" r:id="rId23" xr:uid="{EFFFAC1E-B0B5-493B-B87C-815686649792}"/>
+    <hyperlink ref="E4:E7" r:id="rId24" display="Admin@999" xr:uid="{E67C0CF9-B157-4AE2-B94F-7ADF70F4E132}"/>
+    <hyperlink ref="D8" r:id="rId25" xr:uid="{08179AE5-32F8-448B-99D3-919E962BA191}"/>
+    <hyperlink ref="E8" r:id="rId26" xr:uid="{D49EF1B4-2FDA-4949-B8D7-ECA893A1D54C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6087,7 +6968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>

--- a/Web/coyni/resources/testdata.xlsx
+++ b/Web/coyni/resources/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web (13-12-2-2021)(2)\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web (15-12-2021)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C32803-362F-412F-AA0C-F206A857A741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280DA2BF-9C4A-4963-A57D-FC5C1189B328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="PaymentMethods-Debit" sheetId="7" r:id="rId3"/>
     <sheet name="TokenAccount-Customer" sheetId="5" r:id="rId4"/>
     <sheet name="forgotEmail" sheetId="6" r:id="rId5"/>
-    <sheet name="requestToken" sheetId="8" r:id="rId6"/>
-    <sheet name="change-password" sheetId="9" r:id="rId7"/>
-    <sheet name="filters" sheetId="3" r:id="rId8"/>
-    <sheet name="profile" sheetId="2" r:id="rId9"/>
+    <sheet name="forgotPassword" sheetId="10" r:id="rId6"/>
+    <sheet name="requestToken" sheetId="8" r:id="rId7"/>
+    <sheet name="change-password" sheetId="9" r:id="rId8"/>
+    <sheet name="filters" sheetId="3" r:id="rId9"/>
+    <sheet name="profile" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="433">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1242,6 +1243,102 @@
   </si>
   <si>
     <t>verify change password With invalid Credentials</t>
+  </si>
+  <si>
+    <t>lblEmail</t>
+  </si>
+  <si>
+    <t>CreatePasswordHeading</t>
+  </si>
+  <si>
+    <t>enterPassword</t>
+  </si>
+  <si>
+    <t>successHeading</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>test Forgot Password</t>
+  </si>
+  <si>
+    <t>test Valid Password</t>
+  </si>
+  <si>
+    <t>anudeepg@ideyalabs.com</t>
+  </si>
+  <si>
+    <t>Forgot Password?</t>
+  </si>
+  <si>
+    <t>Create New Password</t>
+  </si>
+  <si>
+    <t>Password Changed</t>
+  </si>
+  <si>
+    <t>Please enter the email address associated with your coyni account below. We will send you a one-time passcode.</t>
+  </si>
+  <si>
+    <t>Test forgot password with invalid Email</t>
+  </si>
+  <si>
+    <t>Test forgot password with empty Email</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>addhhf@gmail.com</t>
+  </si>
+  <si>
+    <t>This email is not registered to an account in our system.</t>
+  </si>
+  <si>
+    <t>Test Forgot Password with invalid phone OTP</t>
+  </si>
+  <si>
+    <t>Test Forgot Password with special character and Alphabits</t>
+  </si>
+  <si>
+    <t>@#,asd</t>
+  </si>
+  <si>
+    <t>test Forgot Password with invalid enter and confirm Password</t>
+  </si>
+  <si>
+    <t>test Forgot Password with invalid empty enter Password</t>
+  </si>
+  <si>
+    <t>test Forgot Password with invalid Empty Confirm  Password</t>
+  </si>
+  <si>
+    <t>Please confirm your password</t>
+  </si>
+  <si>
+    <t>test Forgot Password with invalid enter  Password</t>
+  </si>
+  <si>
+    <t>Confirm Password must match with Enter password</t>
+  </si>
+  <si>
+    <t>Admin@1000</t>
+  </si>
+  <si>
+    <t>Password must be at least 8 characters</t>
+  </si>
+  <si>
+    <t>qwedsa</t>
+  </si>
+  <si>
+    <t>Invalid password format. Please try again.</t>
+  </si>
+  <si>
+    <t>asdf12333221</t>
   </si>
 </sst>
 </file>
@@ -1747,25 +1844,25 @@
       <selection pane="topRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.36328125" customWidth="1"/>
-    <col min="2" max="2" width="50.08984375" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" customWidth="1"/>
-    <col min="4" max="4" width="27.08984375" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" customWidth="1"/>
-    <col min="6" max="6" width="63.90625" customWidth="1"/>
-    <col min="7" max="7" width="63.453125" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="63.85546875" customWidth="1"/>
+    <col min="7" max="7" width="63.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="43" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
-    <col min="11" max="11" width="24.6328125" customWidth="1"/>
-    <col min="12" max="12" width="26.453125" customWidth="1"/>
-    <col min="13" max="13" width="32.90625" customWidth="1"/>
-    <col min="14" max="14" width="22.90625" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" customWidth="1"/>
+    <col min="12" max="12" width="26.42578125" customWidth="1"/>
+    <col min="13" max="13" width="32.85546875" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1830,7 +1927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -1859,7 +1956,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1889,7 +1986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1919,7 +2016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1948,7 +2045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1980,7 +2077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -2009,7 +2106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -2027,7 +2124,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2065,7 +2162,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -2097,7 +2194,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2129,7 +2226,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -2161,7 +2258,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2193,7 +2290,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -2216,7 +2313,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -2248,7 +2345,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -2277,7 +2374,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -2303,7 +2400,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -2329,7 +2426,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -2355,7 +2452,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -2395,6 +2492,58 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:X1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D06DFA-D6F9-4A05-B463-4DDA52F0E3E7}">
   <dimension ref="A1:X21"/>
@@ -2403,18 +2552,18 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.54296875" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="8" width="14.08984375" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2488,7 +2637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -2556,7 +2705,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -2622,7 +2771,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -2687,7 +2836,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -2752,7 +2901,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -2817,7 +2966,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -2882,7 +3031,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -2944,7 +3093,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -3006,7 +3155,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -3068,7 +3217,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -3130,7 +3279,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -3192,7 +3341,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -3254,7 +3403,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -3316,7 +3465,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -3378,7 +3527,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -3440,7 +3589,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -3502,7 +3651,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>158</v>
       </c>
@@ -3567,7 +3716,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>167</v>
       </c>
@@ -3629,7 +3778,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -3661,7 +3810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>177</v>
       </c>
@@ -3785,22 +3934,22 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" customWidth="1"/>
-    <col min="2" max="2" width="32.453125" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" customWidth="1"/>
-    <col min="6" max="6" width="28.36328125" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.5703125" customWidth="1"/>
     <col min="18" max="18" width="42" customWidth="1"/>
-    <col min="23" max="23" width="9.54296875" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3874,7 +4023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -3939,7 +4088,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>184</v>
       </c>
@@ -4007,7 +4156,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -4072,7 +4221,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>191</v>
       </c>
@@ -4105,7 +4254,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>192</v>
       </c>
@@ -4170,7 +4319,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>192</v>
       </c>
@@ -4235,7 +4384,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>192</v>
       </c>
@@ -4309,7 +4458,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>192</v>
       </c>
@@ -4377,7 +4526,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>192</v>
       </c>
@@ -4445,7 +4594,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>192</v>
       </c>
@@ -4513,7 +4662,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>192</v>
       </c>
@@ -4581,7 +4730,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>192</v>
       </c>
@@ -4650,7 +4799,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>192</v>
       </c>
@@ -4718,7 +4867,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>192</v>
       </c>
@@ -4786,7 +4935,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -4854,7 +5003,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>192</v>
       </c>
@@ -4922,7 +5071,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>192</v>
       </c>
@@ -5010,17 +5159,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="31.54296875" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" customWidth="1"/>
-    <col min="6" max="6" width="29.36328125" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5070,7 +5219,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>219</v>
       </c>
@@ -5099,7 +5248,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>221</v>
       </c>
@@ -5128,7 +5277,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>223</v>
       </c>
@@ -5157,7 +5306,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>225</v>
       </c>
@@ -5186,7 +5335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>227</v>
       </c>
@@ -5206,7 +5355,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>229</v>
       </c>
@@ -5226,7 +5375,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>231</v>
       </c>
@@ -5246,7 +5395,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>233</v>
       </c>
@@ -5266,7 +5415,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>235</v>
       </c>
@@ -5286,7 +5435,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>237</v>
       </c>
@@ -5306,7 +5455,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>239</v>
       </c>
@@ -5326,7 +5475,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>241</v>
       </c>
@@ -5346,7 +5495,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>243</v>
       </c>
@@ -5366,7 +5515,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>245</v>
       </c>
@@ -5386,7 +5535,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>247</v>
       </c>
@@ -5412,7 +5561,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>251</v>
       </c>
@@ -5441,7 +5590,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>256</v>
       </c>
@@ -5470,7 +5619,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>258</v>
       </c>
@@ -5499,7 +5648,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>260</v>
       </c>
@@ -5528,7 +5677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>342</v>
       </c>
@@ -5557,7 +5706,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>345</v>
       </c>
@@ -5586,7 +5735,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>347</v>
       </c>
@@ -5615,7 +5764,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>349</v>
       </c>
@@ -5701,35 +5850,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F2C328-44FE-4BE7-9D79-D8AE6FF7329F}">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.36328125" customWidth="1"/>
-    <col min="2" max="2" width="43.08984375" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="4" width="25.36328125" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" customWidth="1"/>
-    <col min="6" max="6" width="65.54296875" customWidth="1"/>
-    <col min="7" max="7" width="43.36328125" customWidth="1"/>
-    <col min="8" max="8" width="21.90625" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" customWidth="1"/>
-    <col min="10" max="10" width="15.08984375" customWidth="1"/>
-    <col min="11" max="11" width="20.453125" customWidth="1"/>
-    <col min="12" max="12" width="15.08984375" customWidth="1"/>
-    <col min="13" max="13" width="13.90625" customWidth="1"/>
-    <col min="14" max="14" width="19.90625" customWidth="1"/>
-    <col min="15" max="15" width="18.453125" customWidth="1"/>
-    <col min="16" max="16" width="12.08984375" customWidth="1"/>
-    <col min="17" max="17" width="13.54296875" customWidth="1"/>
-    <col min="18" max="18" width="13.453125" customWidth="1"/>
-    <col min="20" max="20" width="16.54296875" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="65.5703125" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" customWidth="1"/>
     <col min="21" max="21" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5800,7 +5949,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>268</v>
       </c>
@@ -5845,7 +5994,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>272</v>
       </c>
@@ -5872,7 +6021,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>272</v>
       </c>
@@ -5902,7 +6051,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>272</v>
       </c>
@@ -5932,7 +6081,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>281</v>
       </c>
@@ -5965,7 +6114,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>281</v>
       </c>
@@ -5998,7 +6147,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>281</v>
       </c>
@@ -6035,7 +6184,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>292</v>
       </c>
@@ -6071,7 +6220,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>295</v>
       </c>
@@ -6113,7 +6262,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>295</v>
       </c>
@@ -6152,7 +6301,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>295</v>
       </c>
@@ -6191,7 +6340,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>295</v>
       </c>
@@ -6241,6 +6390,522 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D8A0C5-E174-4C21-930E-B9BC756C35D5}">
+  <dimension ref="A1:S12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="52.140625" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K2" t="s">
+        <v>410</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>412</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>409</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>409</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>409</v>
+      </c>
+      <c r="O5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>409</v>
+      </c>
+      <c r="H6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="O6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H7" t="s">
+        <v>294</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>409</v>
+      </c>
+      <c r="H8" t="s">
+        <v>294</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K8" t="s">
+        <v>410</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E9" t="s">
+        <v>425</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>409</v>
+      </c>
+      <c r="H9" t="s">
+        <v>294</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K9" t="s">
+        <v>410</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E10" t="s">
+        <v>427</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>409</v>
+      </c>
+      <c r="H10" t="s">
+        <v>294</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K10" t="s">
+        <v>410</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>422</v>
+      </c>
+      <c r="B11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E11" t="s">
+        <v>429</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>409</v>
+      </c>
+      <c r="H11" t="s">
+        <v>294</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K11" t="s">
+        <v>410</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>422</v>
+      </c>
+      <c r="B12" t="s">
+        <v>426</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E12" t="s">
+        <v>431</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>409</v>
+      </c>
+      <c r="H12" t="s">
+        <v>294</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K12" t="s">
+        <v>410</v>
+      </c>
+      <c r="L12" t="s">
+        <v>432</v>
+      </c>
+      <c r="M12" t="s">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{C5FAF50F-DF40-4AE3-B797-DE228EDFBB1F}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{67ABC54D-C962-4462-A3E0-826AE42448D8}"/>
+    <hyperlink ref="M2" r:id="rId3" xr:uid="{C9CCF2A7-CF36-432E-890A-A7BCA1FF47B9}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{DD61AAFD-F0FD-4B0D-B4F3-F891C829242B}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{03FE81E9-1EFD-43FC-AEBC-38AF16682ED8}"/>
+    <hyperlink ref="I6" r:id="rId6" xr:uid="{1C962E9C-AFC7-4C22-8EDB-05EE9E74433E}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{D6D3DC59-640D-4095-A43B-E7A35CBF0BD9}"/>
+    <hyperlink ref="D7" r:id="rId8" xr:uid="{618777BA-2773-4087-940E-4B93335C6229}"/>
+    <hyperlink ref="I7" r:id="rId9" xr:uid="{E93FD0E8-4D4F-422B-8185-273EF680331A}"/>
+    <hyperlink ref="I8" r:id="rId10" xr:uid="{66B297C9-743A-42CB-B994-9B6ABCB5090E}"/>
+    <hyperlink ref="M8" r:id="rId11" xr:uid="{D730F95F-1B02-4C44-A6CD-8C81808B9EF3}"/>
+    <hyperlink ref="D8" r:id="rId12" xr:uid="{E0AA9C3F-A871-4A13-8920-5921B29B7D38}"/>
+    <hyperlink ref="I9" r:id="rId13" xr:uid="{56709C27-797F-4B60-9975-06CA347065E9}"/>
+    <hyperlink ref="L9" r:id="rId14" xr:uid="{EA36490E-DAEE-456D-95B3-18E3BA2FC2AC}"/>
+    <hyperlink ref="D9" r:id="rId15" xr:uid="{CA13EF44-A3FD-4723-B2A4-44564B6A4CB7}"/>
+    <hyperlink ref="D10" r:id="rId16" xr:uid="{44596E6E-7A0F-4499-AC8A-B0D01D875FB1}"/>
+    <hyperlink ref="I10" r:id="rId17" xr:uid="{F1304E7E-E453-4445-8CE4-EB556AED58B3}"/>
+    <hyperlink ref="L10" r:id="rId18" display="Admin@999" xr:uid="{34CA6E72-9F8E-45FF-BE12-2C1FEC02B52B}"/>
+    <hyperlink ref="M10" r:id="rId19" xr:uid="{999D8EDE-EF24-439B-AC9A-07A97FD76C16}"/>
+    <hyperlink ref="D11" r:id="rId20" xr:uid="{5546C8FF-DDE4-4699-A9DB-8B9C33921BC1}"/>
+    <hyperlink ref="I11" r:id="rId21" xr:uid="{991895A0-ABA4-4785-9CE4-62587659BF8F}"/>
+    <hyperlink ref="D12" r:id="rId22" xr:uid="{B2852A54-FD2C-4AFE-A0F4-74485806F686}"/>
+    <hyperlink ref="I12" r:id="rId23" xr:uid="{4BCBE6FB-0C1F-4266-81EB-902B68678C01}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CB4B52-88BF-4AB0-95D7-DE4FB48CEC18}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
@@ -6248,19 +6913,19 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.26953125" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
     <col min="2" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" customWidth="1"/>
-    <col min="7" max="7" width="20.81640625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
     <col min="8" max="10" width="15" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" customWidth="1"/>
-    <col min="13" max="13" width="18.81640625" customWidth="1"/>
-    <col min="14" max="14" width="21.26953125" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6313,7 +6978,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>359</v>
       </c>
@@ -6363,7 +7028,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>369</v>
       </c>
@@ -6402,7 +7067,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>373</v>
       </c>
@@ -6443,7 +7108,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>376</v>
       </c>
@@ -6496,7 +7161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6D89BB-036C-439B-A4C9-B3C473F79A68}">
   <dimension ref="A1:U8"/>
   <sheetViews>
@@ -6504,29 +7169,29 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.453125" customWidth="1"/>
-    <col min="2" max="2" width="32.81640625" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18.90625" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" customWidth="1"/>
-    <col min="9" max="9" width="26.54296875" customWidth="1"/>
-    <col min="10" max="10" width="20.54296875" customWidth="1"/>
-    <col min="11" max="11" width="16.90625" customWidth="1"/>
-    <col min="12" max="12" width="13.1796875" customWidth="1"/>
-    <col min="13" max="13" width="12.90625" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="16.1796875" customWidth="1"/>
-    <col min="17" max="17" width="15.1796875" customWidth="1"/>
-    <col min="20" max="20" width="11.6328125" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6589,7 +7254,7 @@
       </c>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>384</v>
       </c>
@@ -6640,7 +7305,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>384</v>
       </c>
@@ -6690,7 +7355,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>391</v>
       </c>
@@ -6737,7 +7402,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>391</v>
       </c>
@@ -6785,7 +7450,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>391</v>
       </c>
@@ -6835,7 +7500,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>391</v>
       </c>
@@ -6883,7 +7548,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>400</v>
       </c>
@@ -6951,7 +7616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6961,61 +7626,9 @@
       <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:X1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="4" max="4" width="22.453125" customWidth="1"/>
-    <col min="5" max="5" width="26.36328125" customWidth="1"/>
-    <col min="6" max="6" width="30.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Web/coyni/resources/testdata.xlsx
+++ b/Web/coyni/resources/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web (15-12-2021)\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web (29-12-2021)[2]\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280DA2BF-9C4A-4963-A57D-FC5C1189B328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8357F0-069F-4D6D-8394-D0816B999B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="401">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1243,102 +1243,6 @@
   </si>
   <si>
     <t>verify change password With invalid Credentials</t>
-  </si>
-  <si>
-    <t>lblEmail</t>
-  </si>
-  <si>
-    <t>CreatePasswordHeading</t>
-  </si>
-  <si>
-    <t>enterPassword</t>
-  </si>
-  <si>
-    <t>successHeading</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>test Forgot Password</t>
-  </si>
-  <si>
-    <t>test Valid Password</t>
-  </si>
-  <si>
-    <t>anudeepg@ideyalabs.com</t>
-  </si>
-  <si>
-    <t>Forgot Password?</t>
-  </si>
-  <si>
-    <t>Create New Password</t>
-  </si>
-  <si>
-    <t>Password Changed</t>
-  </si>
-  <si>
-    <t>Please enter the email address associated with your coyni account below. We will send you a one-time passcode.</t>
-  </si>
-  <si>
-    <t>Test forgot password with invalid Email</t>
-  </si>
-  <si>
-    <t>Test forgot password with empty Email</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>addhhf@gmail.com</t>
-  </si>
-  <si>
-    <t>This email is not registered to an account in our system.</t>
-  </si>
-  <si>
-    <t>Test Forgot Password with invalid phone OTP</t>
-  </si>
-  <si>
-    <t>Test Forgot Password with special character and Alphabits</t>
-  </si>
-  <si>
-    <t>@#,asd</t>
-  </si>
-  <si>
-    <t>test Forgot Password with invalid enter and confirm Password</t>
-  </si>
-  <si>
-    <t>test Forgot Password with invalid empty enter Password</t>
-  </si>
-  <si>
-    <t>test Forgot Password with invalid Empty Confirm  Password</t>
-  </si>
-  <si>
-    <t>Please confirm your password</t>
-  </si>
-  <si>
-    <t>test Forgot Password with invalid enter  Password</t>
-  </si>
-  <si>
-    <t>Confirm Password must match with Enter password</t>
-  </si>
-  <si>
-    <t>Admin@1000</t>
-  </si>
-  <si>
-    <t>Password must be at least 8 characters</t>
-  </si>
-  <si>
-    <t>qwedsa</t>
-  </si>
-  <si>
-    <t>Invalid password format. Please try again.</t>
-  </si>
-  <si>
-    <t>asdf12333221</t>
   </si>
 </sst>
 </file>
@@ -1844,25 +1748,25 @@
       <selection pane="topRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="63.85546875" customWidth="1"/>
-    <col min="7" max="7" width="63.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.453125" customWidth="1"/>
+    <col min="2" max="2" width="50.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="27.1796875" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" customWidth="1"/>
+    <col min="6" max="6" width="63.81640625" customWidth="1"/>
+    <col min="7" max="7" width="63.453125" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="43" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" customWidth="1"/>
-    <col min="12" max="12" width="26.42578125" customWidth="1"/>
-    <col min="13" max="13" width="32.85546875" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="33.81640625" customWidth="1"/>
+    <col min="11" max="11" width="24.54296875" customWidth="1"/>
+    <col min="12" max="12" width="26.453125" customWidth="1"/>
+    <col min="13" max="13" width="32.81640625" customWidth="1"/>
+    <col min="14" max="14" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1927,7 +1831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -1956,7 +1860,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1986,7 +1890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2016,7 +1920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -2045,7 +1949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2077,7 +1981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -2106,7 +2010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -2124,7 +2028,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2162,7 +2066,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -2194,7 +2098,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2226,7 +2130,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -2258,7 +2162,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2290,7 +2194,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -2313,7 +2217,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -2345,7 +2249,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -2374,7 +2278,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -2400,7 +2304,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -2426,7 +2330,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -2452,7 +2356,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -2500,16 +2404,16 @@
       <selection activeCell="J1" sqref="J1:X1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
+    <col min="5" max="5" width="26.453125" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2552,18 +2456,18 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.54296875" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2637,7 +2541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -2705,7 +2609,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -2771,7 +2675,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -2836,7 +2740,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -2901,7 +2805,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -2966,7 +2870,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -3031,7 +2935,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -3093,7 +2997,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -3155,7 +3059,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -3217,7 +3121,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -3279,7 +3183,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -3341,7 +3245,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -3403,7 +3307,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -3465,7 +3369,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -3527,7 +3431,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -3589,7 +3493,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -3651,7 +3555,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>158</v>
       </c>
@@ -3716,7 +3620,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>167</v>
       </c>
@@ -3778,7 +3682,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -3810,7 +3714,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>177</v>
       </c>
@@ -3934,22 +3838,22 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.54296875" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="28.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.54296875" customWidth="1"/>
     <col min="18" max="18" width="42" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" customWidth="1"/>
+    <col min="23" max="23" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4023,7 +3927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -4088,7 +3992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>184</v>
       </c>
@@ -4156,7 +4060,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -4221,7 +4125,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>191</v>
       </c>
@@ -4254,7 +4158,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>192</v>
       </c>
@@ -4319,7 +4223,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>192</v>
       </c>
@@ -4384,7 +4288,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>192</v>
       </c>
@@ -4458,7 +4362,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>192</v>
       </c>
@@ -4526,7 +4430,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>192</v>
       </c>
@@ -4594,7 +4498,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>192</v>
       </c>
@@ -4662,7 +4566,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>192</v>
       </c>
@@ -4730,7 +4634,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>192</v>
       </c>
@@ -4799,7 +4703,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>192</v>
       </c>
@@ -4867,7 +4771,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>192</v>
       </c>
@@ -4935,7 +4839,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -5003,7 +4907,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>192</v>
       </c>
@@ -5071,7 +4975,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>192</v>
       </c>
@@ -5159,17 +5063,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5219,7 +5123,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>219</v>
       </c>
@@ -5248,7 +5152,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>221</v>
       </c>
@@ -5277,7 +5181,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>223</v>
       </c>
@@ -5306,7 +5210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>225</v>
       </c>
@@ -5335,7 +5239,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>227</v>
       </c>
@@ -5355,7 +5259,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>229</v>
       </c>
@@ -5375,7 +5279,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>231</v>
       </c>
@@ -5395,7 +5299,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>233</v>
       </c>
@@ -5415,7 +5319,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>235</v>
       </c>
@@ -5435,7 +5339,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>237</v>
       </c>
@@ -5455,7 +5359,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>239</v>
       </c>
@@ -5475,7 +5379,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>241</v>
       </c>
@@ -5495,7 +5399,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>243</v>
       </c>
@@ -5515,7 +5419,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>245</v>
       </c>
@@ -5535,7 +5439,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>247</v>
       </c>
@@ -5561,7 +5465,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>251</v>
       </c>
@@ -5590,7 +5494,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>256</v>
       </c>
@@ -5619,7 +5523,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>258</v>
       </c>
@@ -5648,7 +5552,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>260</v>
       </c>
@@ -5677,7 +5581,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>342</v>
       </c>
@@ -5706,7 +5610,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>345</v>
       </c>
@@ -5735,7 +5639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>347</v>
       </c>
@@ -5764,7 +5668,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>349</v>
       </c>
@@ -5854,31 +5758,31 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="65.5703125" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" customWidth="1"/>
-    <col min="20" max="20" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="37.453125" customWidth="1"/>
+    <col min="2" max="2" width="43.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" customWidth="1"/>
+    <col min="6" max="6" width="65.54296875" customWidth="1"/>
+    <col min="7" max="7" width="43.453125" customWidth="1"/>
+    <col min="8" max="8" width="21.81640625" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" customWidth="1"/>
+    <col min="10" max="10" width="15.1796875" customWidth="1"/>
+    <col min="11" max="11" width="20.453125" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" customWidth="1"/>
+    <col min="14" max="14" width="19.81640625" customWidth="1"/>
+    <col min="15" max="15" width="18.453125" customWidth="1"/>
+    <col min="16" max="16" width="12.1796875" customWidth="1"/>
+    <col min="17" max="17" width="13.54296875" customWidth="1"/>
+    <col min="18" max="18" width="13.453125" customWidth="1"/>
+    <col min="20" max="20" width="16.54296875" customWidth="1"/>
     <col min="21" max="21" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5949,7 +5853,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>268</v>
       </c>
@@ -5994,7 +5898,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>272</v>
       </c>
@@ -6021,7 +5925,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>272</v>
       </c>
@@ -6051,7 +5955,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>272</v>
       </c>
@@ -6081,7 +5985,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>281</v>
       </c>
@@ -6114,7 +6018,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>281</v>
       </c>
@@ -6147,7 +6051,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>281</v>
       </c>
@@ -6184,7 +6088,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>292</v>
       </c>
@@ -6220,7 +6124,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>295</v>
       </c>
@@ -6262,7 +6166,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>295</v>
       </c>
@@ -6301,7 +6205,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>295</v>
       </c>
@@ -6340,7 +6244,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>295</v>
       </c>
@@ -6391,31 +6295,31 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D8A0C5-E174-4C21-930E-B9BC756C35D5}">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.140625" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="52.1796875" customWidth="1"/>
+    <col min="2" max="2" width="46.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" customWidth="1"/>
+    <col min="11" max="11" width="21.54296875" customWidth="1"/>
+    <col min="12" max="12" width="13.81640625" customWidth="1"/>
+    <col min="13" max="13" width="15.7265625" customWidth="1"/>
+    <col min="14" max="14" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6429,478 +6333,498 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" t="s">
+        <v>267</v>
+      </c>
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>406</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s">
-        <v>407</v>
+        <v>269</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
+      <c r="D2" s="2"/>
       <c r="G2" t="s">
-        <v>409</v>
-      </c>
-      <c r="H2" t="s">
-        <v>294</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="L2" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="M2" s="2">
+        <v>2525150178</v>
+      </c>
+      <c r="O2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="K2" t="s">
-        <v>410</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>412</v>
-      </c>
       <c r="R2" t="s">
-        <v>29</v>
+        <v>322</v>
       </c>
       <c r="S2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" t="s">
+        <v>324</v>
+      </c>
+      <c r="W2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>413</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>414</v>
+        <v>273</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
       <c r="G3" t="s">
-        <v>409</v>
-      </c>
-      <c r="O3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>270</v>
+      </c>
+      <c r="T3" t="s">
         <v>33</v>
       </c>
-      <c r="P3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="V3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>413</v>
+        <v>272</v>
       </c>
       <c r="B4" t="s">
-        <v>413</v>
+        <v>276</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
       <c r="G4" t="s">
-        <v>409</v>
-      </c>
-      <c r="O4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>270</v>
+      </c>
+      <c r="M4">
+        <v>9515</v>
+      </c>
+      <c r="T4" t="s">
         <v>33</v>
       </c>
-      <c r="P4" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="V4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>272</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>279</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E5" t="s">
-        <v>418</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="G5" t="s">
-        <v>409</v>
-      </c>
-      <c r="O5" t="s">
+        <v>280</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>270</v>
+      </c>
+      <c r="M5">
+        <v>2525150456</v>
+      </c>
+      <c r="T5" t="s">
         <v>33</v>
       </c>
-      <c r="P5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="V5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>419</v>
+        <v>281</v>
       </c>
       <c r="B6" t="s">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="2"/>
+      <c r="G6" t="s">
+        <v>283</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="L6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M6">
+        <v>2525150178</v>
+      </c>
+      <c r="S6" t="s">
+        <v>323</v>
+      </c>
+      <c r="T6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="G7" t="s">
+        <v>286</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="L7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M7">
+        <v>2525150178</v>
+      </c>
+      <c r="R7" t="s">
+        <v>322</v>
+      </c>
+      <c r="T7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="L8" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2525150178</v>
+      </c>
+      <c r="R8" t="s">
+        <v>289</v>
+      </c>
+      <c r="S8" t="s">
+        <v>290</v>
+      </c>
+      <c r="T8" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="L9" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="M9">
+        <v>2525150178</v>
+      </c>
+      <c r="O9" t="s">
+        <v>294</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="R9" t="s">
+        <v>322</v>
+      </c>
+      <c r="S9" t="s">
+        <v>323</v>
+      </c>
+      <c r="W9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="G10" t="s">
         <v>55</v>
       </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>409</v>
-      </c>
-      <c r="H6" t="s">
-        <v>294</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="I10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="L10" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2525150178</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="O6" t="s">
+      <c r="R10" t="s">
+        <v>322</v>
+      </c>
+      <c r="S10" t="s">
+        <v>323</v>
+      </c>
+      <c r="T10" t="s">
         <v>33</v>
       </c>
-      <c r="P6" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>420</v>
-      </c>
-      <c r="B7" t="s">
-        <v>420</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>409</v>
-      </c>
-      <c r="H7" t="s">
-        <v>294</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>422</v>
-      </c>
-      <c r="B8" t="s">
-        <v>423</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>409</v>
-      </c>
-      <c r="H8" t="s">
-        <v>294</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="K8" t="s">
-        <v>410</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>422</v>
-      </c>
-      <c r="B9" t="s">
-        <v>424</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="U10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E9" t="s">
-        <v>425</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>409</v>
-      </c>
-      <c r="H9" t="s">
-        <v>294</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="K9" t="s">
-        <v>410</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>422</v>
-      </c>
-      <c r="B10" t="s">
-        <v>426</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="D11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="L11" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="M11" s="2">
+        <v>2525150178</v>
+      </c>
+      <c r="O11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" t="s">
+        <v>297</v>
+      </c>
+      <c r="R11" t="s">
+        <v>322</v>
+      </c>
+      <c r="S11" t="s">
+        <v>323</v>
+      </c>
+      <c r="T11" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E10" t="s">
-        <v>427</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>409</v>
-      </c>
-      <c r="H10" t="s">
-        <v>294</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="K10" t="s">
-        <v>410</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>422</v>
-      </c>
-      <c r="B11" t="s">
-        <v>426</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="D12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="L12" t="s">
+        <v>270</v>
+      </c>
+      <c r="M12">
+        <v>2525150178</v>
+      </c>
+      <c r="O12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" t="s">
+        <v>298</v>
+      </c>
+      <c r="R12" t="s">
+        <v>322</v>
+      </c>
+      <c r="S12" t="s">
+        <v>323</v>
+      </c>
+      <c r="T12" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E11" t="s">
-        <v>429</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>409</v>
-      </c>
-      <c r="H11" t="s">
-        <v>294</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="K11" t="s">
-        <v>410</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>422</v>
-      </c>
-      <c r="B12" t="s">
-        <v>426</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E12" t="s">
-        <v>431</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>409</v>
-      </c>
-      <c r="H12" t="s">
-        <v>294</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="K12" t="s">
-        <v>410</v>
-      </c>
-      <c r="L12" t="s">
-        <v>432</v>
-      </c>
-      <c r="M12" t="s">
-        <v>432</v>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>270</v>
+      </c>
+      <c r="M13">
+        <v>2525150178</v>
+      </c>
+      <c r="O13" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" t="s">
+        <v>299</v>
+      </c>
+      <c r="R13" t="s">
+        <v>322</v>
+      </c>
+      <c r="S13" t="s">
+        <v>323</v>
+      </c>
+      <c r="T13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{C5FAF50F-DF40-4AE3-B797-DE228EDFBB1F}"/>
-    <hyperlink ref="L2" r:id="rId2" xr:uid="{67ABC54D-C962-4462-A3E0-826AE42448D8}"/>
-    <hyperlink ref="M2" r:id="rId3" xr:uid="{C9CCF2A7-CF36-432E-890A-A7BCA1FF47B9}"/>
-    <hyperlink ref="D2" r:id="rId4" xr:uid="{DD61AAFD-F0FD-4B0D-B4F3-F891C829242B}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{03FE81E9-1EFD-43FC-AEBC-38AF16682ED8}"/>
-    <hyperlink ref="I6" r:id="rId6" xr:uid="{1C962E9C-AFC7-4C22-8EDB-05EE9E74433E}"/>
-    <hyperlink ref="D6" r:id="rId7" xr:uid="{D6D3DC59-640D-4095-A43B-E7A35CBF0BD9}"/>
-    <hyperlink ref="D7" r:id="rId8" xr:uid="{618777BA-2773-4087-940E-4B93335C6229}"/>
-    <hyperlink ref="I7" r:id="rId9" xr:uid="{E93FD0E8-4D4F-422B-8185-273EF680331A}"/>
-    <hyperlink ref="I8" r:id="rId10" xr:uid="{66B297C9-743A-42CB-B994-9B6ABCB5090E}"/>
-    <hyperlink ref="M8" r:id="rId11" xr:uid="{D730F95F-1B02-4C44-A6CD-8C81808B9EF3}"/>
-    <hyperlink ref="D8" r:id="rId12" xr:uid="{E0AA9C3F-A871-4A13-8920-5921B29B7D38}"/>
-    <hyperlink ref="I9" r:id="rId13" xr:uid="{56709C27-797F-4B60-9975-06CA347065E9}"/>
-    <hyperlink ref="L9" r:id="rId14" xr:uid="{EA36490E-DAEE-456D-95B3-18E3BA2FC2AC}"/>
-    <hyperlink ref="D9" r:id="rId15" xr:uid="{CA13EF44-A3FD-4723-B2A4-44564B6A4CB7}"/>
-    <hyperlink ref="D10" r:id="rId16" xr:uid="{44596E6E-7A0F-4499-AC8A-B0D01D875FB1}"/>
-    <hyperlink ref="I10" r:id="rId17" xr:uid="{F1304E7E-E453-4445-8CE4-EB556AED58B3}"/>
-    <hyperlink ref="L10" r:id="rId18" display="Admin@999" xr:uid="{34CA6E72-9F8E-45FF-BE12-2C1FEC02B52B}"/>
-    <hyperlink ref="M10" r:id="rId19" xr:uid="{999D8EDE-EF24-439B-AC9A-07A97FD76C16}"/>
-    <hyperlink ref="D11" r:id="rId20" xr:uid="{5546C8FF-DDE4-4699-A9DB-8B9C33921BC1}"/>
-    <hyperlink ref="I11" r:id="rId21" xr:uid="{991895A0-ABA4-4785-9CE4-62587659BF8F}"/>
-    <hyperlink ref="D12" r:id="rId22" xr:uid="{B2852A54-FD2C-4AFE-A0F4-74485806F686}"/>
-    <hyperlink ref="I12" r:id="rId23" xr:uid="{4BCBE6FB-0C1F-4266-81EB-902B68678C01}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6913,19 +6837,19 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.26953125" customWidth="1"/>
     <col min="2" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" customWidth="1"/>
     <col min="8" max="10" width="15" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" customWidth="1"/>
-    <col min="14" max="14" width="21.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" customWidth="1"/>
+    <col min="13" max="13" width="18.81640625" customWidth="1"/>
+    <col min="14" max="14" width="21.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6978,7 +6902,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>359</v>
       </c>
@@ -7028,7 +6952,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>369</v>
       </c>
@@ -7067,7 +6991,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>373</v>
       </c>
@@ -7108,7 +7032,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>376</v>
       </c>
@@ -7169,29 +7093,29 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.453125" customWidth="1"/>
+    <col min="2" max="2" width="32.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" customWidth="1"/>
+    <col min="9" max="9" width="26.54296875" customWidth="1"/>
+    <col min="10" max="10" width="20.54296875" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" customWidth="1"/>
+    <col min="13" max="13" width="12.81640625" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="16.1796875" customWidth="1"/>
+    <col min="17" max="17" width="15.1796875" customWidth="1"/>
+    <col min="20" max="20" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7254,7 +7178,7 @@
       </c>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>384</v>
       </c>
@@ -7305,7 +7229,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>384</v>
       </c>
@@ -7355,7 +7279,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>391</v>
       </c>
@@ -7402,7 +7326,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>391</v>
       </c>
@@ -7450,7 +7374,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>391</v>
       </c>
@@ -7500,7 +7424,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>391</v>
       </c>
@@ -7548,7 +7472,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>400</v>
       </c>
@@ -7626,7 +7550,7 @@
       <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Web/coyni/resources/testdata.xlsx
+++ b/Web/coyni/resources/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web (29-12-2021)[2]\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web (05-01-2022)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8357F0-069F-4D6D-8394-D0816B999B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D337ED-360F-4556-90E8-1F8117C5F50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="427">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1243,6 +1243,84 @@
   </si>
   <si>
     <t>verify change password With invalid Credentials</t>
+  </si>
+  <si>
+    <t>Verify My QR code With Email</t>
+  </si>
+  <si>
+    <t>QR Code</t>
+  </si>
+  <si>
+    <t>gubbaanudeep@yahoo.com</t>
+  </si>
+  <si>
+    <t>UYL3VUUWNJ7CTBIGUZXZKAOAWYYTCTKBQUMF2XXID7CWXOHIXVDA</t>
+  </si>
+  <si>
+    <t>Copy</t>
+  </si>
+  <si>
+    <t>Copied to clipboard</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>Verify My QR code with Navigation Option</t>
+  </si>
+  <si>
+    <t>QR Code with navigation option</t>
+  </si>
+  <si>
+    <t>Verify My QR code with Paste Option</t>
+  </si>
+  <si>
+    <t>QR Code with paste option</t>
+  </si>
+  <si>
+    <t>Verify My QR code With Phone Number</t>
+  </si>
+  <si>
+    <t>Verify My QR code With nagative option</t>
+  </si>
+  <si>
+    <t>Empty Email</t>
+  </si>
+  <si>
+    <t>please enter Email</t>
+  </si>
+  <si>
+    <t>invalid Email</t>
+  </si>
+  <si>
+    <t>dsdf</t>
+  </si>
+  <si>
+    <t>Empty Phone Number</t>
+  </si>
+  <si>
+    <t>please enter Phone Number</t>
+  </si>
+  <si>
+    <t>invalid Phone Number</t>
+  </si>
+  <si>
+    <t>Phone number must be10 digits</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>copyToClipBoard</t>
+  </si>
+  <si>
+    <t>containt</t>
+  </si>
+  <si>
+    <t>email1</t>
+  </si>
+  <si>
+    <t>1234</t>
   </si>
 </sst>
 </file>
@@ -5057,10 +5135,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7342C061-16F1-49A5-BA07-4D17E62E882D}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5068,12 +5146,12 @@
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="31.54296875" customWidth="1"/>
     <col min="3" max="3" width="10.54296875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="4" max="4" width="22.08984375" customWidth="1"/>
     <col min="5" max="5" width="14.54296875" customWidth="1"/>
     <col min="6" max="6" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5122,8 +5200,26 @@
       <c r="P1" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>219</v>
       </c>
@@ -5152,7 +5248,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>221</v>
       </c>
@@ -5181,7 +5277,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>223</v>
       </c>
@@ -5210,7 +5306,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>225</v>
       </c>
@@ -5239,7 +5335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>227</v>
       </c>
@@ -5259,7 +5355,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>229</v>
       </c>
@@ -5279,7 +5375,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>231</v>
       </c>
@@ -5299,7 +5395,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>233</v>
       </c>
@@ -5319,7 +5415,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>235</v>
       </c>
@@ -5339,7 +5435,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>237</v>
       </c>
@@ -5359,7 +5455,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>239</v>
       </c>
@@ -5379,7 +5475,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>241</v>
       </c>
@@ -5399,7 +5495,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>243</v>
       </c>
@@ -5419,7 +5515,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>245</v>
       </c>
@@ -5439,7 +5535,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>247</v>
       </c>
@@ -5465,7 +5561,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>251</v>
       </c>
@@ -5494,7 +5590,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>256</v>
       </c>
@@ -5523,7 +5619,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>258</v>
       </c>
@@ -5552,7 +5648,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>260</v>
       </c>
@@ -5581,7 +5677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>342</v>
       </c>
@@ -5610,7 +5706,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>345</v>
       </c>
@@ -5639,7 +5735,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>347</v>
       </c>
@@ -5668,7 +5764,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>349</v>
       </c>
@@ -5697,18 +5793,313 @@
         <v>29</v>
       </c>
     </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>401</v>
+      </c>
+      <c r="B25" t="s">
+        <v>402</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" t="s">
+        <v>404</v>
+      </c>
+      <c r="L25" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>405</v>
+      </c>
+      <c r="R25" t="s">
+        <v>406</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="T25" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>408</v>
+      </c>
+      <c r="B26" t="s">
+        <v>409</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" t="s">
+        <v>404</v>
+      </c>
+      <c r="L26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" t="s">
+        <v>29</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="T26" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>410</v>
+      </c>
+      <c r="B27" t="s">
+        <v>411</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" t="s">
+        <v>404</v>
+      </c>
+      <c r="L27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" t="s">
+        <v>29</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>412</v>
+      </c>
+      <c r="B28" t="s">
+        <v>402</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" t="s">
+        <v>404</v>
+      </c>
+      <c r="L28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>405</v>
+      </c>
+      <c r="R28" t="s">
+        <v>406</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="T28" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>413</v>
+      </c>
+      <c r="B29" t="s">
+        <v>414</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" t="s">
+        <v>404</v>
+      </c>
+      <c r="L29" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" t="s">
+        <v>29</v>
+      </c>
+      <c r="R29" t="s">
+        <v>406</v>
+      </c>
+      <c r="U29" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>413</v>
+      </c>
+      <c r="B30" t="s">
+        <v>416</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" t="s">
+        <v>404</v>
+      </c>
+      <c r="L30" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" t="s">
+        <v>29</v>
+      </c>
+      <c r="R30" t="s">
+        <v>406</v>
+      </c>
+      <c r="U30" t="s">
+        <v>40</v>
+      </c>
+      <c r="V30" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>413</v>
+      </c>
+      <c r="B31" t="s">
+        <v>418</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" t="s">
+        <v>404</v>
+      </c>
+      <c r="L31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" t="s">
+        <v>28</v>
+      </c>
+      <c r="N31" t="s">
+        <v>29</v>
+      </c>
+      <c r="R31" t="s">
+        <v>406</v>
+      </c>
+      <c r="U31" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>413</v>
+      </c>
+      <c r="B32" t="s">
+        <v>420</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" t="s">
+        <v>404</v>
+      </c>
+      <c r="L32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N32" t="s">
+        <v>29</v>
+      </c>
+      <c r="R32" t="s">
+        <v>406</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="U32" t="s">
+        <v>421</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{6C146171-EEEB-4984-BA7E-C72A2C6B51F4}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{59FF07A1-4463-4523-9767-833F2DE70D1C}"/>
-    <hyperlink ref="E21" r:id="rId3" xr:uid="{DFEEEE0B-B654-4EA9-9E5F-A2ECC164D06F}"/>
-    <hyperlink ref="E22" r:id="rId4" xr:uid="{FDCC25EC-5380-48E3-8E76-81356C607A09}"/>
-    <hyperlink ref="E23" r:id="rId5" xr:uid="{C71CD914-5C7B-4719-883C-7618E52BE817}"/>
-    <hyperlink ref="D21" r:id="rId6" xr:uid="{1FD25F7D-AAB5-4BAA-ADF8-5583B4A7AE7B}"/>
-    <hyperlink ref="D22" r:id="rId7" xr:uid="{4B0EF301-F251-4899-A408-95EB86321974}"/>
-    <hyperlink ref="D23" r:id="rId8" xr:uid="{86C448C7-75C2-4C71-AB76-254382979C63}"/>
-    <hyperlink ref="E24" r:id="rId9" xr:uid="{24CC7C77-505F-44A5-A8B6-654B4141B30D}"/>
-    <hyperlink ref="D24" r:id="rId10" xr:uid="{F5C5EC36-8809-432B-897D-458331D1C6C1}"/>
+    <hyperlink ref="E21" r:id="rId1" xr:uid="{DFEEEE0B-B654-4EA9-9E5F-A2ECC164D06F}"/>
+    <hyperlink ref="E22" r:id="rId2" xr:uid="{FDCC25EC-5380-48E3-8E76-81356C607A09}"/>
+    <hyperlink ref="E23" r:id="rId3" xr:uid="{C71CD914-5C7B-4719-883C-7618E52BE817}"/>
+    <hyperlink ref="D21" r:id="rId4" xr:uid="{1FD25F7D-AAB5-4BAA-ADF8-5583B4A7AE7B}"/>
+    <hyperlink ref="D22" r:id="rId5" xr:uid="{4B0EF301-F251-4899-A408-95EB86321974}"/>
+    <hyperlink ref="D23" r:id="rId6" xr:uid="{86C448C7-75C2-4C71-AB76-254382979C63}"/>
+    <hyperlink ref="E24" r:id="rId7" xr:uid="{24CC7C77-505F-44A5-A8B6-654B4141B30D}"/>
+    <hyperlink ref="D24" r:id="rId8" xr:uid="{F5C5EC36-8809-432B-897D-458331D1C6C1}"/>
+    <hyperlink ref="D2" r:id="rId9" xr:uid="{6C146171-EEEB-4984-BA7E-C72A2C6B51F4}"/>
+    <hyperlink ref="E2" r:id="rId10" xr:uid="{59FF07A1-4463-4523-9767-833F2DE70D1C}"/>
     <hyperlink ref="E3" r:id="rId11" xr:uid="{9A98EE61-435E-4D38-8B59-1074A85B2EA7}"/>
     <hyperlink ref="E4" r:id="rId12" xr:uid="{46E5BC6B-E5B6-41EE-B95C-F7A8228F3D09}"/>
     <hyperlink ref="E5" r:id="rId13" xr:uid="{6CE74440-7463-4E39-BB8F-EB4E280D5C96}"/>
@@ -5745,6 +6136,9 @@
     <hyperlink ref="D18" r:id="rId44" xr:uid="{8DEFF7FE-2426-47DD-ADA5-319A052EE5AB}"/>
     <hyperlink ref="D19" r:id="rId45" xr:uid="{49E10451-CE4B-4673-B443-EC5C0A0CF61A}"/>
     <hyperlink ref="D20" r:id="rId46" xr:uid="{3BB0A350-CFD3-44D8-B3F3-D435CB0295DF}"/>
+    <hyperlink ref="E25:E32" r:id="rId47" display="Cust@123" xr:uid="{A6412B37-8416-4F86-9F23-3E465150F710}"/>
+    <hyperlink ref="D25" r:id="rId48" xr:uid="{9D48A650-565B-4079-A94C-14CF4D657E9F}"/>
+    <hyperlink ref="D26:D32" r:id="rId49" display="gubbaanudeep@yahoo.com" xr:uid="{D3F1C163-E43C-4ABE-860D-3F8FD5505935}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6297,7 +6691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D8A0C5-E174-4C21-930E-B9BC756C35D5}">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>

--- a/Web/coyni/resources/testdata.xlsx
+++ b/Web/coyni/resources/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web (05-01-2022)\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\web (05-01-2022)[2]\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D337ED-360F-4556-90E8-1F8117C5F50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4384AA0D-6BAF-4650-A229-5F79829DE84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="434">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1321,6 +1321,27 @@
   </si>
   <si>
     <t>1234</t>
+  </si>
+  <si>
+    <t>Please enter Phone Number</t>
+  </si>
+  <si>
+    <t>Forgot email with field validation</t>
+  </si>
+  <si>
+    <t>1232233333,qwe,$#,  ,12345678986</t>
+  </si>
+  <si>
+    <t>Forgot email with field validation with first and last name</t>
+  </si>
+  <si>
+    <t>we,ere,hhhhhhhhhhhhhhhhhhhhhhhhhhhhhhh,hhhhhhhhhhhhhhhhhhhhhhhhhhhhh,#$,1234,   ,hhhdfhhhhhhhhhhhhhhhhhhhhhhhhhhhhh</t>
+  </si>
+  <si>
+    <t>Forgot email with resend option</t>
+  </si>
+  <si>
+    <t>Resend Option</t>
   </si>
 </sst>
 </file>
@@ -1826,25 +1847,25 @@
       <selection pane="topRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.453125" customWidth="1"/>
-    <col min="2" max="2" width="50.1796875" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
-    <col min="4" max="4" width="27.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" customWidth="1"/>
-    <col min="6" max="6" width="63.81640625" customWidth="1"/>
-    <col min="7" max="7" width="63.453125" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.44140625" customWidth="1"/>
+    <col min="2" max="2" width="50.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="63.77734375" customWidth="1"/>
+    <col min="7" max="7" width="63.44140625" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="43" customWidth="1"/>
-    <col min="10" max="10" width="33.81640625" customWidth="1"/>
-    <col min="11" max="11" width="24.54296875" customWidth="1"/>
-    <col min="12" max="12" width="26.453125" customWidth="1"/>
-    <col min="13" max="13" width="32.81640625" customWidth="1"/>
-    <col min="14" max="14" width="22.81640625" customWidth="1"/>
+    <col min="10" max="10" width="33.77734375" customWidth="1"/>
+    <col min="11" max="11" width="24.5546875" customWidth="1"/>
+    <col min="12" max="12" width="26.44140625" customWidth="1"/>
+    <col min="13" max="13" width="32.77734375" customWidth="1"/>
+    <col min="14" max="14" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2482,16 +2503,16 @@
       <selection activeCell="J1" sqref="J1:X1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="4" max="4" width="22.453125" customWidth="1"/>
-    <col min="5" max="5" width="26.453125" customWidth="1"/>
-    <col min="6" max="6" width="30.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2534,18 +2555,18 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.54296875" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="8" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2619,7 +2640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -2687,7 +2708,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -2753,7 +2774,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -2818,7 +2839,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -2883,7 +2904,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -2948,7 +2969,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -3013,7 +3034,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -3075,7 +3096,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -3137,7 +3158,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -3199,7 +3220,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -3261,7 +3282,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -3323,7 +3344,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -3385,7 +3406,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -3447,7 +3468,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -3509,7 +3530,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -3571,7 +3592,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -3916,22 +3937,22 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.54296875" customWidth="1"/>
-    <col min="2" max="2" width="32.453125" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="6" width="28.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.5546875" customWidth="1"/>
     <col min="18" max="18" width="42" customWidth="1"/>
-    <col min="23" max="23" width="9.54296875" customWidth="1"/>
+    <col min="23" max="23" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5137,21 +5158,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7342C061-16F1-49A5-BA07-4D17E62E882D}">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="31.54296875" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="22.08984375" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="6" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6146,37 +6167,37 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F2C328-44FE-4BE7-9D79-D8AE6FF7329F}">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.453125" customWidth="1"/>
-    <col min="2" max="2" width="43.1796875" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" customWidth="1"/>
-    <col min="4" max="4" width="25.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" customWidth="1"/>
-    <col min="6" max="6" width="65.54296875" customWidth="1"/>
-    <col min="7" max="7" width="43.453125" customWidth="1"/>
-    <col min="8" max="8" width="21.81640625" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" customWidth="1"/>
-    <col min="10" max="10" width="15.1796875" customWidth="1"/>
-    <col min="11" max="11" width="20.453125" customWidth="1"/>
-    <col min="12" max="12" width="15.1796875" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" customWidth="1"/>
-    <col min="14" max="14" width="19.81640625" customWidth="1"/>
-    <col min="15" max="15" width="18.453125" customWidth="1"/>
-    <col min="16" max="16" width="12.1796875" customWidth="1"/>
-    <col min="17" max="17" width="13.54296875" customWidth="1"/>
-    <col min="18" max="18" width="13.453125" customWidth="1"/>
-    <col min="20" max="20" width="16.54296875" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" customWidth="1"/>
+    <col min="2" max="2" width="43.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="65.5546875" customWidth="1"/>
+    <col min="7" max="7" width="43.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.77734375" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" customWidth="1"/>
+    <col min="14" max="14" width="19.77734375" customWidth="1"/>
+    <col min="15" max="15" width="18.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" customWidth="1"/>
+    <col min="20" max="20" width="16.5546875" customWidth="1"/>
     <col min="21" max="21" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6304,7 +6325,7 @@
       </c>
       <c r="D3" s="7"/>
       <c r="G3" t="s">
-        <v>274</v>
+        <v>427</v>
       </c>
       <c r="I3" t="s">
         <v>27</v>
@@ -6677,13 +6698,88 @@
         <v>324</v>
       </c>
     </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>270</v>
+      </c>
+      <c r="M14" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>430</v>
+      </c>
+      <c r="B15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>270</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="R15" t="s">
+        <v>431</v>
+      </c>
+      <c r="S15" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>432</v>
+      </c>
+      <c r="B16" t="s">
+        <v>433</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>270</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="O16" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16" t="s">
+        <v>322</v>
+      </c>
+      <c r="S16" t="s">
+        <v>323</v>
+      </c>
+      <c r="U16" t="s">
+        <v>324</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="P12" r:id="rId1" location="@*&amp;%$" xr:uid="{1F191689-41A3-4184-AFAC-8EAC2F5E8CEF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6695,25 +6791,25 @@
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" customWidth="1"/>
-    <col min="2" max="2" width="46.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="52.21875" customWidth="1"/>
+    <col min="2" max="2" width="46.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" customWidth="1"/>
-    <col min="11" max="11" width="21.54296875" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" customWidth="1"/>
-    <col min="13" max="13" width="15.7265625" customWidth="1"/>
-    <col min="14" max="14" width="17.453125" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7231,19 +7327,19 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.26953125" customWidth="1"/>
+    <col min="1" max="1" width="35.21875" customWidth="1"/>
     <col min="2" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" customWidth="1"/>
-    <col min="7" max="7" width="20.81640625" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" customWidth="1"/>
     <col min="8" max="10" width="15" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" customWidth="1"/>
-    <col min="13" max="13" width="18.81640625" customWidth="1"/>
-    <col min="14" max="14" width="21.26953125" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" customWidth="1"/>
+    <col min="13" max="13" width="18.77734375" customWidth="1"/>
+    <col min="14" max="14" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7296,7 +7392,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="66" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>359</v>
       </c>
@@ -7346,7 +7442,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="66" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>369</v>
       </c>
@@ -7385,7 +7481,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="66" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>373</v>
       </c>
@@ -7426,7 +7522,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="66" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>376</v>
       </c>
@@ -7487,29 +7583,29 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.453125" customWidth="1"/>
-    <col min="2" max="2" width="32.81640625" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" customWidth="1"/>
-    <col min="9" max="9" width="26.54296875" customWidth="1"/>
-    <col min="10" max="10" width="20.54296875" customWidth="1"/>
-    <col min="11" max="11" width="16.81640625" customWidth="1"/>
-    <col min="12" max="12" width="13.1796875" customWidth="1"/>
-    <col min="13" max="13" width="12.81640625" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="39.44140625" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+    <col min="9" max="9" width="26.5546875" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="16.1796875" customWidth="1"/>
-    <col min="17" max="17" width="15.1796875" customWidth="1"/>
-    <col min="20" max="20" width="11.54296875" customWidth="1"/>
+    <col min="16" max="16" width="16.21875" customWidth="1"/>
+    <col min="17" max="17" width="15.21875" customWidth="1"/>
+    <col min="20" max="20" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7944,7 +8040,7 @@
       <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Web/coyni/resources/testdata.xlsx
+++ b/Web/coyni/resources/testdata.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpace-08-01-2022\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web (17-01-2021)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140449AC-7D8C-4F12-A411-9E67D6D5C172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328122F1-30D0-42C8-A15E-E1383AE882AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="User-Details" sheetId="10" r:id="rId2"/>
-    <sheet name="PaymentMethods" sheetId="4" r:id="rId3"/>
-    <sheet name="TokenAccount-Customer" sheetId="5" r:id="rId4"/>
-    <sheet name="forgotEmail" sheetId="6" r:id="rId5"/>
-    <sheet name="PaymentMethods-Debit" sheetId="7" r:id="rId6"/>
-    <sheet name="filters" sheetId="3" r:id="rId7"/>
-    <sheet name="profile" sheetId="2" r:id="rId8"/>
-    <sheet name="homePage" sheetId="9" r:id="rId9"/>
+    <sheet name="changePassword" sheetId="11" r:id="rId3"/>
+    <sheet name="PaymentMethods" sheetId="4" r:id="rId4"/>
+    <sheet name="TokenAccount-Customer" sheetId="5" r:id="rId5"/>
+    <sheet name="forgotEmail" sheetId="6" r:id="rId6"/>
+    <sheet name="PaymentMethods-Debit" sheetId="7" r:id="rId7"/>
+    <sheet name="filters" sheetId="3" r:id="rId8"/>
+    <sheet name="profile" sheetId="2" r:id="rId9"/>
+    <sheet name="homePage" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="578">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1709,13 +1710,82 @@
   </si>
   <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>currentPassword</t>
+  </si>
+  <si>
+    <t>newPassword</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>successContent</t>
+  </si>
+  <si>
+    <t>createHeading</t>
+  </si>
+  <si>
+    <t>test Change Password</t>
+  </si>
+  <si>
+    <t>valid change password</t>
+  </si>
+  <si>
+    <t>maniv789396@gmail.com</t>
+  </si>
+  <si>
+    <t>IABM32UV4QPB7LGO7HEWRQM4CFU2KA2BDZ473FYHLEPEXC4QRT6A</t>
+  </si>
+  <si>
+    <t>Verify your Identity</t>
+  </si>
+  <si>
+    <t>As a security measure, you will be logged out of your
+account once you successfully change your password.</t>
+  </si>
+  <si>
+    <t>Your Password Was Updated Successfully!</t>
+  </si>
+  <si>
+    <t>test Change Password ivalid information</t>
+  </si>
+  <si>
+    <t>invalid confirm password</t>
+  </si>
+  <si>
+    <t>Admin@1234</t>
+  </si>
+  <si>
+    <t>Admin@1235</t>
+  </si>
+  <si>
+    <t>Error: Passwords do not match.</t>
+  </si>
+  <si>
+    <t>empty confirm password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Confirm password is required
+</t>
+  </si>
+  <si>
+    <t>empty current password</t>
+  </si>
+  <si>
+    <t>Password is required</t>
+  </si>
+  <si>
+    <t>New password should not match with Old password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1810,6 +1880,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1848,7 +1924,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1908,6 +1984,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2289,25 +2368,25 @@
       <selection pane="topRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.44140625" customWidth="1"/>
-    <col min="2" max="2" width="50.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="63.88671875" customWidth="1"/>
-    <col min="7" max="7" width="63.44140625" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.453125" customWidth="1"/>
+    <col min="2" max="2" width="50.08984375" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" customWidth="1"/>
+    <col min="4" max="4" width="27.08984375" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" customWidth="1"/>
+    <col min="6" max="6" width="63.90625" customWidth="1"/>
+    <col min="7" max="7" width="63.453125" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="43" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
-    <col min="11" max="11" width="24.44140625" customWidth="1"/>
-    <col min="12" max="12" width="26.44140625" customWidth="1"/>
-    <col min="13" max="13" width="32.88671875" customWidth="1"/>
-    <col min="14" max="14" width="22.88671875" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="11" max="11" width="24.453125" customWidth="1"/>
+    <col min="12" max="12" width="26.453125" customWidth="1"/>
+    <col min="13" max="13" width="32.90625" customWidth="1"/>
+    <col min="14" max="14" width="22.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2372,7 +2451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -2401,7 +2480,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -2431,7 +2510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2461,7 +2540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -2490,7 +2569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2522,7 +2601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -2551,7 +2630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -2569,7 +2648,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -2607,7 +2686,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -2639,7 +2718,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -2671,7 +2750,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -2703,7 +2782,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -2735,7 +2814,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -2758,7 +2837,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -2790,7 +2869,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -2819,7 +2898,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -2845,7 +2924,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -2871,7 +2950,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -2897,7 +2976,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -2939,40 +3018,1016 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B18C423-D7E7-4B7B-9167-D2BDC190AA4E}">
+  <dimension ref="A1:W22"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AA15" sqref="AA15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.453125" customWidth="1"/>
+    <col min="2" max="2" width="48.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="24.90625" customWidth="1"/>
+    <col min="5" max="5" width="35.90625" customWidth="1"/>
+    <col min="6" max="6" width="35.08984375" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="8" max="8" width="16.36328125" customWidth="1"/>
+    <col min="9" max="9" width="49.08984375" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" customWidth="1"/>
+    <col min="12" max="12" width="13.36328125" customWidth="1"/>
+    <col min="13" max="13" width="13.6328125" customWidth="1"/>
+    <col min="14" max="14" width="15.453125" customWidth="1"/>
+    <col min="15" max="15" width="19.36328125" customWidth="1"/>
+    <col min="16" max="16" width="23.6328125" customWidth="1"/>
+    <col min="17" max="18" width="19.36328125" customWidth="1"/>
+    <col min="19" max="19" width="22.6328125" customWidth="1"/>
+    <col min="20" max="20" width="19.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+    </row>
+    <row r="3" spans="1:23" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="I4" t="s">
+        <v>442</v>
+      </c>
+      <c r="J4" t="s">
+        <v>442</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" t="s">
+        <v>456</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="U5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="U6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="J7" t="s">
+        <v>456</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="V7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="I8" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="J8" t="s">
+        <v>456</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="U8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="J9" t="s">
+        <v>456</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="V9" t="s">
+        <v>49</v>
+      </c>
+      <c r="W9" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B10" t="s">
+        <v>480</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="J10" t="s">
+        <v>456</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="U10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B11" t="s">
+        <v>482</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s">
+        <v>483</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="J11" t="s">
+        <v>456</v>
+      </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="U11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B12" t="s">
+        <v>485</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="J12" t="s">
+        <v>456</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="U12" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B13" t="s">
+        <v>487</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="J13" t="s">
+        <v>456</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="U13" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B14" t="s">
+        <v>489</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="J14" t="s">
+        <v>456</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="V14" t="s">
+        <v>49</v>
+      </c>
+      <c r="W14" s="14" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B15" t="s">
+        <v>491</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="F15" s="20"/>
+      <c r="I15" s="19"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="U15" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B16" t="s">
+        <v>493</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="J16" t="s">
+        <v>456</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="U16" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="J17" t="s">
+        <v>456</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="U17" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B18" t="s">
+        <v>496</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="J18" t="s">
+        <v>456</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B19" t="s">
+        <v>499</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="J19" t="s">
+        <v>456</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B20" t="s">
+        <v>501</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="J20" t="s">
+        <v>456</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="P20" s="19" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B21" t="s">
+        <v>502</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="J21" t="s">
+        <v>456</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B22" t="s">
+        <v>504</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>505</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M3" r:id="rId1" xr:uid="{40B15EDC-AE23-443B-B49A-CCCCBA695541}"/>
+    <hyperlink ref="N3" r:id="rId2" xr:uid="{34364467-99E6-4A73-9F0A-367BEB8795A2}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{76ED8F48-D6F5-4471-9E0F-F1693D3E4241}"/>
+    <hyperlink ref="D4" r:id="rId4" display="a@b.in,a@b.com,a@bcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghiklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopq.com,a@bcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopq.com,a@bcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefgdhijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopq.com" xr:uid="{D85F07D2-8350-4ED7-8B33-F7CA31166E0B}"/>
+    <hyperlink ref="M4" r:id="rId5" xr:uid="{F327B5B9-39C0-4E36-8260-EAE33FD2F23D}"/>
+    <hyperlink ref="N4" r:id="rId6" xr:uid="{2CD354E4-B66C-41FA-BDFD-8AFA1B4E8B5C}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{20339AF2-C8BA-4B30-AEE4-496788AD1DEB}"/>
+    <hyperlink ref="M5" r:id="rId8" xr:uid="{E7C43A6C-94BC-4043-9ECF-77B7D5DF1885}"/>
+    <hyperlink ref="D17" r:id="rId9" xr:uid="{3D16A510-B7FF-4D47-B98C-798854F2138A}"/>
+    <hyperlink ref="M6" r:id="rId10" xr:uid="{2E2C7FEC-FCC8-46D6-9F28-09008EFC2E98}"/>
+    <hyperlink ref="M8" r:id="rId11" xr:uid="{C1F46BD4-6CC0-40A9-81D2-1CE2EF3468B0}"/>
+    <hyperlink ref="M11" r:id="rId12" xr:uid="{36F051C4-93B2-4CA1-B88C-A4F7703E33AD}"/>
+    <hyperlink ref="M18" r:id="rId13" display="Admin@123" xr:uid="{9240E756-8D87-41B2-B88F-E7318A883255}"/>
+    <hyperlink ref="M20" r:id="rId14" xr:uid="{55D19047-56C1-49FE-9CCE-7D25FBDBF4B5}"/>
+    <hyperlink ref="M10" r:id="rId15" xr:uid="{15D24EA3-471F-4C1E-B4AD-34402BF33E77}"/>
+    <hyperlink ref="M17" r:id="rId16" xr:uid="{F3D351E3-E3DC-40A9-AD4B-8DD339B49D09}"/>
+    <hyperlink ref="M21" r:id="rId17" xr:uid="{A3AAD49F-A299-483D-B1A0-13A778A16041}"/>
+    <hyperlink ref="N5" r:id="rId18" xr:uid="{341F89AA-596A-4DA3-B806-A9BE76EDF4BC}"/>
+    <hyperlink ref="N6" r:id="rId19" xr:uid="{78CC411F-73E5-4722-9EA0-34121AB42845}"/>
+    <hyperlink ref="N8" r:id="rId20" xr:uid="{4CAC76BA-32D2-45A8-A5D7-EDDC3F152EA9}"/>
+    <hyperlink ref="N11" r:id="rId21" xr:uid="{4388A44E-59AD-4708-91C4-530E760F78F4}"/>
+    <hyperlink ref="N10" r:id="rId22" xr:uid="{D407EAC0-1091-4612-80FF-8D4FD29BB2D2}"/>
+    <hyperlink ref="N17" r:id="rId23" xr:uid="{16FB91A2-A1DC-4B32-8025-C328CD33494E}"/>
+    <hyperlink ref="N21" r:id="rId24" xr:uid="{03F9F991-6E42-41D0-8F37-6CEBCAF682CD}"/>
+    <hyperlink ref="N18" r:id="rId25" display="Admin@123" xr:uid="{A8129A54-3091-4463-8093-D69A20642FE6}"/>
+    <hyperlink ref="N19" r:id="rId26" xr:uid="{4FE7D3D7-5789-409A-A37D-9B6A7CE36AA3}"/>
+    <hyperlink ref="M7" r:id="rId27" xr:uid="{F7E0475C-BECA-44D4-8598-5466FA3F3C8D}"/>
+    <hyperlink ref="N7" r:id="rId28" xr:uid="{4996C6EC-8A3D-4BF8-9255-D8976D660284}"/>
+    <hyperlink ref="M9" r:id="rId29" xr:uid="{EC37FB4E-FD41-4BD4-888B-17599E0851E0}"/>
+    <hyperlink ref="N9" r:id="rId30" xr:uid="{3C2971C2-1D9C-4A98-81CD-06619C3FF246}"/>
+    <hyperlink ref="D14" r:id="rId31" xr:uid="{B6C0F823-494E-4294-96D5-9FCAA5223E6F}"/>
+    <hyperlink ref="M12" r:id="rId32" xr:uid="{C65FFAFE-4C1A-490A-BC23-344C6FD61C43}"/>
+    <hyperlink ref="M13" r:id="rId33" xr:uid="{59B714BA-CE77-461F-9CF7-47EC25791E08}"/>
+    <hyperlink ref="M14" r:id="rId34" xr:uid="{749C29F6-07B2-4B1A-AC57-43EB9FB7B60E}"/>
+    <hyperlink ref="N12" r:id="rId35" xr:uid="{9953B0C0-235B-4726-8007-8AD465206505}"/>
+    <hyperlink ref="N13" r:id="rId36" xr:uid="{5B268448-BA40-493C-999B-4CDB7D75DBFC}"/>
+    <hyperlink ref="N14" r:id="rId37" xr:uid="{4BC6D98A-2D01-49A2-A12E-E7ED1E6887F6}"/>
+    <hyperlink ref="D16" r:id="rId38" xr:uid="{8BB4EB86-E4AC-40F7-BB9F-2C54C3A33A80}"/>
+    <hyperlink ref="M16" r:id="rId39" xr:uid="{7246A40C-6325-4CA5-A6C9-5DF1854D7C01}"/>
+    <hyperlink ref="N16" r:id="rId40" xr:uid="{D2F84660-768E-49AA-992D-86B2C8CC7CFB}"/>
+    <hyperlink ref="D6" r:id="rId41" xr:uid="{210486E1-181F-434B-A7F4-6A41E5AC3574}"/>
+    <hyperlink ref="D7" r:id="rId42" xr:uid="{1BECB6E8-0DC5-415D-BE0C-CCF4117C771E}"/>
+    <hyperlink ref="D8" r:id="rId43" xr:uid="{01B86751-44DB-4618-85FF-6BCC7D7ACD15}"/>
+    <hyperlink ref="D9" r:id="rId44" xr:uid="{3CC30BD7-6508-4736-B850-C6D3D15D2886}"/>
+    <hyperlink ref="D10" r:id="rId45" xr:uid="{7B0BB163-86E7-42BD-95D0-25F8D6096A16}"/>
+    <hyperlink ref="D12" r:id="rId46" xr:uid="{5CE96045-BB7F-4DE8-ABC5-D7D8952C7AFF}"/>
+    <hyperlink ref="D18" r:id="rId47" xr:uid="{6D2C8D27-968F-43C4-B39C-EB203BB56A43}"/>
+    <hyperlink ref="D19" r:id="rId48" xr:uid="{D14DE1A8-04B4-4A11-A105-A04F3AA08FB4}"/>
+    <hyperlink ref="D20" r:id="rId49" xr:uid="{8601F8BB-0610-4FEB-BF33-2515FEA0C8C9}"/>
+    <hyperlink ref="D21" r:id="rId50" xr:uid="{46AFB659-8E60-4290-B464-A85F725F775A}"/>
+    <hyperlink ref="S3" r:id="rId51" xr:uid="{F5444E3D-813D-454F-96AC-BAE1AA6945CE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC75FA6E-738B-4B34-8B51-3655C2EAED1B}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="28.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="34.90625" customWidth="1"/>
+    <col min="2" max="2" width="38.54296875" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" customWidth="1"/>
+    <col min="6" max="6" width="28.54296875" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" customWidth="1"/>
+    <col min="8" max="8" width="21.453125" customWidth="1"/>
+    <col min="9" max="9" width="20.08984375" customWidth="1"/>
+    <col min="10" max="10" width="22.6328125" customWidth="1"/>
+    <col min="11" max="11" width="18.90625" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" customWidth="1"/>
-    <col min="15" max="15" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="12.90625" customWidth="1"/>
+    <col min="14" max="14" width="14.90625" customWidth="1"/>
+    <col min="15" max="15" width="17.54296875" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="19" max="19" width="22.33203125" customWidth="1"/>
-    <col min="21" max="21" width="23.5546875" customWidth="1"/>
-    <col min="22" max="22" width="23.33203125" customWidth="1"/>
-    <col min="24" max="24" width="31.5546875" customWidth="1"/>
-    <col min="25" max="25" width="19.6640625" customWidth="1"/>
-    <col min="26" max="26" width="28.44140625" customWidth="1"/>
+    <col min="19" max="19" width="22.36328125" customWidth="1"/>
+    <col min="21" max="21" width="23.54296875" customWidth="1"/>
+    <col min="22" max="22" width="23.36328125" customWidth="1"/>
+    <col min="24" max="24" width="31.54296875" customWidth="1"/>
+    <col min="25" max="25" width="19.6328125" customWidth="1"/>
+    <col min="26" max="26" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3052,7 +4107,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>516</v>
       </c>
@@ -3117,7 +4172,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>524</v>
       </c>
@@ -3176,7 +4231,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>526</v>
       </c>
@@ -3220,7 +4275,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>526</v>
       </c>
@@ -3267,7 +4322,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>526</v>
       </c>
@@ -3314,7 +4369,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>526</v>
       </c>
@@ -3361,7 +4416,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>526</v>
       </c>
@@ -3408,7 +4463,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>526</v>
       </c>
@@ -3455,7 +4510,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>526</v>
       </c>
@@ -3502,7 +4557,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>526</v>
       </c>
@@ -3549,7 +4604,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>526</v>
       </c>
@@ -3596,7 +4651,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>540</v>
       </c>
@@ -3640,7 +4695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>540</v>
       </c>
@@ -3681,7 +4736,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>540</v>
       </c>
@@ -3722,7 +4777,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>540</v>
       </c>
@@ -3763,7 +4818,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>540</v>
       </c>
@@ -3868,6 +4923,378 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7446F1-455D-4825-A6ED-84437499AA4D}">
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.453125" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" customWidth="1"/>
+    <col min="9" max="9" width="25.90625" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" customWidth="1"/>
+    <col min="11" max="11" width="16.6328125" customWidth="1"/>
+    <col min="12" max="12" width="13.6328125" customWidth="1"/>
+    <col min="13" max="13" width="17.1796875" customWidth="1"/>
+    <col min="14" max="14" width="25.6328125" customWidth="1"/>
+    <col min="16" max="16" width="17.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="B2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>565</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="P2" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="B3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>565</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="B4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>565</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="N4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="B5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>565</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="15" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="B6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>565</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="15" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="B7" t="s">
+        <v>575</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>565</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="15" t="s">
+        <v>577</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{E6820CE7-80BC-4ED6-AF23-A523CA29787B}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{CA98E24C-B31A-4F38-8A22-238381507FDA}"/>
+    <hyperlink ref="K2" r:id="rId3" xr:uid="{5FA89D8C-7540-4B1F-A1A9-06330ADB5B38}"/>
+    <hyperlink ref="L2" r:id="rId4" xr:uid="{30EAB0A8-8493-418B-BE3E-E2DAFB49DE8E}"/>
+    <hyperlink ref="M2" r:id="rId5" xr:uid="{3055E40E-F8B0-4B56-9F4C-CA062217525B}"/>
+    <hyperlink ref="D3" r:id="rId6" xr:uid="{F269EE1A-F088-4FB0-818A-0D9E172535A6}"/>
+    <hyperlink ref="E3" r:id="rId7" xr:uid="{A2409E6E-00C2-4593-B2C0-0B513D5DB795}"/>
+    <hyperlink ref="K3" r:id="rId8" xr:uid="{F53FB584-0F6F-4651-B9D4-28F3EE52312F}"/>
+    <hyperlink ref="L3" r:id="rId9" xr:uid="{92060F21-3AB6-408F-A4BE-9D570259118F}"/>
+    <hyperlink ref="M3" r:id="rId10" xr:uid="{B1D18432-4351-4756-B837-20D5D5233AAF}"/>
+    <hyperlink ref="D4" r:id="rId11" xr:uid="{69119AF9-4967-4BB0-BB34-DEA50AB59824}"/>
+    <hyperlink ref="E4" r:id="rId12" xr:uid="{89FB5844-25C1-45A6-8C7C-5D3B4C0FE578}"/>
+    <hyperlink ref="K4" r:id="rId13" xr:uid="{35D64277-D74E-4593-B784-5CC6D5EF770B}"/>
+    <hyperlink ref="L4" r:id="rId14" xr:uid="{40A700A4-D149-4827-8032-BD2A5FB71BAA}"/>
+    <hyperlink ref="M4" r:id="rId15" xr:uid="{F4712EFA-82AF-477A-A30F-519CC5C28319}"/>
+    <hyperlink ref="D5" r:id="rId16" xr:uid="{FAAA4A07-5C06-48C7-A860-0A8A0D7DB8FB}"/>
+    <hyperlink ref="E5" r:id="rId17" xr:uid="{C3B36261-987D-4B70-80E1-CA7E9D9A8020}"/>
+    <hyperlink ref="K5" r:id="rId18" xr:uid="{01628038-7C8B-4935-8A9B-B84A19EE3289}"/>
+    <hyperlink ref="L5" r:id="rId19" xr:uid="{B5831364-1090-4D23-9349-16612D826488}"/>
+    <hyperlink ref="D6" r:id="rId20" xr:uid="{B70468B0-C878-4DBF-B7B0-9472F5A4A05F}"/>
+    <hyperlink ref="E6" r:id="rId21" xr:uid="{7BB14FCD-F359-4E35-B134-739DD00EFCE8}"/>
+    <hyperlink ref="K6" r:id="rId22" xr:uid="{FB4F2ABB-5EBE-4A61-94AA-986F315E0AF7}"/>
+    <hyperlink ref="D7" r:id="rId23" xr:uid="{9DF70183-B7CC-4B8B-AAF2-A657F01BCBAC}"/>
+    <hyperlink ref="E7" r:id="rId24" xr:uid="{79EE269B-3EBB-4752-87BC-6D50D0C33DF7}"/>
+    <hyperlink ref="K7" r:id="rId25" xr:uid="{6C490373-5DD4-4125-89AD-257ECBF7A94B}"/>
+    <hyperlink ref="L7" r:id="rId26" xr:uid="{6B970CA1-9335-4458-AB73-D5EDA71BF81C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D06DFA-D6F9-4A05-B463-4DDA52F0E3E7}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
@@ -3875,18 +5302,18 @@
       <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="35.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3966,7 +5393,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -4034,7 +5461,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -4102,7 +5529,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -4170,7 +5597,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -4238,7 +5665,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -4306,7 +5733,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -4371,7 +5798,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -4436,7 +5863,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -4501,7 +5928,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -4566,7 +5993,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -4631,7 +6058,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -4696,7 +6123,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -4761,7 +6188,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -4826,7 +6253,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -5310,7 +6737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7342C061-16F1-49A5-BA07-4D17E62E882D}">
   <dimension ref="A1:AM42"/>
   <sheetViews>
@@ -5318,30 +6745,30 @@
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="42.109375" customWidth="1"/>
-    <col min="7" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" customWidth="1"/>
-    <col min="10" max="10" width="19.88671875" customWidth="1"/>
-    <col min="11" max="11" width="19.88671875" hidden="1" customWidth="1"/>
-    <col min="12" max="14" width="19.88671875" customWidth="1"/>
-    <col min="15" max="15" width="30.109375" customWidth="1"/>
-    <col min="16" max="21" width="28.44140625" customWidth="1"/>
-    <col min="22" max="23" width="22.109375" customWidth="1"/>
-    <col min="24" max="29" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="35.08984375" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="6" max="6" width="42.08984375" customWidth="1"/>
+    <col min="7" max="8" width="16.36328125" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" customWidth="1"/>
+    <col min="10" max="10" width="19.90625" customWidth="1"/>
+    <col min="11" max="11" width="19.90625" hidden="1" customWidth="1"/>
+    <col min="12" max="14" width="19.90625" customWidth="1"/>
+    <col min="15" max="15" width="30.08984375" customWidth="1"/>
+    <col min="16" max="21" width="28.453125" customWidth="1"/>
+    <col min="22" max="23" width="22.08984375" customWidth="1"/>
+    <col min="24" max="29" width="19.90625" customWidth="1"/>
     <col min="30" max="30" width="50" customWidth="1"/>
-    <col min="31" max="31" width="22.44140625" customWidth="1"/>
+    <col min="31" max="31" width="22.453125" customWidth="1"/>
     <col min="35" max="35" width="22" customWidth="1"/>
-    <col min="36" max="36" width="21.44140625" customWidth="1"/>
+    <col min="36" max="36" width="21.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5454,7 +6881,7 @@
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
     </row>
-    <row r="2" spans="1:39" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>219</v>
       </c>
@@ -5483,7 +6910,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>221</v>
       </c>
@@ -5530,7 +6957,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>228</v>
       </c>
@@ -5559,7 +6986,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>230</v>
       </c>
@@ -5588,7 +7015,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>232</v>
       </c>
@@ -5617,7 +7044,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -5646,7 +7073,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>236</v>
       </c>
@@ -5676,7 +7103,7 @@
       </c>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:39" ht="67.8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:39" ht="43.5" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>238</v>
       </c>
@@ -5732,7 +7159,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="67.8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:39" ht="43.5" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
         <v>248</v>
       </c>
@@ -5789,7 +7216,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="67.8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:39" ht="57.5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>250</v>
       </c>
@@ -5846,7 +7273,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="94.2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:39" ht="89.5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>254</v>
       </c>
@@ -5909,7 +7336,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="57" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:39" ht="57.5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>258</v>
       </c>
@@ -5966,7 +7393,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="67.8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:39" ht="39.5" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
         <v>260</v>
       </c>
@@ -6026,7 +7453,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="94.2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:39" ht="89.5" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
         <v>263</v>
       </c>
@@ -6089,7 +7516,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>266</v>
       </c>
@@ -6125,7 +7552,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>269</v>
       </c>
@@ -6191,7 +7618,7 @@
       </c>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>274</v>
       </c>
@@ -6221,7 +7648,7 @@
       </c>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>276</v>
       </c>
@@ -6274,7 +7701,7 @@
       <c r="Z20" s="15"/>
       <c r="AH20" s="15"/>
     </row>
-    <row r="21" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" ht="25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>278</v>
       </c>
@@ -6308,7 +7735,7 @@
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
     </row>
-    <row r="22" spans="1:34" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>280</v>
       </c>
@@ -6358,7 +7785,7 @@
       <c r="AD22" s="15"/>
       <c r="AH22" s="15"/>
     </row>
-    <row r="23" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" ht="25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>280</v>
       </c>
@@ -6405,7 +7832,7 @@
       <c r="AD23" s="15"/>
       <c r="AH23" s="15"/>
     </row>
-    <row r="24" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" ht="25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>284</v>
       </c>
@@ -6457,7 +7884,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>287</v>
       </c>
@@ -6501,7 +7928,7 @@
       <c r="AB25" s="15"/>
       <c r="AC25" s="15"/>
     </row>
-    <row r="26" spans="1:34" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>291</v>
       </c>
@@ -6554,7 +7981,7 @@
       <c r="Z26" s="15"/>
       <c r="AD26" s="23"/>
     </row>
-    <row r="27" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="25" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>294</v>
       </c>
@@ -6613,7 +8040,7 @@
       </c>
       <c r="AD27" s="23"/>
     </row>
-    <row r="28" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="25" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>294</v>
       </c>
@@ -6667,7 +8094,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="25" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>294</v>
       </c>
@@ -6721,7 +8148,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>296</v>
       </c>
@@ -6772,7 +8199,7 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
     </row>
-    <row r="31" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>298</v>
       </c>
@@ -6823,7 +8250,7 @@
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
     </row>
-    <row r="32" spans="1:34" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>300</v>
       </c>
@@ -6869,7 +8296,7 @@
       <c r="Y32" s="23"/>
       <c r="Z32" s="23"/>
     </row>
-    <row r="33" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>303</v>
       </c>
@@ -6922,7 +8349,7 @@
       <c r="Y33" s="23"/>
       <c r="Z33" s="23"/>
     </row>
-    <row r="34" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>306</v>
       </c>
@@ -6957,7 +8384,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="25" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>310</v>
       </c>
@@ -6989,7 +8416,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>313</v>
       </c>
@@ -7024,7 +8451,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="25" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>316</v>
       </c>
@@ -7056,7 +8483,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="50" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>318</v>
       </c>
@@ -7141,7 +8568,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>328</v>
       </c>
@@ -7184,7 +8611,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="25" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>332</v>
       </c>
@@ -7219,7 +8646,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="25" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>333</v>
       </c>
@@ -7344,7 +8771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F2C328-44FE-4BE7-9D79-D8AE6FF7329F}">
   <dimension ref="A1:S15"/>
   <sheetViews>
@@ -7352,28 +8779,28 @@
       <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="1"/>
-    <col min="2" max="2" width="43.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1"/>
-    <col min="11" max="11" width="19.88671875" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" customWidth="1"/>
-    <col min="14" max="15" width="13.44140625" customWidth="1"/>
-    <col min="17" max="17" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="37.453125" customWidth="1"/>
+    <col min="2" max="2" width="43.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" customWidth="1"/>
+    <col min="5" max="5" width="21.90625" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.08984375" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" customWidth="1"/>
+    <col min="9" max="9" width="15.08984375" customWidth="1"/>
+    <col min="10" max="10" width="13.90625" customWidth="1"/>
+    <col min="11" max="11" width="19.90625" customWidth="1"/>
+    <col min="12" max="12" width="18.453125" customWidth="1"/>
+    <col min="13" max="13" width="12.08984375" customWidth="1"/>
+    <col min="14" max="15" width="13.453125" customWidth="1"/>
+    <col min="17" max="17" width="16.453125" customWidth="1"/>
     <col min="18" max="18" width="20" customWidth="1"/>
-    <col min="19" max="19" width="16.5546875" customWidth="1"/>
+    <col min="19" max="19" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7897,7 +9324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD7EB4D-1B81-49AC-A852-CF79C3CF942B}">
   <dimension ref="A1:X18"/>
   <sheetViews>
@@ -7905,22 +9332,22 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="1" max="1" width="33.453125" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="6" max="6" width="28.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.453125" customWidth="1"/>
     <col min="18" max="18" width="42" customWidth="1"/>
-    <col min="23" max="23" width="9.44140625" customWidth="1"/>
+    <col min="23" max="23" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7994,7 +9421,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>335</v>
       </c>
@@ -8059,7 +9486,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>341</v>
       </c>
@@ -8127,7 +9554,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>348</v>
       </c>
@@ -8192,7 +9619,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>352</v>
       </c>
@@ -8225,7 +9652,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>353</v>
       </c>
@@ -8290,7 +9717,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -8355,7 +9782,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>353</v>
       </c>
@@ -8429,7 +9856,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>353</v>
       </c>
@@ -8497,7 +9924,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>353</v>
       </c>
@@ -8565,7 +9992,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>353</v>
       </c>
@@ -8633,7 +10060,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>353</v>
       </c>
@@ -8701,7 +10128,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>353</v>
       </c>
@@ -8770,7 +10197,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>353</v>
       </c>
@@ -8838,7 +10265,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>353</v>
       </c>
@@ -8906,7 +10333,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>353</v>
       </c>
@@ -8974,7 +10401,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>353</v>
       </c>
@@ -9042,7 +10469,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>353</v>
       </c>
@@ -9122,7 +10549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9132,14 +10559,14 @@
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9147,985 +10574,9 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B18C423-D7E7-4B7B-9167-D2BDC190AA4E}">
-  <dimension ref="A1:W22"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="49.44140625" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1"/>
-    <col min="5" max="5" width="35.88671875" customWidth="1"/>
-    <col min="6" max="6" width="35.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="49.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" customWidth="1"/>
-    <col min="16" max="16" width="23.6640625" customWidth="1"/>
-    <col min="17" max="18" width="19.33203125" customWidth="1"/>
-    <col min="19" max="19" width="22.6640625" customWidth="1"/>
-    <col min="20" max="20" width="19.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>456</v>
-      </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="R3" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="T3" s="19" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="I4" t="s">
-        <v>442</v>
-      </c>
-      <c r="J4" t="s">
-        <v>442</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" t="s">
-        <v>456</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="U5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B6" t="s">
-        <v>470</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="U6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="20" t="s">
-        <v>474</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="J7" t="s">
-        <v>456</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="P7" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="V7" t="s">
-        <v>49</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B8" t="s">
-        <v>476</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="I8" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="J8" t="s">
-        <v>456</v>
-      </c>
-      <c r="K8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="U8" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B9" t="s">
-        <v>477</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="20" t="s">
-        <v>478</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="J9" t="s">
-        <v>456</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="P9" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="V9" t="s">
-        <v>49</v>
-      </c>
-      <c r="W9" s="14" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B10" t="s">
-        <v>480</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>481</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="J10" t="s">
-        <v>456</v>
-      </c>
-      <c r="K10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="O10" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="U10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B11" t="s">
-        <v>482</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s">
-        <v>483</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="J11" t="s">
-        <v>456</v>
-      </c>
-      <c r="K11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="U11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B12" t="s">
-        <v>485</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="J12" t="s">
-        <v>456</v>
-      </c>
-      <c r="K12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="P12" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="U12" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B13" t="s">
-        <v>487</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="J13" t="s">
-        <v>456</v>
-      </c>
-      <c r="K13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="P13" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="U13" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B14" t="s">
-        <v>489</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="J14" t="s">
-        <v>456</v>
-      </c>
-      <c r="K14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="O14" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="P14" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="V14" t="s">
-        <v>49</v>
-      </c>
-      <c r="W14" s="14" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B15" t="s">
-        <v>491</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>492</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="F15" s="20"/>
-      <c r="I15" s="19"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="U15" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B16" t="s">
-        <v>493</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="J16" t="s">
-        <v>456</v>
-      </c>
-      <c r="K16" t="s">
-        <v>35</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="O16" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="P16" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="U16" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="E17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="J17" t="s">
-        <v>456</v>
-      </c>
-      <c r="K17" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="P17" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="U17" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B18" t="s">
-        <v>496</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="J18" t="s">
-        <v>456</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="O18" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="P18" s="19" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B19" t="s">
-        <v>499</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="J19" t="s">
-        <v>456</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="O19" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B20" t="s">
-        <v>501</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="J20" t="s">
-        <v>456</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="P20" s="19" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="J21" t="s">
-        <v>456</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="O21" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="P21" s="19" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B22" t="s">
-        <v>504</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>505</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1" xr:uid="{40B15EDC-AE23-443B-B49A-CCCCBA695541}"/>
-    <hyperlink ref="N3" r:id="rId2" xr:uid="{34364467-99E6-4A73-9F0A-367BEB8795A2}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{76ED8F48-D6F5-4471-9E0F-F1693D3E4241}"/>
-    <hyperlink ref="D4" r:id="rId4" display="a@b.in,a@b.com,a@bcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghiklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopq.com,a@bcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopq.com,a@bcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefgdhijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopq.com" xr:uid="{D85F07D2-8350-4ED7-8B33-F7CA31166E0B}"/>
-    <hyperlink ref="M4" r:id="rId5" xr:uid="{F327B5B9-39C0-4E36-8260-EAE33FD2F23D}"/>
-    <hyperlink ref="N4" r:id="rId6" xr:uid="{2CD354E4-B66C-41FA-BDFD-8AFA1B4E8B5C}"/>
-    <hyperlink ref="D5" r:id="rId7" xr:uid="{20339AF2-C8BA-4B30-AEE4-496788AD1DEB}"/>
-    <hyperlink ref="M5" r:id="rId8" xr:uid="{E7C43A6C-94BC-4043-9ECF-77B7D5DF1885}"/>
-    <hyperlink ref="D17" r:id="rId9" xr:uid="{3D16A510-B7FF-4D47-B98C-798854F2138A}"/>
-    <hyperlink ref="M6" r:id="rId10" xr:uid="{2E2C7FEC-FCC8-46D6-9F28-09008EFC2E98}"/>
-    <hyperlink ref="M8" r:id="rId11" xr:uid="{C1F46BD4-6CC0-40A9-81D2-1CE2EF3468B0}"/>
-    <hyperlink ref="M11" r:id="rId12" xr:uid="{36F051C4-93B2-4CA1-B88C-A4F7703E33AD}"/>
-    <hyperlink ref="M18" r:id="rId13" display="Admin@123" xr:uid="{9240E756-8D87-41B2-B88F-E7318A883255}"/>
-    <hyperlink ref="M20" r:id="rId14" xr:uid="{55D19047-56C1-49FE-9CCE-7D25FBDBF4B5}"/>
-    <hyperlink ref="M10" r:id="rId15" xr:uid="{15D24EA3-471F-4C1E-B4AD-34402BF33E77}"/>
-    <hyperlink ref="M17" r:id="rId16" xr:uid="{F3D351E3-E3DC-40A9-AD4B-8DD339B49D09}"/>
-    <hyperlink ref="M21" r:id="rId17" xr:uid="{A3AAD49F-A299-483D-B1A0-13A778A16041}"/>
-    <hyperlink ref="N5" r:id="rId18" xr:uid="{341F89AA-596A-4DA3-B806-A9BE76EDF4BC}"/>
-    <hyperlink ref="N6" r:id="rId19" xr:uid="{78CC411F-73E5-4722-9EA0-34121AB42845}"/>
-    <hyperlink ref="N8" r:id="rId20" xr:uid="{4CAC76BA-32D2-45A8-A5D7-EDDC3F152EA9}"/>
-    <hyperlink ref="N11" r:id="rId21" xr:uid="{4388A44E-59AD-4708-91C4-530E760F78F4}"/>
-    <hyperlink ref="N10" r:id="rId22" xr:uid="{D407EAC0-1091-4612-80FF-8D4FD29BB2D2}"/>
-    <hyperlink ref="N17" r:id="rId23" xr:uid="{16FB91A2-A1DC-4B32-8025-C328CD33494E}"/>
-    <hyperlink ref="N21" r:id="rId24" xr:uid="{03F9F991-6E42-41D0-8F37-6CEBCAF682CD}"/>
-    <hyperlink ref="N18" r:id="rId25" display="Admin@123" xr:uid="{A8129A54-3091-4463-8093-D69A20642FE6}"/>
-    <hyperlink ref="N19" r:id="rId26" xr:uid="{4FE7D3D7-5789-409A-A37D-9B6A7CE36AA3}"/>
-    <hyperlink ref="M7" r:id="rId27" xr:uid="{F7E0475C-BECA-44D4-8598-5466FA3F3C8D}"/>
-    <hyperlink ref="N7" r:id="rId28" xr:uid="{4996C6EC-8A3D-4BF8-9255-D8976D660284}"/>
-    <hyperlink ref="M9" r:id="rId29" xr:uid="{EC37FB4E-FD41-4BD4-888B-17599E0851E0}"/>
-    <hyperlink ref="N9" r:id="rId30" xr:uid="{3C2971C2-1D9C-4A98-81CD-06619C3FF246}"/>
-    <hyperlink ref="D14" r:id="rId31" xr:uid="{B6C0F823-494E-4294-96D5-9FCAA5223E6F}"/>
-    <hyperlink ref="M12" r:id="rId32" xr:uid="{C65FFAFE-4C1A-490A-BC23-344C6FD61C43}"/>
-    <hyperlink ref="M13" r:id="rId33" xr:uid="{59B714BA-CE77-461F-9CF7-47EC25791E08}"/>
-    <hyperlink ref="M14" r:id="rId34" xr:uid="{749C29F6-07B2-4B1A-AC57-43EB9FB7B60E}"/>
-    <hyperlink ref="N12" r:id="rId35" xr:uid="{9953B0C0-235B-4726-8007-8AD465206505}"/>
-    <hyperlink ref="N13" r:id="rId36" xr:uid="{5B268448-BA40-493C-999B-4CDB7D75DBFC}"/>
-    <hyperlink ref="N14" r:id="rId37" xr:uid="{4BC6D98A-2D01-49A2-A12E-E7ED1E6887F6}"/>
-    <hyperlink ref="D16" r:id="rId38" xr:uid="{8BB4EB86-E4AC-40F7-BB9F-2C54C3A33A80}"/>
-    <hyperlink ref="M16" r:id="rId39" xr:uid="{7246A40C-6325-4CA5-A6C9-5DF1854D7C01}"/>
-    <hyperlink ref="N16" r:id="rId40" xr:uid="{D2F84660-768E-49AA-992D-86B2C8CC7CFB}"/>
-    <hyperlink ref="D6" r:id="rId41" xr:uid="{210486E1-181F-434B-A7F4-6A41E5AC3574}"/>
-    <hyperlink ref="D7" r:id="rId42" xr:uid="{1BECB6E8-0DC5-415D-BE0C-CCF4117C771E}"/>
-    <hyperlink ref="D8" r:id="rId43" xr:uid="{01B86751-44DB-4618-85FF-6BCC7D7ACD15}"/>
-    <hyperlink ref="D9" r:id="rId44" xr:uid="{3CC30BD7-6508-4736-B850-C6D3D15D2886}"/>
-    <hyperlink ref="D10" r:id="rId45" xr:uid="{7B0BB163-86E7-42BD-95D0-25F8D6096A16}"/>
-    <hyperlink ref="D12" r:id="rId46" xr:uid="{5CE96045-BB7F-4DE8-ABC5-D7D8952C7AFF}"/>
-    <hyperlink ref="D18" r:id="rId47" xr:uid="{6D2C8D27-968F-43C4-B39C-EB203BB56A43}"/>
-    <hyperlink ref="D19" r:id="rId48" xr:uid="{D14DE1A8-04B4-4A11-A105-A04F3AA08FB4}"/>
-    <hyperlink ref="D20" r:id="rId49" xr:uid="{8601F8BB-0610-4FEB-BF33-2515FEA0C8C9}"/>
-    <hyperlink ref="D21" r:id="rId50" xr:uid="{46AFB659-8E60-4290-B464-A85F725F775A}"/>
-    <hyperlink ref="S3" r:id="rId51" xr:uid="{F5444E3D-813D-454F-96AC-BAE1AA6945CE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Web/coyni/resources/testdata.xlsx
+++ b/Web/coyni/resources/testdata.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web (17-01-2021)\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web (19-01-2022)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328122F1-30D0-42C8-A15E-E1383AE882AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74165BC3-C49A-4097-A3AE-08DF61DFD803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="User-Details" sheetId="10" r:id="rId2"/>
     <sheet name="changePassword" sheetId="11" r:id="rId3"/>
-    <sheet name="PaymentMethods" sheetId="4" r:id="rId4"/>
-    <sheet name="TokenAccount-Customer" sheetId="5" r:id="rId5"/>
-    <sheet name="forgotEmail" sheetId="6" r:id="rId6"/>
-    <sheet name="PaymentMethods-Debit" sheetId="7" r:id="rId7"/>
-    <sheet name="filters" sheetId="3" r:id="rId8"/>
-    <sheet name="profile" sheetId="2" r:id="rId9"/>
-    <sheet name="homePage" sheetId="9" r:id="rId10"/>
+    <sheet name="withdrawnGiftCard" sheetId="12" r:id="rId4"/>
+    <sheet name="PaymentMethods" sheetId="4" r:id="rId5"/>
+    <sheet name="TokenAccount-Customer" sheetId="5" r:id="rId6"/>
+    <sheet name="forgotEmail" sheetId="6" r:id="rId7"/>
+    <sheet name="PaymentMethods-Debit" sheetId="7" r:id="rId8"/>
+    <sheet name="filters" sheetId="3" r:id="rId9"/>
+    <sheet name="profile" sheetId="2" r:id="rId10"/>
+    <sheet name="homePage" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="613">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1779,6 +1780,111 @@
   </si>
   <si>
     <t>New password should not match with Old password</t>
+  </si>
+  <si>
+    <t>giftHeading</t>
+  </si>
+  <si>
+    <t>orderHeading</t>
+  </si>
+  <si>
+    <t>authyHeading1</t>
+  </si>
+  <si>
+    <t>successHeading</t>
+  </si>
+  <si>
+    <t>searchKey</t>
+  </si>
+  <si>
+    <t>searchKey1</t>
+  </si>
+  <si>
+    <t>test gift card with Amazon</t>
+  </si>
+  <si>
+    <t>giftcard-Amazon</t>
+  </si>
+  <si>
+    <t>Gift Card Purchase</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Order Preview</t>
+  </si>
+  <si>
+    <t>Transaction in Progress</t>
+  </si>
+  <si>
+    <t>Am</t>
+  </si>
+  <si>
+    <t>Vi</t>
+  </si>
+  <si>
+    <t>test gift card with Visa</t>
+  </si>
+  <si>
+    <t>giftcard-Visa</t>
+  </si>
+  <si>
+    <t>test gift card navigation</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>test gift card amazon  with invalid data</t>
+  </si>
+  <si>
+    <t>Empty First Name</t>
+  </si>
+  <si>
+    <t>First Name is required</t>
+  </si>
+  <si>
+    <t>Special Character</t>
+  </si>
+  <si>
+    <t>#@</t>
+  </si>
+  <si>
+    <t>Only alphabets are allowed</t>
+  </si>
+  <si>
+    <t>Empty Last Name</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Last Name is required</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Empty Amount</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Amount must be more than or equal to $0.01 USD</t>
+  </si>
+  <si>
+    <t>a@b.in</t>
+  </si>
+  <si>
+    <t>as@v</t>
+  </si>
+  <si>
+    <t>test gift card visa  with invalid data</t>
+  </si>
+  <si>
+    <t>Amount must be more than or equal to $5.00 USD</t>
   </si>
 </sst>
 </file>
@@ -1828,6 +1934,7 @@
       <sz val="8"/>
       <color rgb="FF242424"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2368,25 +2475,25 @@
       <selection pane="topRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.453125" customWidth="1"/>
-    <col min="2" max="2" width="50.08984375" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" customWidth="1"/>
-    <col min="4" max="4" width="27.08984375" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" customWidth="1"/>
-    <col min="6" max="6" width="63.90625" customWidth="1"/>
-    <col min="7" max="7" width="63.453125" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.44140625" customWidth="1"/>
+    <col min="2" max="2" width="50.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="63.88671875" customWidth="1"/>
+    <col min="7" max="7" width="63.44140625" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="43" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
-    <col min="11" max="11" width="24.453125" customWidth="1"/>
-    <col min="12" max="12" width="26.453125" customWidth="1"/>
-    <col min="13" max="13" width="32.90625" customWidth="1"/>
-    <col min="14" max="14" width="22.90625" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+    <col min="11" max="11" width="24.44140625" customWidth="1"/>
+    <col min="12" max="12" width="26.44140625" customWidth="1"/>
+    <col min="13" max="13" width="32.88671875" customWidth="1"/>
+    <col min="14" max="14" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2451,7 +2558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -2480,7 +2587,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -2510,7 +2617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2540,7 +2647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -2569,7 +2676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2601,7 +2708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -2630,7 +2737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -2648,7 +2755,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -2686,7 +2793,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -2718,7 +2825,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -2750,7 +2857,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -2782,7 +2889,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -2814,7 +2921,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -2837,7 +2944,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -2869,7 +2976,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -2898,7 +3005,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -2924,7 +3031,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -2950,7 +3057,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -2976,7 +3083,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -3019,6 +3126,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B18C423-D7E7-4B7B-9167-D2BDC190AA4E}">
   <dimension ref="A1:W22"/>
   <sheetViews>
@@ -3026,29 +3148,29 @@
       <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.453125" customWidth="1"/>
-    <col min="2" max="2" width="48.36328125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="24.90625" customWidth="1"/>
-    <col min="5" max="5" width="35.90625" customWidth="1"/>
-    <col min="6" max="6" width="35.08984375" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" customWidth="1"/>
-    <col min="8" max="8" width="16.36328125" customWidth="1"/>
-    <col min="9" max="9" width="49.08984375" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" customWidth="1"/>
-    <col min="12" max="12" width="13.36328125" customWidth="1"/>
-    <col min="13" max="13" width="13.6328125" customWidth="1"/>
-    <col min="14" max="14" width="15.453125" customWidth="1"/>
-    <col min="15" max="15" width="19.36328125" customWidth="1"/>
-    <col min="16" max="16" width="23.6328125" customWidth="1"/>
-    <col min="17" max="18" width="19.36328125" customWidth="1"/>
-    <col min="19" max="19" width="22.6328125" customWidth="1"/>
-    <col min="20" max="20" width="19.36328125" customWidth="1"/>
+    <col min="1" max="1" width="49.44140625" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+    <col min="5" max="5" width="35.88671875" customWidth="1"/>
+    <col min="6" max="6" width="35.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="49.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" customWidth="1"/>
+    <col min="16" max="16" width="23.6640625" customWidth="1"/>
+    <col min="17" max="18" width="19.33203125" customWidth="1"/>
+    <col min="19" max="19" width="22.6640625" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3119,7 +3241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>449</v>
       </c>
@@ -3151,7 +3273,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" spans="1:23" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>452</v>
       </c>
@@ -4002,32 +4124,32 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.90625" customWidth="1"/>
-    <col min="2" max="2" width="38.54296875" customWidth="1"/>
-    <col min="4" max="4" width="23.54296875" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" customWidth="1"/>
-    <col min="6" max="6" width="28.54296875" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-    <col min="8" max="8" width="21.453125" customWidth="1"/>
-    <col min="9" max="9" width="20.08984375" customWidth="1"/>
-    <col min="10" max="10" width="22.6328125" customWidth="1"/>
-    <col min="11" max="11" width="18.90625" customWidth="1"/>
+    <col min="1" max="1" width="34.88671875" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="12.90625" customWidth="1"/>
-    <col min="14" max="14" width="14.90625" customWidth="1"/>
-    <col min="15" max="15" width="17.54296875" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" customWidth="1"/>
+    <col min="15" max="15" width="17.5546875" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="19" max="19" width="22.36328125" customWidth="1"/>
-    <col min="21" max="21" width="23.54296875" customWidth="1"/>
-    <col min="22" max="22" width="23.36328125" customWidth="1"/>
-    <col min="24" max="24" width="31.54296875" customWidth="1"/>
-    <col min="25" max="25" width="19.6328125" customWidth="1"/>
-    <col min="26" max="26" width="28.453125" customWidth="1"/>
+    <col min="19" max="19" width="22.33203125" customWidth="1"/>
+    <col min="21" max="21" width="23.5546875" customWidth="1"/>
+    <col min="22" max="22" width="23.33203125" customWidth="1"/>
+    <col min="24" max="24" width="31.5546875" customWidth="1"/>
+    <col min="25" max="25" width="19.6640625" customWidth="1"/>
+    <col min="26" max="26" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4107,7 +4229,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>516</v>
       </c>
@@ -4172,7 +4294,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>524</v>
       </c>
@@ -4231,7 +4353,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>526</v>
       </c>
@@ -4275,7 +4397,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>526</v>
       </c>
@@ -4322,7 +4444,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>526</v>
       </c>
@@ -4369,7 +4491,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>526</v>
       </c>
@@ -4416,7 +4538,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>526</v>
       </c>
@@ -4463,7 +4585,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>526</v>
       </c>
@@ -4510,7 +4632,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>526</v>
       </c>
@@ -4557,7 +4679,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>526</v>
       </c>
@@ -4604,7 +4726,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>526</v>
       </c>
@@ -4651,7 +4773,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>540</v>
       </c>
@@ -4695,7 +4817,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>540</v>
       </c>
@@ -4736,7 +4858,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>540</v>
       </c>
@@ -4777,7 +4899,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>540</v>
       </c>
@@ -4818,7 +4940,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>540</v>
       </c>
@@ -4926,30 +5048,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7446F1-455D-4825-A6ED-84437499AA4D}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
-    <col min="4" max="4" width="27.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" customWidth="1"/>
-    <col min="8" max="8" width="16.6328125" customWidth="1"/>
-    <col min="9" max="9" width="25.90625" customWidth="1"/>
-    <col min="10" max="10" width="18.54296875" customWidth="1"/>
-    <col min="11" max="11" width="16.6328125" customWidth="1"/>
-    <col min="12" max="12" width="13.6328125" customWidth="1"/>
-    <col min="13" max="13" width="17.1796875" customWidth="1"/>
-    <col min="14" max="14" width="25.6328125" customWidth="1"/>
-    <col min="16" max="16" width="17.36328125" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" customWidth="1"/>
+    <col min="14" max="14" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5002,7 +5124,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="64.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>561</v>
       </c>
@@ -5052,7 +5174,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>561</v>
       </c>
@@ -5093,7 +5215,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>568</v>
       </c>
@@ -5137,7 +5259,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>568</v>
       </c>
@@ -5179,7 +5301,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>568</v>
       </c>
@@ -5219,7 +5341,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>568</v>
       </c>
@@ -5295,6 +5417,843 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0341D91D-2664-4CF3-AF4B-EBD6A1B18156}">
+  <dimension ref="A1:T18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="33.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" customWidth="1"/>
+    <col min="16" max="16" width="20.88671875" customWidth="1"/>
+    <col min="19" max="19" width="30.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F2" t="s">
+        <v>564</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>586</v>
+      </c>
+      <c r="K2" t="s">
+        <v>455</v>
+      </c>
+      <c r="L2" t="s">
+        <v>587</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>588</v>
+      </c>
+      <c r="O2" t="s">
+        <v>226</v>
+      </c>
+      <c r="P2" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>590</v>
+      </c>
+      <c r="R2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F3" t="s">
+        <v>564</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>586</v>
+      </c>
+      <c r="K3" t="s">
+        <v>455</v>
+      </c>
+      <c r="L3" t="s">
+        <v>587</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
+        <v>588</v>
+      </c>
+      <c r="O3" t="s">
+        <v>226</v>
+      </c>
+      <c r="P3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4" t="s">
+        <v>564</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>586</v>
+      </c>
+      <c r="K4" t="s">
+        <v>455</v>
+      </c>
+      <c r="L4" t="s">
+        <v>587</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>588</v>
+      </c>
+      <c r="O4" t="s">
+        <v>226</v>
+      </c>
+      <c r="P4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>596</v>
+      </c>
+      <c r="B5" t="s">
+        <v>597</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F5" t="s">
+        <v>564</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>586</v>
+      </c>
+      <c r="S5" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>596</v>
+      </c>
+      <c r="B6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F6" t="s">
+        <v>564</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>586</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="S6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>596</v>
+      </c>
+      <c r="B7" t="s">
+        <v>602</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F7" t="s">
+        <v>564</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>586</v>
+      </c>
+      <c r="K7" t="s">
+        <v>603</v>
+      </c>
+      <c r="S7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>596</v>
+      </c>
+      <c r="B8" t="s">
+        <v>599</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F8" t="s">
+        <v>564</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>586</v>
+      </c>
+      <c r="K8" t="s">
+        <v>603</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="S8" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>596</v>
+      </c>
+      <c r="B9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F9" t="s">
+        <v>564</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>586</v>
+      </c>
+      <c r="K9" t="s">
+        <v>603</v>
+      </c>
+      <c r="L9" t="s">
+        <v>605</v>
+      </c>
+      <c r="S9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>596</v>
+      </c>
+      <c r="B10" t="s">
+        <v>606</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F10" t="s">
+        <v>564</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>586</v>
+      </c>
+      <c r="K10" t="s">
+        <v>603</v>
+      </c>
+      <c r="L10" t="s">
+        <v>605</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="S10" t="s">
+        <v>608</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>596</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F11" t="s">
+        <v>564</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>586</v>
+      </c>
+      <c r="K11" t="s">
+        <v>603</v>
+      </c>
+      <c r="L11" t="s">
+        <v>605</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>611</v>
+      </c>
+      <c r="B12" t="s">
+        <v>597</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>586</v>
+      </c>
+      <c r="S12" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>611</v>
+      </c>
+      <c r="B13" t="s">
+        <v>599</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F13" t="s">
+        <v>564</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>586</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="S13" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>611</v>
+      </c>
+      <c r="B14" t="s">
+        <v>602</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F14" t="s">
+        <v>564</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>586</v>
+      </c>
+      <c r="K14" t="s">
+        <v>603</v>
+      </c>
+      <c r="S14" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>611</v>
+      </c>
+      <c r="B15" t="s">
+        <v>599</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F15" t="s">
+        <v>564</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" t="s">
+        <v>586</v>
+      </c>
+      <c r="K15" t="s">
+        <v>603</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="S15" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>611</v>
+      </c>
+      <c r="B16" t="s">
+        <v>482</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F16" t="s">
+        <v>564</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="s">
+        <v>586</v>
+      </c>
+      <c r="K16" t="s">
+        <v>603</v>
+      </c>
+      <c r="L16" t="s">
+        <v>605</v>
+      </c>
+      <c r="S16" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>611</v>
+      </c>
+      <c r="B17" t="s">
+        <v>606</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F17" t="s">
+        <v>564</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" t="s">
+        <v>586</v>
+      </c>
+      <c r="K17" t="s">
+        <v>603</v>
+      </c>
+      <c r="L17" t="s">
+        <v>605</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="S17" t="s">
+        <v>612</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>611</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F18" t="s">
+        <v>564</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="s">
+        <v>586</v>
+      </c>
+      <c r="K18" t="s">
+        <v>603</v>
+      </c>
+      <c r="L18" t="s">
+        <v>605</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" t="s">
+        <v>43</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="T10" r:id="rId1" xr:uid="{C2AFA401-054D-46CB-B95A-1346B643AB6F}"/>
+    <hyperlink ref="T11" r:id="rId2" xr:uid="{2FC5DD4A-AABB-473E-84AD-1DEE99166B94}"/>
+    <hyperlink ref="K6" r:id="rId3" xr:uid="{15488999-BE22-4B4A-B568-679FD5AD013A}"/>
+    <hyperlink ref="T17" r:id="rId4" xr:uid="{66B8B0A3-C9A9-4133-9FE0-C91F8DD11583}"/>
+    <hyperlink ref="T18" r:id="rId5" xr:uid="{04EDCA02-3714-4786-905A-6CB3F98AAE0A}"/>
+    <hyperlink ref="K13" r:id="rId6" xr:uid="{328D2DC3-5A78-4770-9E93-1A0176B33F12}"/>
+    <hyperlink ref="L8" r:id="rId7" xr:uid="{078068CE-1034-4759-A12F-A2A2838F8004}"/>
+    <hyperlink ref="L15" r:id="rId8" xr:uid="{673C5022-29E0-4E2E-BD78-1CFF0F626F8E}"/>
+    <hyperlink ref="D2" r:id="rId9" xr:uid="{CC366F0B-F833-4745-98C4-EDFF1420101F}"/>
+    <hyperlink ref="D3:D18" r:id="rId10" display="maniv789396@gmail.com" xr:uid="{940DD7FE-36D1-40F6-B667-25B63DAEEF12}"/>
+    <hyperlink ref="E2" r:id="rId11" xr:uid="{7183412E-3337-439A-B15A-9549BCD7A19F}"/>
+    <hyperlink ref="E3:E18" r:id="rId12" display="Admin@123" xr:uid="{C4B12101-0794-4314-893F-FC20EF83F793}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D06DFA-D6F9-4A05-B463-4DDA52F0E3E7}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
@@ -5302,18 +6261,18 @@
       <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.453125" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="8" width="14.08984375" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5393,7 +6352,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -5461,7 +6420,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -5529,7 +6488,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -5597,7 +6556,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -5665,7 +6624,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -5733,7 +6692,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -5798,7 +6757,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -5863,7 +6822,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -5928,7 +6887,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -5993,7 +6952,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -6058,7 +7017,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -6123,7 +7082,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -6188,7 +7147,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -6253,7 +7212,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -6737,7 +7696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7342C061-16F1-49A5-BA07-4D17E62E882D}">
   <dimension ref="A1:AM42"/>
   <sheetViews>
@@ -6745,30 +7704,30 @@
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="35.08984375" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" customWidth="1"/>
-    <col min="6" max="6" width="42.08984375" customWidth="1"/>
-    <col min="7" max="8" width="16.36328125" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" customWidth="1"/>
-    <col min="10" max="10" width="19.90625" customWidth="1"/>
-    <col min="11" max="11" width="19.90625" hidden="1" customWidth="1"/>
-    <col min="12" max="14" width="19.90625" customWidth="1"/>
-    <col min="15" max="15" width="30.08984375" customWidth="1"/>
-    <col min="16" max="21" width="28.453125" customWidth="1"/>
-    <col min="22" max="23" width="22.08984375" customWidth="1"/>
-    <col min="24" max="29" width="19.90625" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.109375" customWidth="1"/>
+    <col min="7" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" hidden="1" customWidth="1"/>
+    <col min="12" max="14" width="19.88671875" customWidth="1"/>
+    <col min="15" max="15" width="30.109375" customWidth="1"/>
+    <col min="16" max="21" width="28.44140625" customWidth="1"/>
+    <col min="22" max="23" width="22.109375" customWidth="1"/>
+    <col min="24" max="29" width="19.88671875" customWidth="1"/>
     <col min="30" max="30" width="50" customWidth="1"/>
-    <col min="31" max="31" width="22.453125" customWidth="1"/>
+    <col min="31" max="31" width="22.44140625" customWidth="1"/>
     <col min="35" max="35" width="22" customWidth="1"/>
-    <col min="36" max="36" width="21.453125" customWidth="1"/>
+    <col min="36" max="36" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6881,7 +7840,7 @@
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
     </row>
-    <row r="2" spans="1:39" ht="25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>219</v>
       </c>
@@ -6910,7 +7869,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>221</v>
       </c>
@@ -6957,7 +7916,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>228</v>
       </c>
@@ -6986,7 +7945,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>230</v>
       </c>
@@ -7015,7 +7974,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>232</v>
       </c>
@@ -7044,7 +8003,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -7073,7 +8032,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>236</v>
       </c>
@@ -7103,7 +8062,7 @@
       </c>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:39" ht="43.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:39" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
         <v>238</v>
       </c>
@@ -7159,7 +8118,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="43.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:39" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A10" s="15" t="s">
         <v>248</v>
       </c>
@@ -7216,7 +8175,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="57.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:39" ht="57" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>250</v>
       </c>
@@ -7273,7 +8232,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="89.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:39" ht="94.2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>254</v>
       </c>
@@ -7336,7 +8295,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="57.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:39" ht="57" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>258</v>
       </c>
@@ -7393,7 +8352,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="39.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:39" ht="41.4" x14ac:dyDescent="0.4">
       <c r="A14" s="15" t="s">
         <v>260</v>
       </c>
@@ -7453,7 +8412,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="89.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:39" ht="94.2" x14ac:dyDescent="0.4">
       <c r="A15" s="15" t="s">
         <v>263</v>
       </c>
@@ -7516,7 +8475,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>266</v>
       </c>
@@ -7552,7 +8511,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>269</v>
       </c>
@@ -7618,7 +8577,7 @@
       </c>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="1:34" ht="25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>274</v>
       </c>
@@ -7648,7 +8607,7 @@
       </c>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="1:34" ht="25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>276</v>
       </c>
@@ -7701,7 +8660,7 @@
       <c r="Z20" s="15"/>
       <c r="AH20" s="15"/>
     </row>
-    <row r="21" spans="1:34" ht="25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>278</v>
       </c>
@@ -7735,7 +8694,7 @@
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
     </row>
-    <row r="22" spans="1:34" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>280</v>
       </c>
@@ -7785,7 +8744,7 @@
       <c r="AD22" s="15"/>
       <c r="AH22" s="15"/>
     </row>
-    <row r="23" spans="1:34" ht="25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>280</v>
       </c>
@@ -7832,7 +8791,7 @@
       <c r="AD23" s="15"/>
       <c r="AH23" s="15"/>
     </row>
-    <row r="24" spans="1:34" ht="25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>284</v>
       </c>
@@ -7884,7 +8843,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:34" ht="25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>287</v>
       </c>
@@ -7928,7 +8887,7 @@
       <c r="AB25" s="15"/>
       <c r="AC25" s="15"/>
     </row>
-    <row r="26" spans="1:34" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>291</v>
       </c>
@@ -7981,7 +8940,7 @@
       <c r="Z26" s="15"/>
       <c r="AD26" s="23"/>
     </row>
-    <row r="27" spans="1:34" ht="25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>294</v>
       </c>
@@ -8040,7 +8999,7 @@
       </c>
       <c r="AD27" s="23"/>
     </row>
-    <row r="28" spans="1:34" ht="25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>294</v>
       </c>
@@ -8094,7 +9053,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>294</v>
       </c>
@@ -8148,7 +9107,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>296</v>
       </c>
@@ -8199,7 +9158,7 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
     </row>
-    <row r="31" spans="1:34" ht="25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>298</v>
       </c>
@@ -8250,7 +9209,7 @@
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
     </row>
-    <row r="32" spans="1:34" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>300</v>
       </c>
@@ -8296,7 +9255,7 @@
       <c r="Y32" s="23"/>
       <c r="Z32" s="23"/>
     </row>
-    <row r="33" spans="1:26" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>303</v>
       </c>
@@ -8349,7 +9308,7 @@
       <c r="Y33" s="23"/>
       <c r="Z33" s="23"/>
     </row>
-    <row r="34" spans="1:26" ht="50" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>306</v>
       </c>
@@ -8384,7 +9343,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>310</v>
       </c>
@@ -8416,7 +9375,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="50" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>313</v>
       </c>
@@ -8451,7 +9410,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>316</v>
       </c>
@@ -8483,7 +9442,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="50" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>318</v>
       </c>
@@ -8568,7 +9527,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>328</v>
       </c>
@@ -8611,7 +9570,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>332</v>
       </c>
@@ -8646,7 +9605,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>333</v>
       </c>
@@ -8771,7 +9730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F2C328-44FE-4BE7-9D79-D8AE6FF7329F}">
   <dimension ref="A1:S15"/>
   <sheetViews>
@@ -8779,28 +9738,28 @@
       <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.453125" customWidth="1"/>
-    <col min="2" max="2" width="43.08984375" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" customWidth="1"/>
-    <col min="5" max="5" width="21.90625" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" customWidth="1"/>
-    <col min="7" max="7" width="15.08984375" customWidth="1"/>
-    <col min="8" max="8" width="20.453125" customWidth="1"/>
-    <col min="9" max="9" width="15.08984375" customWidth="1"/>
-    <col min="10" max="10" width="13.90625" customWidth="1"/>
-    <col min="11" max="11" width="19.90625" customWidth="1"/>
-    <col min="12" max="12" width="18.453125" customWidth="1"/>
-    <col min="13" max="13" width="12.08984375" customWidth="1"/>
-    <col min="14" max="15" width="13.453125" customWidth="1"/>
-    <col min="17" max="17" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="14" max="15" width="13.44140625" customWidth="1"/>
+    <col min="17" max="17" width="16.44140625" customWidth="1"/>
     <col min="18" max="18" width="20" customWidth="1"/>
-    <col min="19" max="19" width="16.54296875" customWidth="1"/>
+    <col min="19" max="19" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9324,7 +10283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD7EB4D-1B81-49AC-A852-CF79C3CF942B}">
   <dimension ref="A1:X18"/>
   <sheetViews>
@@ -9332,22 +10291,22 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.453125" customWidth="1"/>
-    <col min="2" max="2" width="32.453125" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" customWidth="1"/>
-    <col min="6" max="6" width="28.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.44140625" customWidth="1"/>
     <col min="18" max="18" width="42" customWidth="1"/>
-    <col min="23" max="23" width="9.453125" customWidth="1"/>
+    <col min="23" max="23" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9421,7 +10380,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>335</v>
       </c>
@@ -9486,7 +10445,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>341</v>
       </c>
@@ -9554,7 +10513,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>348</v>
       </c>
@@ -9619,7 +10578,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>352</v>
       </c>
@@ -9652,7 +10611,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>353</v>
       </c>
@@ -9717,7 +10676,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -9782,7 +10741,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>353</v>
       </c>
@@ -9856,7 +10815,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>353</v>
       </c>
@@ -9924,7 +10883,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>353</v>
       </c>
@@ -9992,7 +10951,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>353</v>
       </c>
@@ -10060,7 +11019,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>353</v>
       </c>
@@ -10128,7 +11087,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>353</v>
       </c>
@@ -10197,7 +11156,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>353</v>
       </c>
@@ -10265,7 +11224,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>353</v>
       </c>
@@ -10333,7 +11292,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>353</v>
       </c>
@@ -10401,7 +11360,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>353</v>
       </c>
@@ -10469,7 +11428,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>353</v>
       </c>
@@ -10549,7 +11508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10559,22 +11518,7 @@
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Web/coyni/resources/testdata.xlsx
+++ b/Web/coyni/resources/testdata.xlsx
@@ -5,25 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web (19-01-2022)\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web (24-01-2022)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74165BC3-C49A-4097-A3AE-08DF61DFD803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3695BA-963C-403F-8B0E-1C8992C6445F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="User-Details" sheetId="10" r:id="rId2"/>
     <sheet name="changePassword" sheetId="11" r:id="rId3"/>
     <sheet name="withdrawnGiftCard" sheetId="12" r:id="rId4"/>
-    <sheet name="PaymentMethods" sheetId="4" r:id="rId5"/>
-    <sheet name="TokenAccount-Customer" sheetId="5" r:id="rId6"/>
-    <sheet name="forgotEmail" sheetId="6" r:id="rId7"/>
-    <sheet name="PaymentMethods-Debit" sheetId="7" r:id="rId8"/>
-    <sheet name="filters" sheetId="3" r:id="rId9"/>
-    <sheet name="profile" sheetId="2" r:id="rId10"/>
-    <sheet name="homePage" sheetId="9" r:id="rId11"/>
+    <sheet name="withdrawnToUSDExternalBank" sheetId="13" r:id="rId5"/>
+    <sheet name="PaymentMethods" sheetId="4" r:id="rId6"/>
+    <sheet name="TokenAccount-Customer" sheetId="5" r:id="rId7"/>
+    <sheet name="forgotEmail" sheetId="6" r:id="rId8"/>
+    <sheet name="PaymentMethods-Debit" sheetId="7" r:id="rId9"/>
+    <sheet name="filters" sheetId="3" r:id="rId10"/>
+    <sheet name="profile" sheetId="2" r:id="rId11"/>
+    <sheet name="homePage" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="639">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1885,6 +1886,84 @@
   </si>
   <si>
     <t>Amount must be more than or equal to $5.00 USD</t>
+  </si>
+  <si>
+    <t>bankHeading</t>
+  </si>
+  <si>
+    <t>bankName</t>
+  </si>
+  <si>
+    <t>last4Digits</t>
+  </si>
+  <si>
+    <t>avalible</t>
+  </si>
+  <si>
+    <t>sucessHeading</t>
+  </si>
+  <si>
+    <t>removeHeading</t>
+  </si>
+  <si>
+    <t>test withdrawn to External Bank</t>
+  </si>
+  <si>
+    <t>external bank</t>
+  </si>
+  <si>
+    <t>Withdraw to Bank Account</t>
+  </si>
+  <si>
+    <t>CashEdge Test</t>
+  </si>
+  <si>
+    <t>Available Balance:</t>
+  </si>
+  <si>
+    <t>Please allow 3-5 business days to process this transaction.</t>
+  </si>
+  <si>
+    <t>test withdrawn to External Bank Remove</t>
+  </si>
+  <si>
+    <t>Remove external bank</t>
+  </si>
+  <si>
+    <t>Remove Payment Method</t>
+  </si>
+  <si>
+    <t>Amount is required</t>
+  </si>
+  <si>
+    <t>Payment Method Removed Successfully</t>
+  </si>
+  <si>
+    <t>test withdrawn to External Bank invalid amount</t>
+  </si>
+  <si>
+    <t>min Amount</t>
+  </si>
+  <si>
+    <t>Insufficient funds</t>
+  </si>
+  <si>
+    <t>test withdrawn to External Bank Remove1</t>
+  </si>
+  <si>
+    <t>Remove external bank1</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>removeHeading1</t>
+  </si>
+  <si>
+    <t>4219</t>
+  </si>
+  <si>
+    <t>3456</t>
   </si>
 </sst>
 </file>
@@ -3126,6 +3205,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3140,7 +3236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B18C423-D7E7-4B7B-9167-D2BDC190AA4E}">
   <dimension ref="A1:W22"/>
   <sheetViews>
@@ -5420,7 +5516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0341D91D-2664-4CF3-AF4B-EBD6A1B18156}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -6254,6 +6350,365 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDACEBAE-0399-44B8-918C-9E44A81E28E5}">
+  <dimension ref="A1:U7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" customWidth="1"/>
+    <col min="16" max="16" width="17.109375" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" customWidth="1"/>
+    <col min="19" max="19" width="15.109375" customWidth="1"/>
+    <col min="20" max="20" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F2" t="s">
+        <v>564</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>621</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>622</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="N2" t="s">
+        <v>623</v>
+      </c>
+      <c r="O2" t="s">
+        <v>243</v>
+      </c>
+      <c r="P2" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>226</v>
+      </c>
+      <c r="R2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F3" t="s">
+        <v>564</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="S3" t="s">
+        <v>627</v>
+      </c>
+      <c r="T3" t="s">
+        <v>628</v>
+      </c>
+      <c r="U3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>630</v>
+      </c>
+      <c r="B4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4" t="s">
+        <v>564</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>621</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B5" t="s">
+        <v>631</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F5" t="s">
+        <v>564</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>621</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="T5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>630</v>
+      </c>
+      <c r="B6" t="s">
+        <v>631</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F6" t="s">
+        <v>564</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>621</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="T6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>633</v>
+      </c>
+      <c r="B7" t="s">
+        <v>634</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F7" t="s">
+        <v>564</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="S7" t="s">
+        <v>627</v>
+      </c>
+      <c r="U7" t="s">
+        <v>629</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{93BAE2C2-8D83-48C0-A5FA-DB09CC9BA294}"/>
+    <hyperlink ref="E3:E7" r:id="rId2" display="Admin@123" xr:uid="{D63F3337-2163-4170-8DDA-0C1E908BA8AC}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{28974E15-D2FB-41E9-B38F-9DA305AE0B47}"/>
+    <hyperlink ref="D3:D7" r:id="rId4" display="maniv789396@gmail.com" xr:uid="{BBBCF58A-9ACB-4AFB-932C-17CD8D29B2F1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D06DFA-D6F9-4A05-B463-4DDA52F0E3E7}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
@@ -7696,7 +8151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7342C061-16F1-49A5-BA07-4D17E62E882D}">
   <dimension ref="A1:AM42"/>
   <sheetViews>
@@ -9730,7 +10185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F2C328-44FE-4BE7-9D79-D8AE6FF7329F}">
   <dimension ref="A1:S15"/>
   <sheetViews>
@@ -10283,7 +10738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD7EB4D-1B81-49AC-A852-CF79C3CF942B}">
   <dimension ref="A1:X18"/>
   <sheetViews>
@@ -11506,21 +11961,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Web/coyni/resources/testdata.xlsx
+++ b/Web/coyni/resources/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web (24-01-2022)\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Code-push\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3695BA-963C-403F-8B0E-1C8992C6445F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F49211D-2AAA-4B56-8CC0-38171D416759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -1005,9 +1005,6 @@
     <t>Purchased Transaction Details</t>
   </si>
   <si>
-    <t>Tokens Purchased Transactions</t>
-  </si>
-  <si>
     <t>VerifyTransactionList</t>
   </si>
   <si>
@@ -1964,6 +1961,9 @@
   </si>
   <si>
     <t>3456</t>
+  </si>
+  <si>
+    <t>Email is required</t>
   </si>
 </sst>
 </file>
@@ -2554,25 +2554,25 @@
       <selection pane="topRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.44140625" customWidth="1"/>
-    <col min="2" max="2" width="50.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="63.88671875" customWidth="1"/>
-    <col min="7" max="7" width="63.44140625" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="63.85546875" customWidth="1"/>
+    <col min="7" max="7" width="63.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="43" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
-    <col min="11" max="11" width="24.44140625" customWidth="1"/>
-    <col min="12" max="12" width="26.44140625" customWidth="1"/>
-    <col min="13" max="13" width="32.88671875" customWidth="1"/>
-    <col min="14" max="14" width="22.88671875" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" customWidth="1"/>
+    <col min="12" max="12" width="26.42578125" customWidth="1"/>
+    <col min="13" max="13" width="32.85546875" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -3214,7 +3214,7 @@
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3229,7 +3229,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3244,29 +3244,29 @@
       <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.44140625" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1"/>
-    <col min="5" max="5" width="35.88671875" customWidth="1"/>
-    <col min="6" max="6" width="35.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="49.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" customWidth="1"/>
-    <col min="16" max="16" width="23.6640625" customWidth="1"/>
-    <col min="17" max="18" width="19.33203125" customWidth="1"/>
-    <col min="19" max="19" width="22.6640625" customWidth="1"/>
-    <col min="20" max="20" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="49.42578125" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="49.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="23.7109375" customWidth="1"/>
+    <col min="17" max="18" width="19.28515625" customWidth="1"/>
+    <col min="19" max="19" width="22.7109375" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>12</v>
@@ -3292,25 +3292,25 @@
         <v>13</v>
       </c>
       <c r="I1" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>398</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>399</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>14</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M1" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>444</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>445</v>
       </c>
       <c r="P1" s="16" t="s">
         <v>10</v>
@@ -3319,13 +3319,13 @@
         <v>11</v>
       </c>
       <c r="R1" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="S1" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>447</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>448</v>
       </c>
       <c r="U1" s="16" t="s">
         <v>20</v>
@@ -3337,12 +3337,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>23</v>
@@ -3359,499 +3359,499 @@
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
       <c r="O2" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="P2" s="19" t="s">
         <v>450</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>451</v>
       </c>
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>454</v>
-      </c>
       <c r="G3" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="J3" s="19" t="s">
         <v>455</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>456</v>
       </c>
       <c r="K3" s="16"/>
       <c r="L3" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>458</v>
-      </c>
       <c r="N3" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O3" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="P3" s="19" t="s">
         <v>450</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>451</v>
       </c>
       <c r="Q3" s="19" t="s">
         <v>80</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="T3" s="19" t="s">
         <v>459</v>
       </c>
-      <c r="T3" s="19" t="s">
+    </row>
+    <row r="4" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>461</v>
-      </c>
       <c r="B4" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>462</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="I4" t="s">
+        <v>441</v>
+      </c>
+      <c r="J4" t="s">
+        <v>441</v>
+      </c>
+      <c r="M4" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="I4" t="s">
-        <v>442</v>
-      </c>
-      <c r="J4" t="s">
-        <v>442</v>
-      </c>
-      <c r="M4" s="21" t="s">
+      <c r="N4" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="N4" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="B5" s="17" t="s">
         <v>465</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>466</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="20" t="s">
         <v>468</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>469</v>
       </c>
       <c r="I5" s="19"/>
       <c r="J5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K5" t="s">
         <v>35</v>
       </c>
       <c r="L5" s="20"/>
       <c r="M5" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O5" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="P5" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="P5" s="19" t="s">
-        <v>451</v>
-      </c>
       <c r="U5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K6" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O6" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="P6" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="P6" s="19" t="s">
-        <v>451</v>
-      </c>
       <c r="U6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>473</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="J7" t="s">
         <v>455</v>
       </c>
-      <c r="J7" t="s">
-        <v>456</v>
-      </c>
       <c r="M7" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O7" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="P7" s="19" t="s">
         <v>450</v>
-      </c>
-      <c r="P7" s="19" t="s">
-        <v>451</v>
       </c>
       <c r="V7" t="s">
         <v>49</v>
       </c>
       <c r="W7" s="14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="B8" t="s">
         <v>475</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B8" t="s">
-        <v>476</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F8" s="20"/>
       <c r="I8" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="J8" t="s">
         <v>455</v>
-      </c>
-      <c r="J8" t="s">
-        <v>456</v>
       </c>
       <c r="K8" t="s">
         <v>35</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O8" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="P8" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="P8" s="19" t="s">
-        <v>451</v>
-      </c>
       <c r="U8" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I9" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="J9" t="s">
         <v>455</v>
       </c>
-      <c r="J9" t="s">
-        <v>456</v>
-      </c>
       <c r="M9" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O9" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="P9" s="19" t="s">
         <v>450</v>
-      </c>
-      <c r="P9" s="19" t="s">
-        <v>451</v>
       </c>
       <c r="V9" t="s">
         <v>49</v>
       </c>
       <c r="W9" s="14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="B10" t="s">
         <v>479</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B10" t="s">
-        <v>480</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>132</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I10" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="J10" t="s">
         <v>455</v>
-      </c>
-      <c r="J10" t="s">
-        <v>456</v>
       </c>
       <c r="K10" t="s">
         <v>35</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O10" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="P10" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="P10" s="19" t="s">
-        <v>451</v>
-      </c>
       <c r="U10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>136</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I11" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="J11" t="s">
         <v>455</v>
-      </c>
-      <c r="J11" t="s">
-        <v>456</v>
       </c>
       <c r="K11" t="s">
         <v>35</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O11" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="P11" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="P11" s="19" t="s">
-        <v>451</v>
-      </c>
       <c r="U11" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="B12" t="s">
         <v>484</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B12" t="s">
-        <v>485</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>139</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E12" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I12" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="J12" t="s">
         <v>455</v>
-      </c>
-      <c r="J12" t="s">
-        <v>456</v>
       </c>
       <c r="K12" t="s">
         <v>35</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O12" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="P12" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="P12" s="19" t="s">
-        <v>451</v>
-      </c>
       <c r="U12" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>146</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I13" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="J13" t="s">
         <v>455</v>
-      </c>
-      <c r="J13" t="s">
-        <v>456</v>
       </c>
       <c r="K13" t="s">
         <v>35</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O13" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="P13" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="P13" s="19" t="s">
-        <v>451</v>
-      </c>
       <c r="U13" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>149</v>
@@ -3860,45 +3860,45 @@
         <v>38</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I14" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="J14" t="s">
         <v>455</v>
-      </c>
-      <c r="J14" t="s">
-        <v>456</v>
       </c>
       <c r="K14" t="s">
         <v>35</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O14" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="P14" s="19" t="s">
         <v>450</v>
-      </c>
-      <c r="P14" s="19" t="s">
-        <v>451</v>
       </c>
       <c r="V14" t="s">
         <v>49</v>
       </c>
       <c r="W14" s="14" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="B15" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" s="20" t="s">
         <v>491</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>492</v>
       </c>
       <c r="D15" s="2"/>
       <c r="F15" s="20"/>
@@ -3906,62 +3906,62 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="P15" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="P15" s="19" t="s">
-        <v>451</v>
-      </c>
       <c r="U15" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>124</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E16" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I16" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="J16" t="s">
         <v>455</v>
-      </c>
-      <c r="J16" t="s">
-        <v>456</v>
       </c>
       <c r="K16" t="s">
         <v>35</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O16" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="P16" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="P16" s="19" t="s">
-        <v>451</v>
-      </c>
       <c r="U16" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -3970,188 +3970,188 @@
         <v>155</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E17" t="s">
         <v>43</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I17" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="J17" t="s">
         <v>455</v>
-      </c>
-      <c r="J17" t="s">
-        <v>456</v>
       </c>
       <c r="K17" t="s">
         <v>35</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O17" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="P17" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="P17" s="19" t="s">
-        <v>451</v>
-      </c>
       <c r="U17" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>497</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I18" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="J18" t="s">
         <v>455</v>
       </c>
-      <c r="J18" t="s">
-        <v>456</v>
-      </c>
       <c r="M18" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="B19" t="s">
         <v>498</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="O18" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="P18" s="19" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>500</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I19" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="J19" t="s">
         <v>455</v>
-      </c>
-      <c r="J19" t="s">
-        <v>456</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O19" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="P19" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="P19" s="19" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>142</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I20" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="J20" t="s">
         <v>455</v>
       </c>
-      <c r="J20" t="s">
-        <v>456</v>
-      </c>
       <c r="M20" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="P20" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="P20" s="19" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>128</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I21" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="J21" t="s">
         <v>455</v>
       </c>
-      <c r="J21" t="s">
-        <v>456</v>
-      </c>
       <c r="M21" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N21" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="B22" t="s">
         <v>503</v>
       </c>
-      <c r="O21" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="P21" s="19" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C22" s="20" t="s">
         <v>504</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -4217,35 +4217,35 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="28.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" customWidth="1"/>
-    <col min="15" max="15" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="19" max="19" width="22.33203125" customWidth="1"/>
-    <col min="21" max="21" width="23.5546875" customWidth="1"/>
-    <col min="22" max="22" width="23.33203125" customWidth="1"/>
-    <col min="24" max="24" width="31.5546875" customWidth="1"/>
-    <col min="25" max="25" width="19.6640625" customWidth="1"/>
-    <col min="26" max="26" width="28.44140625" customWidth="1"/>
+    <col min="19" max="19" width="22.28515625" customWidth="1"/>
+    <col min="21" max="21" width="23.5703125" customWidth="1"/>
+    <col min="22" max="22" width="23.28515625" customWidth="1"/>
+    <col min="24" max="24" width="31.5703125" customWidth="1"/>
+    <col min="25" max="25" width="19.7109375" customWidth="1"/>
+    <col min="26" max="26" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4274,13 +4274,13 @@
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>508</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>94</v>
@@ -4298,39 +4298,39 @@
         <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>514</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>516</v>
-      </c>
-      <c r="B2" t="s">
-        <v>517</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>23</v>
@@ -4357,51 +4357,51 @@
         <v>24</v>
       </c>
       <c r="K2" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="R2" t="s">
         <v>519</v>
-      </c>
-      <c r="R2" t="s">
-        <v>520</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U2" t="s">
+        <v>520</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="X2" t="s">
         <v>521</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" t="s">
         <v>522</v>
       </c>
-      <c r="Y2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" t="s">
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>524</v>
-      </c>
-      <c r="B3" t="s">
-        <v>525</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -4419,42 +4419,42 @@
         <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="R3" t="s">
+        <v>519</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="U3" t="s">
         <v>520</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="U3" t="s">
-        <v>521</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Z3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B4" t="s">
         <v>526</v>
-      </c>
-      <c r="B4" t="s">
-        <v>527</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>23</v>
@@ -4481,24 +4481,24 @@
         <v>24</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>638</v>
       </c>
       <c r="N4" t="s">
         <v>35</v>
       </c>
       <c r="O4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B5" t="s">
         <v>528</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>526</v>
-      </c>
-      <c r="B5" t="s">
-        <v>529</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>37</v>
@@ -4525,10 +4525,10 @@
         <v>24</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M5" t="s">
         <v>43</v>
@@ -4537,15 +4537,15 @@
         <v>35</v>
       </c>
       <c r="O5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B6" t="s">
         <v>528</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>526</v>
-      </c>
-      <c r="B6" t="s">
-        <v>529</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>41</v>
@@ -4572,10 +4572,10 @@
         <v>24</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M6" t="s">
         <v>43</v>
@@ -4584,15 +4584,15 @@
         <v>35</v>
       </c>
       <c r="O6" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>45</v>
@@ -4619,10 +4619,10 @@
         <v>24</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M7" t="s">
         <v>43</v>
@@ -4631,15 +4631,15 @@
         <v>35</v>
       </c>
       <c r="O7" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>51</v>
@@ -4666,10 +4666,10 @@
         <v>24</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M8" t="s">
         <v>43</v>
@@ -4678,15 +4678,15 @@
         <v>35</v>
       </c>
       <c r="O8" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>132</v>
@@ -4713,10 +4713,10 @@
         <v>24</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M9" t="s">
         <v>43</v>
@@ -4725,15 +4725,15 @@
         <v>35</v>
       </c>
       <c r="O9" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>136</v>
@@ -4760,10 +4760,10 @@
         <v>24</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M10" t="s">
         <v>43</v>
@@ -4772,15 +4772,15 @@
         <v>35</v>
       </c>
       <c r="O10" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>139</v>
@@ -4807,10 +4807,10 @@
         <v>24</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M11" t="s">
         <v>43</v>
@@ -4819,15 +4819,15 @@
         <v>35</v>
       </c>
       <c r="O11" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>146</v>
@@ -4854,27 +4854,27 @@
         <v>24</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L12" t="s">
         <v>24</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N12" t="s">
         <v>35</v>
       </c>
       <c r="O12" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>539</v>
+      </c>
+      <c r="B13" t="s">
         <v>540</v>
-      </c>
-      <c r="B13" t="s">
-        <v>541</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>23</v>
@@ -4901,24 +4901,24 @@
         <v>24</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M13" t="s">
         <v>58</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B14" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>37</v>
@@ -4945,7 +4945,7 @@
         <v>24</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>62</v>
@@ -4954,12 +4954,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B15" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>41</v>
@@ -4986,21 +4986,21 @@
         <v>24</v>
       </c>
       <c r="K15" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Q15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>45</v>
@@ -5027,21 +5027,21 @@
         <v>24</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P16" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q16" t="s">
         <v>544</v>
       </c>
-      <c r="Q16" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>51</v>
@@ -5068,7 +5068,7 @@
         <v>24</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>59</v>
@@ -5148,26 +5148,26 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="17.21875" customWidth="1"/>
-    <col min="14" max="14" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5196,63 +5196,63 @@
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>557</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="Q1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:17" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="64.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="B2" t="s">
         <v>561</v>
-      </c>
-      <c r="B2" t="s">
-        <v>562</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="F2" s="31" t="s">
         <v>563</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="F2" s="31" t="s">
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
         <v>564</v>
       </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>565</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>32</v>
@@ -5261,222 +5261,222 @@
         <v>32</v>
       </c>
       <c r="O2" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="P2" t="s">
         <v>566</v>
       </c>
-      <c r="P2" t="s">
-        <v>567</v>
-      </c>
       <c r="Q2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="52.8" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
+        <v>560</v>
+      </c>
+      <c r="B3" t="s">
         <v>561</v>
-      </c>
-      <c r="B3" t="s">
-        <v>562</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
         <v>564</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>565</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="52.8" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
+        <v>567</v>
+      </c>
+      <c r="B4" t="s">
         <v>568</v>
-      </c>
-      <c r="B4" t="s">
-        <v>569</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>563</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="F4" s="31" t="s">
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
         <v>564</v>
       </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>565</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" t="s">
         <v>571</v>
       </c>
-      <c r="N4" t="s">
+    </row>
+    <row r="5" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
+        <v>567</v>
+      </c>
+      <c r="B5" t="s">
         <v>572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>568</v>
-      </c>
-      <c r="B5" t="s">
-        <v>573</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>563</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="F5" s="31" t="s">
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
         <v>564</v>
       </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>565</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="15" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
+        <v>567</v>
+      </c>
+      <c r="B6" t="s">
         <v>574</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>568</v>
-      </c>
-      <c r="B6" t="s">
-        <v>575</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>563</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="F6" s="31" t="s">
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
         <v>564</v>
       </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>565</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="15" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="52.8" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>563</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="F7" s="31" t="s">
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
         <v>564</v>
       </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>565</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="15" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -5520,25 +5520,25 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" customWidth="1"/>
-    <col min="15" max="15" width="20.6640625" customWidth="1"/>
-    <col min="16" max="16" width="20.88671875" customWidth="1"/>
-    <col min="19" max="19" width="30.77734375" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" customWidth="1"/>
+    <col min="19" max="19" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5567,31 +5567,31 @@
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>95</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>583</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>6</v>
@@ -5600,25 +5600,25 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B2" t="s">
         <v>584</v>
-      </c>
-      <c r="B2" t="s">
-        <v>585</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F2" t="s">
         <v>563</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F2" t="s">
-        <v>564</v>
-      </c>
       <c r="G2" t="s">
         <v>27</v>
       </c>
@@ -5629,52 +5629,52 @@
         <v>29</v>
       </c>
       <c r="J2" t="s">
+        <v>585</v>
+      </c>
+      <c r="K2" t="s">
+        <v>454</v>
+      </c>
+      <c r="L2" t="s">
         <v>586</v>
-      </c>
-      <c r="K2" t="s">
-        <v>455</v>
-      </c>
-      <c r="L2" t="s">
-        <v>587</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O2" t="s">
         <v>226</v>
       </c>
       <c r="P2" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q2" t="s">
         <v>589</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>590</v>
       </c>
-      <c r="R2" t="s">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>592</v>
-      </c>
-      <c r="B3" t="s">
-        <v>593</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F3" t="s">
         <v>563</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F3" t="s">
-        <v>564</v>
-      </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
@@ -5685,46 +5685,46 @@
         <v>29</v>
       </c>
       <c r="J3" t="s">
+        <v>585</v>
+      </c>
+      <c r="K3" t="s">
+        <v>454</v>
+      </c>
+      <c r="L3" t="s">
         <v>586</v>
-      </c>
-      <c r="K3" t="s">
-        <v>455</v>
-      </c>
-      <c r="L3" t="s">
-        <v>587</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>51</v>
       </c>
       <c r="N3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O3" t="s">
         <v>226</v>
       </c>
       <c r="P3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B4" t="s">
         <v>594</v>
-      </c>
-      <c r="B4" t="s">
-        <v>595</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F4" t="s">
         <v>563</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F4" t="s">
-        <v>564</v>
-      </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
@@ -5735,46 +5735,46 @@
         <v>29</v>
       </c>
       <c r="J4" t="s">
+        <v>585</v>
+      </c>
+      <c r="K4" t="s">
+        <v>454</v>
+      </c>
+      <c r="L4" t="s">
         <v>586</v>
-      </c>
-      <c r="K4" t="s">
-        <v>455</v>
-      </c>
-      <c r="L4" t="s">
-        <v>587</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O4" t="s">
         <v>226</v>
       </c>
       <c r="P4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B5" t="s">
         <v>596</v>
-      </c>
-      <c r="B5" t="s">
-        <v>597</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F5" t="s">
         <v>563</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F5" t="s">
-        <v>564</v>
-      </c>
       <c r="G5" t="s">
         <v>27</v>
       </c>
@@ -5785,31 +5785,31 @@
         <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="S5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>595</v>
+      </c>
+      <c r="B6" t="s">
         <v>598</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>596</v>
-      </c>
-      <c r="B6" t="s">
-        <v>599</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F6" t="s">
         <v>563</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F6" t="s">
-        <v>564</v>
-      </c>
       <c r="G6" t="s">
         <v>27</v>
       </c>
@@ -5820,34 +5820,34 @@
         <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="S6" t="s">
         <v>600</v>
       </c>
-      <c r="S6" t="s">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>595</v>
+      </c>
+      <c r="B7" t="s">
         <v>601</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>596</v>
-      </c>
-      <c r="B7" t="s">
-        <v>602</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F7" t="s">
         <v>563</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F7" t="s">
-        <v>564</v>
-      </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
@@ -5858,34 +5858,34 @@
         <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K7" t="s">
+        <v>602</v>
+      </c>
+      <c r="S7" t="s">
         <v>603</v>
       </c>
-      <c r="S7" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F8" t="s">
         <v>563</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F8" t="s">
-        <v>564</v>
-      </c>
       <c r="G8" t="s">
         <v>27</v>
       </c>
@@ -5896,37 +5896,37 @@
         <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="S8" t="s">
         <v>600</v>
       </c>
-      <c r="S8" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F9" t="s">
         <v>563</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F9" t="s">
-        <v>564</v>
-      </c>
       <c r="G9" t="s">
         <v>27</v>
       </c>
@@ -5937,37 +5937,37 @@
         <v>29</v>
       </c>
       <c r="J9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L9" t="s">
+        <v>604</v>
+      </c>
+      <c r="S9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>595</v>
+      </c>
+      <c r="B10" t="s">
         <v>605</v>
-      </c>
-      <c r="S9" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>596</v>
-      </c>
-      <c r="B10" t="s">
-        <v>606</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>132</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F10" t="s">
         <v>563</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F10" t="s">
-        <v>564</v>
-      </c>
       <c r="G10" t="s">
         <v>27</v>
       </c>
@@ -5978,27 +5978,27 @@
         <v>29</v>
       </c>
       <c r="J10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M10" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="S10" t="s">
         <v>607</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="T10" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
@@ -6007,14 +6007,14 @@
         <v>136</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F11" t="s">
         <v>563</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F11" t="s">
-        <v>564</v>
-      </c>
       <c r="G11" t="s">
         <v>27</v>
       </c>
@@ -6025,13 +6025,13 @@
         <v>29</v>
       </c>
       <c r="J11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>23</v>
@@ -6040,28 +6040,28 @@
         <v>43</v>
       </c>
       <c r="T11" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>611</v>
-      </c>
       <c r="B12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F12" t="s">
         <v>563</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F12" t="s">
-        <v>564</v>
-      </c>
       <c r="G12" t="s">
         <v>27</v>
       </c>
@@ -6072,31 +6072,31 @@
         <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="S12" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>610</v>
+      </c>
+      <c r="B13" t="s">
         <v>598</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>611</v>
-      </c>
-      <c r="B13" t="s">
-        <v>599</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F13" t="s">
         <v>563</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F13" t="s">
-        <v>564</v>
-      </c>
       <c r="G13" t="s">
         <v>27</v>
       </c>
@@ -6107,34 +6107,34 @@
         <v>29</v>
       </c>
       <c r="J13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K13" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="S13" t="s">
         <v>600</v>
       </c>
-      <c r="S13" t="s">
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>610</v>
+      </c>
+      <c r="B14" t="s">
         <v>601</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>611</v>
-      </c>
-      <c r="B14" t="s">
-        <v>602</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F14" t="s">
         <v>563</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F14" t="s">
-        <v>564</v>
-      </c>
       <c r="G14" t="s">
         <v>27</v>
       </c>
@@ -6145,34 +6145,34 @@
         <v>29</v>
       </c>
       <c r="J14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K14" t="s">
+        <v>602</v>
+      </c>
+      <c r="S14" t="s">
         <v>603</v>
       </c>
-      <c r="S14" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B15" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F15" t="s">
         <v>563</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F15" t="s">
-        <v>564</v>
-      </c>
       <c r="G15" t="s">
         <v>27</v>
       </c>
@@ -6183,37 +6183,37 @@
         <v>29</v>
       </c>
       <c r="J15" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L15" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="S15" t="s">
         <v>600</v>
       </c>
-      <c r="S15" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B16" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F16" t="s">
         <v>563</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F16" t="s">
-        <v>564</v>
-      </c>
       <c r="G16" t="s">
         <v>27</v>
       </c>
@@ -6224,37 +6224,37 @@
         <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K16" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L16" t="s">
+        <v>604</v>
+      </c>
+      <c r="S16" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>610</v>
+      </c>
+      <c r="B17" t="s">
         <v>605</v>
-      </c>
-      <c r="S16" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>611</v>
-      </c>
-      <c r="B17" t="s">
-        <v>606</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>132</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F17" t="s">
         <v>563</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F17" t="s">
-        <v>564</v>
-      </c>
       <c r="G17" t="s">
         <v>27</v>
       </c>
@@ -6265,27 +6265,27 @@
         <v>29</v>
       </c>
       <c r="J17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L17" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="S17" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
@@ -6294,14 +6294,14 @@
         <v>136</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F18" t="s">
         <v>563</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F18" t="s">
-        <v>564</v>
-      </c>
       <c r="G18" t="s">
         <v>27</v>
       </c>
@@ -6312,13 +6312,13 @@
         <v>29</v>
       </c>
       <c r="J18" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>23</v>
@@ -6327,7 +6327,7 @@
         <v>43</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -6353,33 +6353,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDACEBAE-0399-44B8-918C-9E44A81E28E5}">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" customWidth="1"/>
-    <col min="9" max="9" width="22.21875" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" customWidth="1"/>
-    <col min="15" max="15" width="9.21875" customWidth="1"/>
-    <col min="16" max="16" width="17.109375" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" customWidth="1"/>
-    <col min="19" max="19" width="15.109375" customWidth="1"/>
-    <col min="20" max="20" width="10.77734375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6408,61 +6408,61 @@
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>95</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>616</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>618</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B2" t="s">
         <v>619</v>
-      </c>
-      <c r="B2" t="s">
-        <v>620</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F2" t="s">
         <v>563</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F2" t="s">
-        <v>564</v>
-      </c>
       <c r="G2" t="s">
         <v>27</v>
       </c>
@@ -6473,52 +6473,52 @@
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L2" t="s">
+        <v>621</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="N2" t="s">
         <v>622</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="N2" t="s">
-        <v>623</v>
       </c>
       <c r="O2" t="s">
         <v>243</v>
       </c>
       <c r="P2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Q2" t="s">
         <v>226</v>
       </c>
       <c r="R2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B3" t="s">
         <v>625</v>
-      </c>
-      <c r="B3" t="s">
-        <v>626</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F3" t="s">
         <v>563</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F3" t="s">
-        <v>564</v>
-      </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
@@ -6529,37 +6529,37 @@
         <v>29</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="S3" t="s">
+        <v>626</v>
+      </c>
+      <c r="T3" t="s">
         <v>627</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>628</v>
       </c>
-      <c r="U3" t="s">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>630</v>
-      </c>
       <c r="B4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F4" t="s">
         <v>563</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F4" t="s">
-        <v>564</v>
-      </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
@@ -6570,31 +6570,31 @@
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>629</v>
+      </c>
+      <c r="B5" t="s">
         <v>630</v>
-      </c>
-      <c r="B5" t="s">
-        <v>631</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F5" t="s">
         <v>563</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F5" t="s">
-        <v>564</v>
-      </c>
       <c r="G5" t="s">
         <v>27</v>
       </c>
@@ -6605,37 +6605,37 @@
         <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="T5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>629</v>
+      </c>
+      <c r="B6" t="s">
         <v>630</v>
-      </c>
-      <c r="B6" t="s">
-        <v>631</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F6" t="s">
         <v>563</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F6" t="s">
-        <v>564</v>
-      </c>
       <c r="G6" t="s">
         <v>27</v>
       </c>
@@ -6646,37 +6646,37 @@
         <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="T6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>633</v>
-      </c>
-      <c r="B7" t="s">
-        <v>634</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F7" t="s">
         <v>563</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F7" t="s">
-        <v>564</v>
-      </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
@@ -6687,13 +6687,13 @@
         <v>29</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="S7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="U7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -6716,18 +6716,18 @@
       <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>157</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>168</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>179</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>191</v>
       </c>
@@ -7979,29 +7979,29 @@
         <v>26</v>
       </c>
       <c r="G20" t="s">
+        <v>545</v>
+      </c>
+      <c r="H20" t="s">
         <v>546</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>547</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>548</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>549</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
+        <v>549</v>
+      </c>
+      <c r="N20" t="s">
         <v>550</v>
       </c>
-      <c r="M20" t="s">
-        <v>550</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="P20" t="s">
         <v>551</v>
       </c>
-      <c r="P20" t="s">
-        <v>552</v>
-      </c>
       <c r="T20" t="s">
         <v>27</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -8032,29 +8032,29 @@
         <v>26</v>
       </c>
       <c r="G21" t="s">
+        <v>545</v>
+      </c>
+      <c r="H21" t="s">
         <v>546</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>547</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>548</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>549</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
+        <v>549</v>
+      </c>
+      <c r="N21" t="s">
         <v>550</v>
       </c>
-      <c r="M21" t="s">
-        <v>550</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="P21" t="s">
         <v>551</v>
       </c>
-      <c r="P21" t="s">
-        <v>552</v>
-      </c>
       <c r="T21" t="s">
         <v>27</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>194</v>
       </c>
@@ -8155,34 +8155,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7342C061-16F1-49A5-BA07-4D17E62E882D}">
   <dimension ref="A1:AM42"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="E24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="42.109375" customWidth="1"/>
-    <col min="7" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" customWidth="1"/>
-    <col min="10" max="10" width="19.88671875" customWidth="1"/>
-    <col min="11" max="11" width="19.88671875" hidden="1" customWidth="1"/>
-    <col min="12" max="14" width="19.88671875" customWidth="1"/>
-    <col min="15" max="15" width="30.109375" customWidth="1"/>
-    <col min="16" max="21" width="28.44140625" customWidth="1"/>
-    <col min="22" max="23" width="22.109375" customWidth="1"/>
-    <col min="24" max="29" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.140625" customWidth="1"/>
+    <col min="7" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" hidden="1" customWidth="1"/>
+    <col min="12" max="14" width="19.85546875" customWidth="1"/>
+    <col min="15" max="15" width="30.140625" customWidth="1"/>
+    <col min="16" max="21" width="28.42578125" customWidth="1"/>
+    <col min="22" max="23" width="22.140625" customWidth="1"/>
+    <col min="24" max="29" width="19.85546875" customWidth="1"/>
     <col min="30" max="30" width="50" customWidth="1"/>
-    <col min="31" max="31" width="22.44140625" customWidth="1"/>
+    <col min="31" max="31" width="22.42578125" customWidth="1"/>
     <col min="35" max="35" width="22" customWidth="1"/>
-    <col min="36" max="36" width="21.44140625" customWidth="1"/>
+    <col min="36" max="36" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8295,7 +8295,7 @@
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
     </row>
-    <row r="2" spans="1:39" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>219</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>221</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>228</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>230</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>232</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>236</v>
       </c>
@@ -8517,7 +8517,7 @@
       </c>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:39" ht="43.2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:39" ht="44.25" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>238</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>29</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K9" t="s">
         <v>242</v>
@@ -8573,7 +8573,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="43.2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:39" ht="44.25" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>248</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>29</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K10" t="s">
         <v>242</v>
@@ -8630,7 +8630,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="57" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:39" ht="58.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>250</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>29</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K11" t="s">
         <v>242</v>
@@ -8687,7 +8687,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="94.2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:39" ht="90.75" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>254</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="57" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:39" ht="58.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>258</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>29</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K13" t="s">
         <v>242</v>
@@ -8807,7 +8807,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="41.4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:39" ht="39.75" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>260</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="94.2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:39" ht="90.75" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>263</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>266</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>269</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>272</v>
       </c>
@@ -9032,7 +9032,7 @@
       </c>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>274</v>
       </c>
@@ -9062,7 +9062,7 @@
       </c>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>276</v>
       </c>
@@ -9115,7 +9115,7 @@
       <c r="Z20" s="15"/>
       <c r="AH20" s="15"/>
     </row>
-    <row r="21" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>278</v>
       </c>
@@ -9149,7 +9149,7 @@
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
     </row>
-    <row r="22" spans="1:34" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>280</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>29</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K22" s="15"/>
       <c r="L22" s="15" t="s">
@@ -9199,7 +9199,7 @@
       <c r="AD22" s="15"/>
       <c r="AH22" s="15"/>
     </row>
-    <row r="23" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>280</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>29</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15" t="s">
@@ -9246,7 +9246,7 @@
       <c r="AD23" s="15"/>
       <c r="AH23" s="15"/>
     </row>
-    <row r="24" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>284</v>
       </c>
@@ -9298,7 +9298,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>287</v>
       </c>
@@ -9342,7 +9342,7 @@
       <c r="AB25" s="15"/>
       <c r="AC25" s="15"/>
     </row>
-    <row r="26" spans="1:34" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>291</v>
       </c>
@@ -9395,7 +9395,7 @@
       <c r="Z26" s="15"/>
       <c r="AD26" s="23"/>
     </row>
-    <row r="27" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>294</v>
       </c>
@@ -9454,7 +9454,7 @@
       </c>
       <c r="AD27" s="23"/>
     </row>
-    <row r="28" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>294</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>294</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>296</v>
       </c>
@@ -9613,7 +9613,7 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
     </row>
-    <row r="31" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>298</v>
       </c>
@@ -9664,7 +9664,7 @@
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
     </row>
-    <row r="32" spans="1:34" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>300</v>
       </c>
@@ -9710,7 +9710,7 @@
       <c r="Y32" s="23"/>
       <c r="Z32" s="23"/>
     </row>
-    <row r="33" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>303</v>
       </c>
@@ -9763,7 +9763,7 @@
       <c r="Y33" s="23"/>
       <c r="Z33" s="23"/>
     </row>
-    <row r="34" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>306</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
         <v>310</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>313</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="s">
         <v>316</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>318</v>
       </c>
@@ -9929,15 +9929,15 @@
         <v>308</v>
       </c>
       <c r="P38" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39" s="15" t="s">
         <v>321</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>322</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>23</v>
@@ -9964,30 +9964,30 @@
         <v>308</v>
       </c>
       <c r="P39" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q39" t="s">
         <v>323</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>324</v>
       </c>
       <c r="R39">
         <v>25</v>
       </c>
       <c r="S39" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="T39" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="T39" s="15" t="s">
+      <c r="U39" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="U39" s="15" t="s">
+    </row>
+    <row r="40" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>328</v>
-      </c>
-      <c r="B40" t="s">
-        <v>329</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>23</v>
@@ -10011,7 +10011,7 @@
         <v>29</v>
       </c>
       <c r="P40" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q40" s="30"/>
       <c r="R40" s="30"/>
@@ -10019,18 +10019,18 @@
       <c r="T40" s="30"/>
       <c r="U40" s="30"/>
       <c r="V40" t="s">
+        <v>329</v>
+      </c>
+      <c r="W40" t="s">
         <v>330</v>
       </c>
-      <c r="W40" t="s">
+    </row>
+    <row r="41" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>332</v>
-      </c>
       <c r="B41" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>23</v>
@@ -10054,18 +10054,18 @@
         <v>29</v>
       </c>
       <c r="V41" t="s">
+        <v>329</v>
+      </c>
+      <c r="W41" t="s">
         <v>330</v>
       </c>
-      <c r="W41" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>23</v>
@@ -10089,7 +10089,7 @@
         <v>29</v>
       </c>
       <c r="V42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -10193,28 +10193,28 @@
       <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="1"/>
-    <col min="2" max="2" width="43.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1"/>
-    <col min="11" max="11" width="19.88671875" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" customWidth="1"/>
-    <col min="14" max="15" width="13.44140625" customWidth="1"/>
-    <col min="17" max="17" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="15" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
     <col min="18" max="18" width="20" customWidth="1"/>
-    <col min="19" max="19" width="16.5546875" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -10240,10 +10240,10 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -10258,27 +10258,27 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" t="s">
         <v>401</v>
-      </c>
-      <c r="B2" t="s">
-        <v>402</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>23</v>
@@ -10290,184 +10290,184 @@
         <v>27</v>
       </c>
       <c r="I2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="L2" t="s">
         <v>80</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="O2" t="s">
         <v>405</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>406</v>
-      </c>
-      <c r="P2" t="s">
-        <v>407</v>
       </c>
       <c r="Q2" t="s">
         <v>35</v>
       </c>
       <c r="R2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>409</v>
-      </c>
-      <c r="B3" t="s">
-        <v>410</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q3" t="s">
         <v>35</v>
       </c>
       <c r="S3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" t="s">
         <v>412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>409</v>
-      </c>
-      <c r="B4" t="s">
-        <v>413</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>402</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>414</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>403</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>415</v>
       </c>
       <c r="Q4" t="s">
         <v>35</v>
       </c>
       <c r="S4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
       <c r="I5" t="s">
+        <v>402</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="Q5" t="s">
         <v>35</v>
       </c>
       <c r="S5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B6" t="s">
         <v>418</v>
-      </c>
-      <c r="B6" t="s">
-        <v>419</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
       </c>
       <c r="I6" t="s">
+        <v>402</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>404</v>
-      </c>
       <c r="P6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q6" t="s">
         <v>35</v>
       </c>
       <c r="S6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B7" t="s">
         <v>421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>418</v>
-      </c>
-      <c r="B7" t="s">
-        <v>422</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
       </c>
       <c r="I7" t="s">
+        <v>402</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>404</v>
-      </c>
       <c r="O7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q7" t="s">
         <v>35</v>
       </c>
       <c r="S7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B8" t="s">
         <v>424</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>418</v>
-      </c>
-      <c r="B8" t="s">
-        <v>425</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>41</v>
@@ -10479,31 +10479,31 @@
         <v>27</v>
       </c>
       <c r="I8" t="s">
+        <v>402</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>404</v>
-      </c>
       <c r="O8" t="s">
+        <v>425</v>
+      </c>
+      <c r="P8" t="s">
         <v>426</v>
-      </c>
-      <c r="P8" t="s">
-        <v>427</v>
       </c>
       <c r="Q8" t="s">
         <v>35</v>
       </c>
       <c r="R8" s="11"/>
       <c r="S8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>429</v>
-      </c>
-      <c r="B9" t="s">
-        <v>430</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>23</v>
@@ -10512,27 +10512,27 @@
         <v>27</v>
       </c>
       <c r="I9" t="s">
+        <v>402</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>404</v>
-      </c>
       <c r="L9" t="s">
+        <v>430</v>
+      </c>
+      <c r="O9" t="s">
+        <v>405</v>
+      </c>
+      <c r="P9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>431</v>
       </c>
-      <c r="O9" t="s">
-        <v>406</v>
-      </c>
-      <c r="P9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>432</v>
-      </c>
-      <c r="B10" t="s">
-        <v>433</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>23</v>
@@ -10544,36 +10544,36 @@
         <v>27</v>
       </c>
       <c r="I10" t="s">
+        <v>402</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="L10" t="s">
         <v>80</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O10" t="s">
+        <v>405</v>
+      </c>
+      <c r="P10" t="s">
         <v>406</v>
-      </c>
-      <c r="P10" t="s">
-        <v>407</v>
       </c>
       <c r="Q10" t="s">
         <v>35</v>
       </c>
       <c r="R10" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>431</v>
+      </c>
+      <c r="B11" t="s">
         <v>432</v>
-      </c>
-      <c r="B11" t="s">
-        <v>433</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>37</v>
@@ -10582,36 +10582,36 @@
         <v>27</v>
       </c>
       <c r="I11" t="s">
+        <v>402</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="L11" t="s">
         <v>80</v>
       </c>
       <c r="M11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O11" t="s">
+        <v>405</v>
+      </c>
+      <c r="P11" t="s">
         <v>406</v>
-      </c>
-      <c r="P11" t="s">
-        <v>407</v>
       </c>
       <c r="Q11" t="s">
         <v>35</v>
       </c>
       <c r="R11" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B12" t="s">
         <v>432</v>
-      </c>
-      <c r="B12" t="s">
-        <v>433</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>41</v>
@@ -10620,36 +10620,36 @@
         <v>27</v>
       </c>
       <c r="I12" t="s">
+        <v>402</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="L12" t="s">
         <v>80</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O12" t="s">
+        <v>405</v>
+      </c>
+      <c r="P12" t="s">
         <v>406</v>
-      </c>
-      <c r="P12" t="s">
-        <v>407</v>
       </c>
       <c r="Q12" t="s">
         <v>35</v>
       </c>
       <c r="R12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>431</v>
+      </c>
+      <c r="B13" t="s">
         <v>432</v>
-      </c>
-      <c r="B13" t="s">
-        <v>433</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>45</v>
@@ -10658,33 +10658,33 @@
         <v>27</v>
       </c>
       <c r="I13" t="s">
+        <v>402</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="L13" t="s">
         <v>80</v>
       </c>
       <c r="M13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O13" t="s">
+        <v>405</v>
+      </c>
+      <c r="P13" t="s">
         <v>406</v>
-      </c>
-      <c r="P13" t="s">
-        <v>407</v>
       </c>
       <c r="Q13" t="s">
         <v>35</v>
       </c>
       <c r="R13" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B14" t="s">
         <v>192</v>
@@ -10696,18 +10696,18 @@
         <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J14" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>440</v>
-      </c>
-      <c r="B15" t="s">
-        <v>441</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>23</v>
@@ -10716,16 +10716,16 @@
         <v>27</v>
       </c>
       <c r="I15" t="s">
+        <v>402</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>404</v>
-      </c>
       <c r="O15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -10746,22 +10746,22 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" customWidth="1"/>
     <col min="18" max="18" width="42" customWidth="1"/>
-    <col min="23" max="23" width="9.44140625" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10835,12 +10835,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" t="s">
         <v>335</v>
-      </c>
-      <c r="B2" t="s">
-        <v>336</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>23</v>
@@ -10858,16 +10858,16 @@
         <v>181</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I2" t="s">
         <v>160</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>339</v>
       </c>
       <c r="L2" t="s">
         <v>186</v>
@@ -10882,7 +10882,7 @@
         <v>107</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q2" t="s">
         <v>109</v>
@@ -10900,12 +10900,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" t="s">
         <v>341</v>
-      </c>
-      <c r="B3" t="s">
-        <v>342</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>23</v>
@@ -10923,7 +10923,7 @@
         <v>181</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I3" t="s">
         <v>183</v>
@@ -10932,7 +10932,7 @@
         <v>171</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L3" t="s">
         <v>186</v>
@@ -10944,16 +10944,16 @@
         <v>165</v>
       </c>
       <c r="O3" t="s">
+        <v>344</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>345</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>346</v>
       </c>
       <c r="Q3" t="s">
         <v>109</v>
       </c>
       <c r="R3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>190</v>
@@ -10968,12 +10968,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B4" t="s">
         <v>348</v>
-      </c>
-      <c r="B4" t="s">
-        <v>349</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>23</v>
@@ -10988,19 +10988,19 @@
         <v>26</v>
       </c>
       <c r="G4" t="s">
+        <v>349</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>350</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>351</v>
       </c>
       <c r="I4" t="s">
         <v>160</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>339</v>
       </c>
       <c r="L4" t="s">
         <v>173</v>
@@ -11033,9 +11033,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B5" t="s">
         <v>178</v>
@@ -11053,7 +11053,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J5" s="6"/>
       <c r="U5" t="s">
@@ -11066,12 +11066,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B6" t="s">
         <v>353</v>
-      </c>
-      <c r="B6" t="s">
-        <v>354</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>23</v>
@@ -11086,34 +11086,34 @@
         <v>26</v>
       </c>
       <c r="G6" t="s">
+        <v>354</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>356</v>
       </c>
       <c r="I6" t="s">
         <v>183</v>
       </c>
       <c r="J6" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="L6" t="s">
         <v>358</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
+        <v>358</v>
+      </c>
+      <c r="N6" t="s">
         <v>359</v>
-      </c>
-      <c r="M6" t="s">
-        <v>359</v>
-      </c>
-      <c r="N6" t="s">
-        <v>360</v>
       </c>
       <c r="O6" t="s">
         <v>187</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q6" t="s">
         <v>109</v>
@@ -11131,12 +11131,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>37</v>
@@ -11151,34 +11151,34 @@
         <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I7" t="s">
         <v>183</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K7" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="L7" t="s">
         <v>364</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>365</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>366</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>367</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>369</v>
       </c>
       <c r="Q7" t="s">
         <v>109</v>
@@ -11196,12 +11196,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>41</v>
@@ -11219,16 +11219,16 @@
         <v>181</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I8" t="s">
         <v>183</v>
       </c>
       <c r="J8" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>358</v>
       </c>
       <c r="L8" t="s">
         <v>186</v>
@@ -11240,10 +11240,10 @@
         <v>165</v>
       </c>
       <c r="O8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Q8" t="s">
         <v>109</v>
@@ -11252,7 +11252,7 @@
         <v>110</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T8" t="s">
         <v>35</v>
@@ -11267,15 +11267,15 @@
         <v>29</v>
       </c>
       <c r="X8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>353</v>
-      </c>
-      <c r="B9" t="s">
-        <v>375</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>45</v>
@@ -11293,13 +11293,13 @@
         <v>181</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>113</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L9" t="s">
         <v>186</v>
@@ -11311,10 +11311,10 @@
         <v>165</v>
       </c>
       <c r="O9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q9" t="s">
         <v>109</v>
@@ -11338,12 +11338,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>51</v>
@@ -11361,13 +11361,13 @@
         <v>181</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J10" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>358</v>
       </c>
       <c r="L10" t="s">
         <v>186</v>
@@ -11379,10 +11379,10 @@
         <v>165</v>
       </c>
       <c r="O10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q10" t="s">
         <v>109</v>
@@ -11406,12 +11406,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>132</v>
@@ -11426,16 +11426,16 @@
         <v>26</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I11" t="s">
         <v>183</v>
       </c>
       <c r="J11" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>358</v>
       </c>
       <c r="L11" t="s">
         <v>186</v>
@@ -11447,10 +11447,10 @@
         <v>165</v>
       </c>
       <c r="O11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q11" t="s">
         <v>109</v>
@@ -11471,15 +11471,15 @@
         <v>29</v>
       </c>
       <c r="X11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B12" t="s">
         <v>379</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>353</v>
-      </c>
-      <c r="B12" t="s">
-        <v>380</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>136</v>
@@ -11500,10 +11500,10 @@
         <v>183</v>
       </c>
       <c r="J12" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>358</v>
       </c>
       <c r="L12" t="s">
         <v>186</v>
@@ -11515,10 +11515,10 @@
         <v>165</v>
       </c>
       <c r="O12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q12" t="s">
         <v>109</v>
@@ -11539,15 +11539,15 @@
         <v>29</v>
       </c>
       <c r="X12" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B13" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B13" t="s">
-        <v>382</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>139</v>
@@ -11565,14 +11565,14 @@
         <v>181</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I13" t="s">
         <v>183</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L13" t="s">
         <v>186</v>
@@ -11584,10 +11584,10 @@
         <v>165</v>
       </c>
       <c r="O13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q13" t="s">
         <v>109</v>
@@ -11608,15 +11608,15 @@
         <v>29</v>
       </c>
       <c r="X13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>352</v>
+      </c>
+      <c r="B14" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>353</v>
-      </c>
-      <c r="B14" t="s">
-        <v>384</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>142</v>
@@ -11634,16 +11634,16 @@
         <v>181</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I14" t="s">
         <v>183</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L14" t="s">
         <v>186</v>
@@ -11655,7 +11655,7 @@
         <v>165</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q14" t="s">
         <v>109</v>
@@ -11679,12 +11679,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>146</v>
@@ -11702,13 +11702,13 @@
         <v>181</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I15" t="s">
         <v>183</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L15" t="s">
         <v>186</v>
@@ -11720,10 +11720,10 @@
         <v>165</v>
       </c>
       <c r="O15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q15" t="s">
         <v>109</v>
@@ -11744,15 +11744,15 @@
         <v>29</v>
       </c>
       <c r="X15" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>352</v>
+      </c>
+      <c r="B16" t="s">
         <v>388</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>353</v>
-      </c>
-      <c r="B16" t="s">
-        <v>389</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>149</v>
@@ -11770,16 +11770,16 @@
         <v>181</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I16" t="s">
         <v>183</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M16" t="s">
         <v>164</v>
@@ -11788,10 +11788,10 @@
         <v>165</v>
       </c>
       <c r="O16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q16" t="s">
         <v>109</v>
@@ -11812,15 +11812,15 @@
         <v>29</v>
       </c>
       <c r="X16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>352</v>
+      </c>
+      <c r="B17" t="s">
         <v>391</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>353</v>
-      </c>
-      <c r="B17" t="s">
-        <v>392</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>124</v>
@@ -11838,16 +11838,16 @@
         <v>181</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I17" t="s">
         <v>183</v>
       </c>
       <c r="J17" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>358</v>
       </c>
       <c r="L17" t="s">
         <v>186</v>
@@ -11856,10 +11856,10 @@
         <v>164</v>
       </c>
       <c r="O17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q17" t="s">
         <v>109</v>
@@ -11883,12 +11883,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>155</v>
@@ -11906,16 +11906,16 @@
         <v>181</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I18" t="s">
         <v>183</v>
       </c>
       <c r="J18" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>358</v>
       </c>
       <c r="L18" t="s">
         <v>186</v>
@@ -11927,7 +11927,7 @@
         <v>165</v>
       </c>
       <c r="O18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q18" t="s">
         <v>109</v>
@@ -11948,7 +11948,7 @@
         <v>29</v>
       </c>
       <c r="X18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/Web/coyni/resources/testdata.xlsx
+++ b/Web/coyni/resources/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\2022\101222_Web\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\2022\101922_Web\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAE3867-8A6A-42E6-9A54-B2E540765D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8797D5-0906-457A-911C-741E02072948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4592" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4605" uniqueCount="913">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2582,15 +2582,9 @@
     <t>04/24</t>
   </si>
   <si>
-    <t>b481bbf9-262b-4d97-a681-70ba581b4733</t>
-  </si>
-  <si>
     <t>Santosh Kumar (Personal)</t>
   </si>
   <si>
-    <t>test102@gmail.com</t>
-  </si>
-  <si>
     <t>Santosh Kumar requested for amount 1.00 CYN</t>
   </si>
   <si>
@@ -2645,9 +2639,6 @@
     <t>Verify Edit Phone Number with Invalid Authy</t>
   </si>
   <si>
-    <t>select count(*) from "transaction" t where created_by = '111' and parent_id isnull and wallet_category = 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">    </t>
   </si>
   <si>
@@ -2729,80 +2720,95 @@
     <t>PVLBTAMVAUOXHAF4BP6TYJTBOYFU524E7JMFUMBVZ5DY2JN23XWA</t>
   </si>
   <si>
-    <t>select count(*) from transaction t where created_by ='111' and txn_type =12 and
+    <t>40f0d825-bc0a-45a2-94ed-42baaf4c7390</t>
+  </si>
+  <si>
+    <t>122105278</t>
+  </si>
+  <si>
+    <t>select count(*) from transaction t where created_by ='1981' and txn_type =12 and
 txn_sub_type = 8 and created_at between '2022-10-12 00:00:00' and '2022-10-12 23:59:59'</t>
   </si>
   <si>
-    <t>select count(*) from transaction t where created_by ='111' and txn_type =12 and
+    <t>select count(*) from transaction t where created_by ='1981' and txn_type =12 and
 txn_sub_type = 9 and created_at between '2022-10-12 00:00:00' and '2022-10-12 23:59:59'</t>
   </si>
   <si>
-    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =2 and
+    <t>select count(*) from "transaction" t where created_by ='1981' and txn_type =2 and
 txn_sub_type = 3 and created_at between '2022-10-12 00:00:00' and '2022-10-12 23:59:59'</t>
   </si>
   <si>
-    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =3 and
+    <t>select count(*) from "transaction" t where created_by ='1981' and txn_type =3 and
 txn_sub_type = 1 and created_at between '2022-10-12 00:00:00' and '2022-10-12 23:59:59'</t>
   </si>
   <si>
-    <t>select count(*) from transaction t where created_by ='111' and txn_type =12 and
+    <t>select count(*) from transaction t where created_by ='1981' and txn_type =12 and
 txn_sub_type = 8 and created_at between '2022-10-11 00:00:00' and '2022-10-11 23:59:59'</t>
   </si>
   <si>
-    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =2 and
+    <t>select count(*) from "transaction" t where created_by ='1981' and txn_type =2 and
 txn_sub_type = 3 and created_at between '2022-10-11 00:00:00' and '2022-10-11 23:59:59'</t>
   </si>
   <si>
-    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =3 and
+    <t>select count(*) from "transaction" t where created_by ='1981' and txn_type =3 and
 txn_sub_type = 1 and created_at between '2022-10-11 00:00:00' and '2022-10-11 23:59:59'</t>
   </si>
   <si>
-    <t>select count(*) from transaction t where created_by ='111' and txn_type =12 and
+    <t>select count(*) from transaction t where created_by ='1981' and txn_type =12 and
 txn_sub_type = 8 and created_at between '2022-10-04 00:00:00' and '2022-10-11 23:59:59'</t>
   </si>
   <si>
-    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =12 and
+    <t>select count(*) from "transaction" t where created_by ='1981' and txn_type =12 and
 txn_sub_type = 9 and created_at between '2022-10-04 00:00:00' and '2022-10-11 23:59:59'</t>
   </si>
   <si>
-    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =2 and
+    <t>select count(*) from "transaction" t where created_by ='1981' and txn_type =2 and
 txn_sub_type = 3 and created_at between '2022-10-04 00:00:00' and '2022-10-11 23:59:59'</t>
   </si>
   <si>
-    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =3 and
+    <t>select count(*) from "transaction" t where created_by ='1981' and txn_type =3 and
 txn_sub_type = 1 and created_at between '2022-10-04 00:00:00' and '2022-10-11 23:59:59'</t>
   </si>
   <si>
-    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =12 and
+    <t>select count(*) from "transaction" t where created_by ='1981' and txn_type =12 and
 txn_sub_type = 8 and created_at between '2022-10-01 00:00:00' and '2022-10-11 23:59:59'</t>
   </si>
   <si>
-    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =12 and
+    <t>select count(*) from "transaction" t where created_by ='1981' and txn_type =12 and
 txn_sub_type = 9 and created_at between '2022-10-01 00:00:00' and '2022-10-11 23:59:59'</t>
   </si>
   <si>
-    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =2 and
+    <t>select count(*) from "transaction" t where created_by ='1981' and txn_type =2 and
 txn_sub_type = 3 and created_at between '2022-10-01 00:00:00' and '2022-10-11 23:59:59'</t>
   </si>
   <si>
-    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =3 and
+    <t>select count(*) from "transaction" t where created_by ='1981' and txn_type =3 and
 txn_sub_type = 1 and created_at between '2022-10-01 00:00:00' and '2022-10-11 23:59:59'</t>
   </si>
   <si>
-    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =12 and
+    <t>select count(*) from "transaction" t where created_by ='1981' and txn_type =12 and
 txn_sub_type = 8 and created_at between '2022-09-11 00:00:00' and '2022-10-11 23:59:59'</t>
   </si>
   <si>
-    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =12 and
+    <t>select count(*) from "transaction" t where created_by ='1981' and txn_type =12 and
 txn_sub_type = 9 and created_at between '2022-09-11 00:00:00' and '2022-10-11 23:59:59'</t>
   </si>
   <si>
-    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =2 and
+    <t>select count(*) from "transaction" t where created_by ='1981' and txn_type =2 and
 txn_sub_type = 3 and created_at between '2022-09-11 00:00:00' and '2022-10-11 23:59:59'</t>
   </si>
   <si>
-    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =3 and
+    <t>select count(*) from "transaction" t where created_by ='1981' and txn_type =3 and
 txn_sub_type = 1 and created_at between '2022-09-11 00:00:00' and '2022-10-11 23:59:59'</t>
+  </si>
+  <si>
+    <t>select count(*) from "transaction" t where created_by = '1981' and parent_id isnull and wallet_category = 1</t>
+  </si>
+  <si>
+    <t>test103@gmail.com</t>
+  </si>
+  <si>
+    <t>f2571fbe-f1a3-4303-af64-613649a863e2</t>
   </si>
 </sst>
 </file>
@@ -3556,7 +3562,7 @@
         <v>425</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="I2" t="s">
         <v>26</v>
@@ -3586,7 +3592,7 @@
         <v>425</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H3" t="s">
         <v>32</v>
@@ -3619,7 +3625,7 @@
         <v>425</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H4" t="s">
         <v>37</v>
@@ -3774,7 +3780,7 @@
         <v>57</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
@@ -3812,7 +3818,7 @@
         <v>60</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="I10" t="s">
         <v>26</v>
@@ -3844,7 +3850,7 @@
         <v>63</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="I11" t="s">
         <v>26</v>
@@ -3876,7 +3882,7 @@
         <v>66</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="I12" t="s">
         <v>26</v>
@@ -3908,7 +3914,7 @@
         <v>57</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="I13" t="s">
         <v>26</v>
@@ -4149,10 +4155,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547949FE-1284-41CA-BCEC-F84FA9C871D7}">
-  <dimension ref="A1:BH51"/>
+  <dimension ref="A1:BL51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U40" sqref="U40"/>
+    <sheetView topLeftCell="AY40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BI51" sqref="BI51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -4191,9 +4197,13 @@
     <col min="56" max="56" width="22.42578125" customWidth="1"/>
     <col min="57" max="57" width="20.140625" customWidth="1"/>
     <col min="58" max="58" width="12.85546875" customWidth="1"/>
+    <col min="61" max="61" width="16.85546875" customWidth="1"/>
+    <col min="62" max="62" width="17.42578125" customWidth="1"/>
+    <col min="63" max="63" width="21" customWidth="1"/>
+    <col min="64" max="64" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:64">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4327,7 +4337,7 @@
         <v>215</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>692</v>
@@ -4374,8 +4384,20 @@
       <c r="BH1" s="1" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="2" spans="1:60" ht="25.5">
+      <c r="BI1" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" ht="25.5">
       <c r="A2" t="s">
         <v>216</v>
       </c>
@@ -4407,7 +4429,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="25.5">
+    <row r="3" spans="1:64" ht="25.5">
       <c r="A3" t="s">
         <v>218</v>
       </c>
@@ -4449,7 +4471,7 @@
       </c>
       <c r="AR3" s="14"/>
     </row>
-    <row r="4" spans="1:60" ht="25.5">
+    <row r="4" spans="1:64" ht="25.5">
       <c r="A4" t="s">
         <v>225</v>
       </c>
@@ -4481,7 +4503,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:60" ht="25.5">
+    <row r="5" spans="1:64" ht="25.5">
       <c r="A5" t="s">
         <v>227</v>
       </c>
@@ -4513,7 +4535,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:60" ht="25.5">
+    <row r="6" spans="1:64" ht="25.5">
       <c r="A6" t="s">
         <v>229</v>
       </c>
@@ -4545,7 +4567,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:60" ht="25.5">
+    <row r="7" spans="1:64" ht="25.5">
       <c r="A7" t="s">
         <v>231</v>
       </c>
@@ -4577,7 +4599,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:60" ht="25.5">
+    <row r="8" spans="1:64" ht="25.5">
       <c r="A8" t="s">
         <v>233</v>
       </c>
@@ -4613,7 +4635,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="9" spans="1:60" ht="58.5">
+    <row r="9" spans="1:64" ht="58.5">
       <c r="A9" s="14" t="s">
         <v>255</v>
       </c>
@@ -4651,7 +4673,7 @@
         <v>257</v>
       </c>
       <c r="M9" t="s">
-        <v>843</v>
+        <v>889</v>
       </c>
       <c r="N9" t="s">
         <v>258</v>
@@ -4660,7 +4682,7 @@
         <v>222</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>845</v>
+        <v>911</v>
       </c>
       <c r="AK9" s="8" t="s">
         <v>24</v>
@@ -4669,13 +4691,13 @@
         <v>259</v>
       </c>
       <c r="AM9" s="24" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="AN9" s="25" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="10" spans="1:60" ht="101.25">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" ht="101.25">
       <c r="A10" s="14" t="s">
         <v>260</v>
       </c>
@@ -4713,7 +4735,7 @@
         <v>257</v>
       </c>
       <c r="M10" t="s">
-        <v>843</v>
+        <v>889</v>
       </c>
       <c r="N10" t="s">
         <v>258</v>
@@ -4722,7 +4744,7 @@
         <v>222</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>845</v>
+        <v>911</v>
       </c>
       <c r="AK10" s="8" t="s">
         <v>24</v>
@@ -4731,13 +4753,13 @@
         <v>259</v>
       </c>
       <c r="AM10" s="24" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="AN10" s="25" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="11" spans="1:60" ht="58.5">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" ht="58.5">
       <c r="A11" t="s">
         <v>262</v>
       </c>
@@ -4775,7 +4797,7 @@
         <v>257</v>
       </c>
       <c r="M11" t="s">
-        <v>843</v>
+        <v>889</v>
       </c>
       <c r="N11" t="s">
         <v>258</v>
@@ -4784,7 +4806,7 @@
         <v>222</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>845</v>
+        <v>911</v>
       </c>
       <c r="AK11" s="8" t="s">
         <v>24</v>
@@ -4793,13 +4815,13 @@
         <v>259</v>
       </c>
       <c r="AM11" s="24" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="AO11" s="24" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:60" ht="101.25">
+    <row r="12" spans="1:64" ht="101.25">
       <c r="A12" t="s">
         <v>265</v>
       </c>
@@ -4837,13 +4859,13 @@
         <v>257</v>
       </c>
       <c r="M12" t="s">
-        <v>843</v>
+        <v>889</v>
       </c>
       <c r="AI12" s="22" t="s">
         <v>222</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>845</v>
+        <v>911</v>
       </c>
       <c r="AK12" s="8" t="s">
         <v>24</v>
@@ -4852,13 +4874,13 @@
         <v>259</v>
       </c>
       <c r="AM12" s="24" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="AN12" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="AO12" s="14" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="AQ12" t="s">
         <v>223</v>
@@ -4867,7 +4889,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:60" ht="58.5">
+    <row r="13" spans="1:64" ht="58.5">
       <c r="A13" t="s">
         <v>267</v>
       </c>
@@ -4905,7 +4927,7 @@
         <v>257</v>
       </c>
       <c r="M13" t="s">
-        <v>843</v>
+        <v>889</v>
       </c>
       <c r="N13" t="s">
         <v>258</v>
@@ -4914,7 +4936,7 @@
         <v>222</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>845</v>
+        <v>911</v>
       </c>
       <c r="AK13" s="8" t="s">
         <v>24</v>
@@ -4923,13 +4945,13 @@
         <v>259</v>
       </c>
       <c r="AM13" s="25" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="AO13" s="24" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:60" ht="27">
+    <row r="14" spans="1:64" ht="27">
       <c r="A14" s="14" t="s">
         <v>269</v>
       </c>
@@ -4967,7 +4989,7 @@
         <v>257</v>
       </c>
       <c r="M14" t="s">
-        <v>843</v>
+        <v>889</v>
       </c>
       <c r="N14" t="s">
         <v>221</v>
@@ -4976,7 +4998,7 @@
         <v>222</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>845</v>
+        <v>911</v>
       </c>
       <c r="AK14" s="8" t="s">
         <v>24</v>
@@ -4985,16 +5007,16 @@
         <v>259</v>
       </c>
       <c r="AP14" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="AQ14" t="s">
         <v>223</v>
       </c>
       <c r="AR14" s="14" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="15" spans="1:60" ht="90.75">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" ht="90.75">
       <c r="A15" s="14" t="s">
         <v>271</v>
       </c>
@@ -5032,7 +5054,7 @@
         <v>257</v>
       </c>
       <c r="M15" t="s">
-        <v>843</v>
+        <v>889</v>
       </c>
       <c r="N15" t="s">
         <v>273</v>
@@ -5041,7 +5063,7 @@
         <v>222</v>
       </c>
       <c r="AJ15" s="2" t="s">
-        <v>845</v>
+        <v>911</v>
       </c>
       <c r="AK15" s="8" t="s">
         <v>24</v>
@@ -5050,19 +5072,19 @@
         <v>259</v>
       </c>
       <c r="AM15" s="24" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="AN15" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="AO15" s="14" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="AQ15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:60" ht="85.5">
+    <row r="16" spans="1:64" ht="85.5">
       <c r="A16" t="s">
         <v>274</v>
       </c>
@@ -5095,7 +5117,7 @@
       </c>
       <c r="M16" s="14"/>
       <c r="AM16" s="24" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="AN16" s="14" t="s">
         <v>814</v>
@@ -5134,7 +5156,7 @@
       </c>
       <c r="M17" s="14"/>
       <c r="AM17" s="23" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="AN17" t="s">
         <v>814</v>
@@ -5242,7 +5264,7 @@
       </c>
       <c r="L20" s="14"/>
       <c r="M20" s="14" t="s">
-        <v>843</v>
+        <v>889</v>
       </c>
       <c r="N20" s="14" t="s">
         <v>221</v>
@@ -5275,7 +5297,7 @@
         <v>223</v>
       </c>
       <c r="AR20" s="14" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="21" spans="1:60" ht="25.5">
@@ -5351,7 +5373,7 @@
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="14" t="s">
-        <v>843</v>
+        <v>889</v>
       </c>
       <c r="N22" t="s">
         <v>221</v>
@@ -5360,7 +5382,7 @@
         <v>92</v>
       </c>
       <c r="AH22" s="14" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="AI22" s="14"/>
       <c r="AJ22" s="14"/>
@@ -5400,11 +5422,11 @@
         <v>28</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14" t="s">
-        <v>843</v>
+        <v>889</v>
       </c>
       <c r="N23" t="s">
         <v>221</v>
@@ -5622,7 +5644,7 @@
       </c>
       <c r="L27" s="14"/>
       <c r="M27" s="14" t="s">
-        <v>843</v>
+        <v>889</v>
       </c>
       <c r="N27" s="14" t="s">
         <v>221</v>
@@ -5697,7 +5719,7 @@
         <v>758</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>843</v>
+        <v>889</v>
       </c>
       <c r="N28" s="14" t="s">
         <v>221</v>
@@ -5768,7 +5790,7 @@
         <v>758</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>843</v>
+        <v>889</v>
       </c>
       <c r="N29" s="14" t="s">
         <v>221</v>
@@ -5839,7 +5861,7 @@
         <v>35</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>843</v>
+        <v>889</v>
       </c>
       <c r="N30" s="14" t="s">
         <v>221</v>
@@ -5900,7 +5922,7 @@
         <v>35</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>843</v>
+        <v>889</v>
       </c>
       <c r="N31" s="14" t="s">
         <v>221</v>
@@ -5985,7 +6007,7 @@
       <c r="AG32" s="21"/>
       <c r="AH32" s="21"/>
     </row>
-    <row r="33" spans="1:59" ht="38.25">
+    <row r="33" spans="1:64" ht="38.25">
       <c r="A33" s="34" t="s">
         <v>641</v>
       </c>
@@ -6048,7 +6070,7 @@
       <c r="AG33" s="21"/>
       <c r="AH33" s="21"/>
     </row>
-    <row r="34" spans="1:59" ht="76.5">
+    <row r="34" spans="1:64" ht="76.5">
       <c r="A34" t="s">
         <v>310</v>
       </c>
@@ -6080,19 +6102,19 @@
         <v>28</v>
       </c>
       <c r="Q34" s="28" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="R34" s="28" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="S34" s="28" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="T34" s="28" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="U34" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="V34" t="s">
         <v>642</v>
@@ -6107,7 +6129,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:59">
+    <row r="35" spans="1:64">
       <c r="A35" s="30" t="s">
         <v>316</v>
       </c>
@@ -6148,7 +6170,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="36" spans="1:59" ht="76.5">
+    <row r="36" spans="1:64" ht="76.5">
       <c r="A36" t="s">
         <v>319</v>
       </c>
@@ -6180,19 +6202,19 @@
         <v>28</v>
       </c>
       <c r="Q36" s="28" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="R36" s="28" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="S36" s="28" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="T36" s="28" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="U36" s="28" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="V36" t="s">
         <v>644</v>
@@ -6207,7 +6229,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:59" ht="25.5">
+    <row r="37" spans="1:64" ht="25.5">
       <c r="A37" s="30" t="s">
         <v>321</v>
       </c>
@@ -6248,7 +6270,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="38" spans="1:59" ht="76.5">
+    <row r="38" spans="1:64" ht="76.5">
       <c r="A38" t="s">
         <v>323</v>
       </c>
@@ -6280,19 +6302,19 @@
         <v>28</v>
       </c>
       <c r="Q38" s="28" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="R38" s="28" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="S38" s="28" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="T38" s="28" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="U38" s="28" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="V38" t="s">
         <v>647</v>
@@ -6307,7 +6329,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="39" spans="1:59" ht="25.5">
+    <row r="39" spans="1:64" ht="25.5">
       <c r="A39" s="30" t="s">
         <v>325</v>
       </c>
@@ -6345,7 +6367,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="40" spans="1:59" ht="76.5">
+    <row r="40" spans="1:64" ht="76.5">
       <c r="A40" t="s">
         <v>327</v>
       </c>
@@ -6377,19 +6399,19 @@
         <v>28</v>
       </c>
       <c r="Q40" s="28" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="R40" s="28" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="S40" s="28" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="T40" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="U40" s="28" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="V40" s="28" t="s">
         <v>648</v>
@@ -6414,7 +6436,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="41" spans="1:59" ht="25.5">
+    <row r="41" spans="1:64" ht="25.5">
       <c r="A41" s="30" t="s">
         <v>329</v>
       </c>
@@ -6462,7 +6484,7 @@
       <c r="AA41" s="28"/>
       <c r="AB41" s="28"/>
     </row>
-    <row r="42" spans="1:59" ht="63.75">
+    <row r="42" spans="1:64" ht="76.5">
       <c r="A42" t="s">
         <v>331</v>
       </c>
@@ -6494,7 +6516,7 @@
         <v>28</v>
       </c>
       <c r="P42" s="28" t="s">
-        <v>864</v>
+        <v>910</v>
       </c>
       <c r="R42" s="28"/>
       <c r="S42" s="28"/>
@@ -6519,7 +6541,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="43" spans="1:59" ht="25.5">
+    <row r="43" spans="1:64" ht="25.5">
       <c r="A43" t="s">
         <v>335</v>
       </c>
@@ -6564,10 +6586,10 @@
         <v>337</v>
       </c>
       <c r="AF43" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="44" spans="1:59" ht="25.5">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="44" spans="1:64" ht="25.5">
       <c r="A44" s="14" t="s">
         <v>338</v>
       </c>
@@ -6602,10 +6624,10 @@
         <v>337</v>
       </c>
       <c r="AF44" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="45" spans="1:59" ht="25.5">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="45" spans="1:64" ht="25.5">
       <c r="A45" s="14" t="s">
         <v>339</v>
       </c>
@@ -6640,7 +6662,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="46" spans="1:59" ht="25.5">
+    <row r="46" spans="1:64" ht="25.5">
       <c r="A46" t="s">
         <v>341</v>
       </c>
@@ -6672,7 +6694,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:59" ht="25.5">
+    <row r="47" spans="1:64" ht="25.5">
       <c r="A47" t="s">
         <v>343</v>
       </c>
@@ -6704,7 +6726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:59" ht="25.5">
+    <row r="48" spans="1:64" ht="25.5">
       <c r="A48" t="s">
         <v>701</v>
       </c>
@@ -6734,6 +6756,9 @@
       </c>
       <c r="J48" t="s">
         <v>28</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="V48" t="s">
         <v>700</v>
@@ -6756,8 +6781,20 @@
       <c r="BA48" s="5"/>
       <c r="BF48" s="5"/>
       <c r="BG48" s="5"/>
-    </row>
-    <row r="49" spans="1:59" ht="25.5">
+      <c r="BI48" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="BJ48" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="BK48" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="BL48" s="5" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="49" spans="1:64" ht="25.5">
       <c r="A49" t="s">
         <v>702</v>
       </c>
@@ -6829,7 +6866,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="50" spans="1:59" ht="25.5">
+    <row r="50" spans="1:64" ht="25.5">
       <c r="A50" t="s">
         <v>706</v>
       </c>
@@ -6901,7 +6938,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="51" spans="1:59" ht="25.5">
+    <row r="51" spans="1:64" ht="25.5">
       <c r="A51" t="s">
         <v>812</v>
       </c>
@@ -6975,6 +7012,18 @@
       </c>
       <c r="BG51" s="5" t="s">
         <v>158</v>
+      </c>
+      <c r="BI51" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="BJ51" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="BK51" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="BL51" s="5" t="s">
+        <v>886</v>
       </c>
     </row>
   </sheetData>
@@ -7044,12 +7093,12 @@
     <hyperlink ref="BH29" r:id="rId63" xr:uid="{E27DCF6D-E1FC-4D42-AF4A-D290E21FC965}"/>
     <hyperlink ref="D51" r:id="rId64" display="test105@gmail.com" xr:uid="{C76A7B30-1EA3-4FEE-A7D2-C897D27EC95D}"/>
     <hyperlink ref="E51" r:id="rId65" xr:uid="{9EFF3550-7251-4328-B515-0A766BD44281}"/>
-    <hyperlink ref="AJ10" r:id="rId66" xr:uid="{9283FB86-2808-4358-9BC5-31814AB6BCF8}"/>
-    <hyperlink ref="AJ11" r:id="rId67" xr:uid="{AF81F507-FDED-4B25-A61E-73A828DD33A2}"/>
-    <hyperlink ref="AJ12" r:id="rId68" xr:uid="{0199BD01-A128-4448-BF3D-35102D783B47}"/>
-    <hyperlink ref="AJ13" r:id="rId69" xr:uid="{B6884657-4527-4C2F-A95F-24E3DE575694}"/>
-    <hyperlink ref="AJ14" r:id="rId70" xr:uid="{814AB642-911D-41A0-A861-8F08167F471E}"/>
-    <hyperlink ref="AJ15" r:id="rId71" xr:uid="{2F510914-3362-4468-BA93-1E22DF751652}"/>
+    <hyperlink ref="AJ10" r:id="rId66" xr:uid="{CE63FD11-6643-43B4-AA72-BA870A93002B}"/>
+    <hyperlink ref="AJ11" r:id="rId67" xr:uid="{9CE49CA8-9670-49DC-8D1E-23CEE3D86D70}"/>
+    <hyperlink ref="AJ12" r:id="rId68" xr:uid="{06E9DA2C-5475-4F67-9EFA-3A767DBF89AF}"/>
+    <hyperlink ref="AJ13" r:id="rId69" xr:uid="{40380613-9558-47FD-B202-3D38B75FB36D}"/>
+    <hyperlink ref="AJ14" r:id="rId70" xr:uid="{7E77EAC3-C5AC-438C-8087-E028749138EE}"/>
+    <hyperlink ref="AJ15" r:id="rId71" xr:uid="{894EE3E8-AE31-4D11-A37B-6EEBF8F73E70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId72"/>
@@ -7060,8 +7109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DE59E1-40D4-4304-98CF-4F2DACF7F643}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7172,7 +7221,7 @@
         <v>758</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>843</v>
+        <v>912</v>
       </c>
       <c r="M2" t="s">
         <v>741</v>
@@ -7311,7 +7360,7 @@
         <v>758</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>843</v>
+        <v>912</v>
       </c>
       <c r="M5" t="s">
         <v>741</v>
@@ -7951,7 +8000,7 @@
         <v>240</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="N2" t="s">
         <v>221</v>
@@ -7989,7 +8038,7 @@
         <v>28</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="N3" t="s">
         <v>221</v>
@@ -8027,7 +8076,7 @@
         <v>28</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="38.25">
@@ -8068,7 +8117,7 @@
         <v>240</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="N5" t="s">
         <v>221</v>
@@ -8109,7 +8158,7 @@
         <v>240</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="O6" t="s">
         <v>248</v>
@@ -8150,7 +8199,7 @@
         <v>240</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="O7" t="s">
         <v>41</v>
@@ -8232,7 +8281,7 @@
         <v>240</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="O9" t="s">
         <v>254</v>
@@ -8366,7 +8415,7 @@
         <v>240</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="N2" t="s">
         <v>221</v>
@@ -8404,7 +8453,7 @@
         <v>28</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="N3" t="s">
         <v>221</v>
@@ -8442,7 +8491,7 @@
         <v>28</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="38.25">
@@ -8483,7 +8532,7 @@
         <v>240</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="N5" t="s">
         <v>221</v>
@@ -8643,7 +8692,7 @@
         <v>240</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="O9" t="s">
         <v>431</v>
@@ -8815,7 +8864,7 @@
         <v>495</v>
       </c>
       <c r="R2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -10110,13 +10159,13 @@
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>425</v>
@@ -10130,7 +10179,7 @@
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="19" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>237</v>
@@ -13486,8 +13535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D06DFA-D6F9-4A05-B463-4DDA52F0E3E7}">
   <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -13599,16 +13648,16 @@
         <v>694</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>885</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="51">
@@ -13631,7 +13680,7 @@
         <v>425</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H2" t="s">
         <v>97</v>
@@ -13702,7 +13751,7 @@
         <v>425</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H3" t="s">
         <v>97</v>
@@ -13773,7 +13822,7 @@
         <v>425</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H4" t="s">
         <v>97</v>
@@ -13844,7 +13893,7 @@
         <v>425</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H5" t="s">
         <v>97</v>
@@ -13915,7 +13964,7 @@
         <v>425</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H6" t="s">
         <v>97</v>
@@ -13986,7 +14035,7 @@
         <v>425</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>669</v>
@@ -14054,7 +14103,7 @@
         <v>425</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H8" t="s">
         <v>97</v>
@@ -14122,7 +14171,7 @@
         <v>425</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H9" t="s">
         <v>97</v>
@@ -14190,7 +14239,7 @@
         <v>425</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H10" t="s">
         <v>97</v>
@@ -14258,7 +14307,7 @@
         <v>425</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H11" t="s">
         <v>97</v>
@@ -14326,7 +14375,7 @@
         <v>425</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H12" t="s">
         <v>97</v>
@@ -14394,7 +14443,7 @@
         <v>425</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H13" t="s">
         <v>97</v>
@@ -14462,7 +14511,7 @@
         <v>425</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H14" t="s">
         <v>97</v>
@@ -14530,7 +14579,7 @@
         <v>425</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H15" t="s">
         <v>97</v>
@@ -14542,7 +14591,7 @@
         <v>152</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>153</v>
@@ -14598,7 +14647,7 @@
         <v>425</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H16" t="s">
         <v>97</v>
@@ -14663,7 +14712,7 @@
         <v>425</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>670</v>
@@ -14698,7 +14747,7 @@
         <v>425</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H18" t="s">
         <v>171</v>
@@ -14769,7 +14818,7 @@
         <v>425</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H19" s="28" t="s">
         <v>684</v>
@@ -14825,7 +14874,7 @@
         <v>425</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H20" s="28" t="s">
         <v>684</v>
@@ -14881,7 +14930,7 @@
         <v>425</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="U21" t="s">
         <v>26</v>
@@ -14937,10 +14986,10 @@
         <v>122105278</v>
       </c>
       <c r="AG22" s="5" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="AH22" s="5" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="51">
@@ -14963,7 +15012,7 @@
         <v>425</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="U23" t="s">
         <v>26</v>
@@ -15122,7 +15171,7 @@
         <v>425</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -15181,7 +15230,7 @@
         <v>425</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
@@ -15328,7 +15377,7 @@
         <v>425</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H2" t="s">
         <v>171</v>
@@ -15396,7 +15445,7 @@
         <v>425</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H3" t="s">
         <v>171</v>
@@ -15467,7 +15516,7 @@
         <v>425</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H4" t="s">
         <v>376</v>
@@ -15535,7 +15584,7 @@
         <v>425</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>838</v>
@@ -15571,7 +15620,7 @@
         <v>425</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>380</v>
@@ -15639,7 +15688,7 @@
         <v>425</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H7" t="s">
         <v>387</v>
@@ -15707,7 +15756,7 @@
         <v>425</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H8" t="s">
         <v>171</v>
@@ -15784,7 +15833,7 @@
         <v>425</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H9" t="s">
         <v>171</v>
@@ -15855,13 +15904,13 @@
         <v>425</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H10" t="s">
         <v>171</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>381</v>
@@ -15926,7 +15975,7 @@
         <v>425</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>816</v>
@@ -15997,7 +16046,7 @@
         <v>425</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H12" t="s">
         <v>171</v>
@@ -16068,7 +16117,7 @@
         <v>425</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H13" t="s">
         <v>171</v>
@@ -16140,7 +16189,7 @@
         <v>425</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H14" t="s">
         <v>171</v>
@@ -16211,7 +16260,7 @@
         <v>425</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H15" t="s">
         <v>171</v>
@@ -16282,7 +16331,7 @@
         <v>425</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H16" t="s">
         <v>171</v>
@@ -16353,7 +16402,7 @@
         <v>425</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H17" t="s">
         <v>171</v>
@@ -16424,7 +16473,7 @@
         <v>425</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H18" t="s">
         <v>171</v>
@@ -16623,7 +16672,7 @@
         <v>424</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>425</v>
@@ -16752,10 +16801,10 @@
         <v>424</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="R6" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="S6" t="s">
         <v>681</v>
@@ -16788,7 +16837,7 @@
         <v>424</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="R7" t="s">
         <v>681</v>
@@ -16821,7 +16870,7 @@
         <v>424</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="R8" t="s">
         <v>442</v>
@@ -16855,7 +16904,7 @@
         <v>424</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="N9" t="s">
         <v>77</v>
@@ -16894,7 +16943,7 @@
         <v>424</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>450</v>
@@ -16933,7 +16982,7 @@
         <v>424</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="O11" t="s">
         <v>451</v>
@@ -16972,7 +17021,7 @@
         <v>424</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>452</v>
@@ -17011,7 +17060,7 @@
         <v>424</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="O13" t="s">
         <v>453</v>
@@ -17069,7 +17118,7 @@
         <v>424</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="R15" t="s">
         <v>457</v>
@@ -17209,7 +17258,7 @@
         <v>425</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -17233,10 +17282,10 @@
         <v>837</v>
       </c>
       <c r="Q2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="R2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="25.5">
@@ -17259,7 +17308,7 @@
         <v>425</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
@@ -17303,7 +17352,7 @@
         <v>425</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
@@ -17458,19 +17507,19 @@
         <v>799</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="2" spans="1:32">
@@ -17493,7 +17542,7 @@
         <v>425</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>26</v>
@@ -17517,7 +17566,7 @@
         <v>765</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>425</v>
@@ -17526,7 +17575,7 @@
         <v>766</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>425</v>
@@ -17561,7 +17610,7 @@
         <v>425</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>26</v>
@@ -17585,7 +17634,7 @@
         <v>765</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>425</v>
@@ -17594,7 +17643,7 @@
         <v>766</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="X3" s="5" t="s">
         <v>425</v>
@@ -17629,7 +17678,7 @@
         <v>425</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>26</v>
@@ -17691,7 +17740,7 @@
         <v>425</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>26</v>
@@ -17738,7 +17787,7 @@
         <v>425</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>26</v>
@@ -17788,7 +17837,7 @@
         <v>425</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>26</v>
@@ -17838,7 +17887,7 @@
         <v>425</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>26</v>
@@ -17888,7 +17937,7 @@
         <v>425</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>26</v>
@@ -17938,7 +17987,7 @@
         <v>425</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>26</v>
@@ -17988,7 +18037,7 @@
         <v>425</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>26</v>
@@ -18038,7 +18087,7 @@
         <v>425</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>26</v>
@@ -18088,7 +18137,7 @@
         <v>425</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>26</v>
@@ -18138,7 +18187,7 @@
         <v>425</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>26</v>
@@ -18185,7 +18234,7 @@
         <v>425</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>26</v>
@@ -18229,7 +18278,7 @@
         <v>425</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>26</v>
@@ -18273,7 +18322,7 @@
         <v>425</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>26</v>
@@ -18317,7 +18366,7 @@
         <v>425</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>26</v>
@@ -18343,10 +18392,10 @@
     </row>
     <row r="19" spans="1:32">
       <c r="A19" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B19" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>23</v>
@@ -18361,7 +18410,7 @@
         <v>425</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>26</v>
@@ -18381,27 +18430,27 @@
         <v>69</v>
       </c>
       <c r="AB19" t="s">
+        <v>858</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>858</v>
+      </c>
+      <c r="AD19" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>859</v>
+      </c>
+      <c r="AF19" t="s">
         <v>860</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>860</v>
-      </c>
-      <c r="AD19" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>861</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="20" spans="1:32">
       <c r="A20" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B20" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>35</v>
@@ -18416,7 +18465,7 @@
         <v>425</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>26</v>
@@ -18436,24 +18485,24 @@
         <v>69</v>
       </c>
       <c r="AB20" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AC20" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AD20" s="5" t="s">
         <v>839</v>
       </c>
       <c r="AE20" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="AF20" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="21" spans="1:32">
       <c r="A21" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B21" t="s">
         <v>786</v>
@@ -18471,7 +18520,7 @@
         <v>425</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>26</v>
@@ -18498,24 +18547,24 @@
         <v>58</v>
       </c>
       <c r="AB21" t="s">
+        <v>858</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>858</v>
+      </c>
+      <c r="AD21" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>859</v>
+      </c>
+      <c r="AF21" t="s">
         <v>860</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>860</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>861</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="22" spans="1:32">
       <c r="A22" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B22" t="s">
         <v>787</v>
@@ -18533,7 +18582,7 @@
         <v>425</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>26</v>
@@ -18557,24 +18606,24 @@
         <v>61</v>
       </c>
       <c r="AB22" t="s">
+        <v>858</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>858</v>
+      </c>
+      <c r="AD22" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>859</v>
+      </c>
+      <c r="AF22" t="s">
         <v>860</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>860</v>
-      </c>
-      <c r="AD22" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>861</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B23" t="s">
         <v>787</v>
@@ -18592,7 +18641,7 @@
         <v>425</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>26</v>
@@ -18616,24 +18665,24 @@
         <v>64</v>
       </c>
       <c r="AB23" t="s">
+        <v>858</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>858</v>
+      </c>
+      <c r="AD23" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>859</v>
+      </c>
+      <c r="AF23" t="s">
         <v>860</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>860</v>
-      </c>
-      <c r="AD23" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>861</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B24" t="s">
         <v>787</v>
@@ -18651,7 +18700,7 @@
         <v>425</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>26</v>
@@ -18675,24 +18724,24 @@
         <v>790</v>
       </c>
       <c r="AB24" t="s">
+        <v>858</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>858</v>
+      </c>
+      <c r="AD24" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>859</v>
+      </c>
+      <c r="AF24" t="s">
         <v>860</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>860</v>
-      </c>
-      <c r="AD24" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>861</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B25" t="s">
         <v>787</v>
@@ -18710,7 +18759,7 @@
         <v>425</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>26</v>
@@ -18734,19 +18783,19 @@
         <v>69</v>
       </c>
       <c r="AB25" t="s">
+        <v>858</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>858</v>
+      </c>
+      <c r="AD25" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>859</v>
+      </c>
+      <c r="AF25" t="s">
         <v>860</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>860</v>
-      </c>
-      <c r="AD25" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>861</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>862</v>
       </c>
     </row>
   </sheetData>

--- a/Web/coyni/resources/testdata.xlsx
+++ b/Web/coyni/resources/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\2022\101922_Web\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8797D5-0906-457A-911C-741E02072948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECAC52D-B2B5-4C52-A38B-A57C1A31D31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" tabRatio="500" firstSheet="12" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4605" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4607" uniqueCount="911">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1883,9 +1883,6 @@
     <t>Instant Pay with Invalid Details with Daily Limit Exceeds</t>
   </si>
   <si>
-    <t>You are above your daily /Weekly limit</t>
-  </si>
-  <si>
     <t>Instant Pay with Invalid Details with No Amount</t>
   </si>
   <si>
@@ -2099,9 +2096,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>C-533</t>
-  </si>
-  <si>
     <t>0.54</t>
   </si>
   <si>
@@ -2570,9 +2564,6 @@
     <t>2020</t>
   </si>
   <si>
-    <t>2345661212</t>
-  </si>
-  <si>
     <t>Kumar</t>
   </si>
   <si>
@@ -2654,12 +2645,6 @@
     <t>2345661216</t>
   </si>
   <si>
-    <t>You successfully sent 1.00CYN to Test Test</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>Santosh Kumar requests2.00CYN1s agoPay Santosh Kumar 2.00 CYN from your Token Account?DenyPay2.00 CYN</t>
   </si>
   <si>
@@ -2681,19 +2666,10 @@
     <t>Santosh Kumar requests10.00CYN1s agoSantosh Kumar requested for amount 10.00 CYNDenyPay10.00 CYN</t>
   </si>
   <si>
-    <t>Request to Test Testnullh agoYou sent a reminder to Test Test.Cancel2.00 CYN</t>
-  </si>
-  <si>
-    <t>You successfully sent 2.00CYN to Test Test.</t>
-  </si>
-  <si>
     <t>2345661126</t>
   </si>
   <si>
     <t>psanthu303@gmail.com</t>
-  </si>
-  <si>
-    <t>The minimum transaction amount is 2.00 CYN</t>
   </si>
   <si>
     <t>Amaz</t>
@@ -2809,6 +2785,24 @@
   </si>
   <si>
     <t>f2571fbe-f1a3-4303-af64-613649a863e2</t>
+  </si>
+  <si>
+    <t>You successfully sent 2.00CYN to Test Test</t>
+  </si>
+  <si>
+    <t>2345661217</t>
+  </si>
+  <si>
+    <t>Email is required</t>
+  </si>
+  <si>
+    <t>C-1981</t>
+  </si>
+  <si>
+    <t>You are above your Daily limit of 20.00 CYN</t>
+  </si>
+  <si>
+    <t>39.00</t>
   </si>
 </sst>
 </file>
@@ -3454,7 +3448,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G3" sqref="G3"/>
+      <selection pane="topRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3553,7 +3547,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>24</v>
@@ -3562,7 +3556,7 @@
         <v>425</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="I2" t="s">
         <v>26</v>
@@ -3592,7 +3586,7 @@
         <v>425</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H3" t="s">
         <v>32</v>
@@ -3618,14 +3612,14 @@
         <v>35</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="5" t="s">
         <v>425</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H4" t="s">
         <v>37</v>
@@ -3683,7 +3677,7 @@
         <v>43</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>45</v>
@@ -3771,7 +3765,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>24</v>
@@ -3780,7 +3774,7 @@
         <v>57</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
@@ -3809,7 +3803,7 @@
         <v>35</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>24</v>
@@ -3818,7 +3812,7 @@
         <v>60</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="I10" t="s">
         <v>26</v>
@@ -3841,7 +3835,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>24</v>
@@ -3850,7 +3844,7 @@
         <v>63</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="I11" t="s">
         <v>26</v>
@@ -3873,7 +3867,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>24</v>
@@ -3882,7 +3876,7 @@
         <v>66</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="I12" t="s">
         <v>26</v>
@@ -3905,7 +3899,7 @@
         <v>49</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>24</v>
@@ -3914,7 +3908,7 @@
         <v>57</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="I13" t="s">
         <v>26</v>
@@ -3937,7 +3931,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>24</v>
@@ -3963,7 +3957,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>24</v>
@@ -3998,7 +3992,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>24</v>
@@ -4027,7 +4021,7 @@
         <v>35</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>24</v>
@@ -4053,7 +4047,7 @@
         <v>39</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>24</v>
@@ -4079,7 +4073,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>24</v>
@@ -4105,7 +4099,7 @@
         <v>49</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>24</v>
@@ -4157,8 +4151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547949FE-1284-41CA-BCEC-F84FA9C871D7}">
   <dimension ref="A1:BL51"/>
   <sheetViews>
-    <sheetView topLeftCell="AY40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BI51" sqref="BI51"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -4244,7 +4238,7 @@
         <v>186</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>20</v>
@@ -4274,10 +4268,10 @@
         <v>199</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>638</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>200</v>
@@ -4337,16 +4331,16 @@
         <v>215</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="AT1" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>694</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>80</v>
@@ -4379,22 +4373,22 @@
         <v>89</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
     </row>
     <row r="2" spans="1:64" ht="25.5">
@@ -4408,7 +4402,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>24</v>
@@ -4440,7 +4434,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>24</v>
@@ -4482,7 +4476,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>24</v>
@@ -4514,7 +4508,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>24</v>
@@ -4546,7 +4540,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>24</v>
@@ -4578,7 +4572,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>24</v>
@@ -4610,7 +4604,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>24</v>
@@ -4632,10 +4626,10 @@
       </c>
       <c r="M8" s="14"/>
       <c r="AE8" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="9" spans="1:64" ht="58.5">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" ht="101.25">
       <c r="A9" s="14" t="s">
         <v>255</v>
       </c>
@@ -4646,7 +4640,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>24</v>
@@ -4673,7 +4667,7 @@
         <v>257</v>
       </c>
       <c r="M9" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="N9" t="s">
         <v>258</v>
@@ -4682,7 +4676,7 @@
         <v>222</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="AK9" s="8" t="s">
         <v>24</v>
@@ -4691,10 +4685,10 @@
         <v>259</v>
       </c>
       <c r="AM9" s="24" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="AN9" s="25" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
     </row>
     <row r="10" spans="1:64" ht="101.25">
@@ -4708,7 +4702,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>24</v>
@@ -4735,7 +4729,7 @@
         <v>257</v>
       </c>
       <c r="M10" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="N10" t="s">
         <v>258</v>
@@ -4744,7 +4738,7 @@
         <v>222</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="AK10" s="8" t="s">
         <v>24</v>
@@ -4753,13 +4747,13 @@
         <v>259</v>
       </c>
       <c r="AM10" s="24" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="AN10" s="25" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:64" ht="58.5">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" ht="101.25">
       <c r="A11" t="s">
         <v>262</v>
       </c>
@@ -4770,7 +4764,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>24</v>
@@ -4797,7 +4791,7 @@
         <v>257</v>
       </c>
       <c r="M11" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="N11" t="s">
         <v>258</v>
@@ -4806,7 +4800,7 @@
         <v>222</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="AK11" s="8" t="s">
         <v>24</v>
@@ -4815,7 +4809,7 @@
         <v>259</v>
       </c>
       <c r="AM11" s="24" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="AO11" s="24" t="s">
         <v>264</v>
@@ -4832,7 +4826,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>24</v>
@@ -4859,13 +4853,13 @@
         <v>257</v>
       </c>
       <c r="M12" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="AI12" s="22" t="s">
         <v>222</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="AK12" s="8" t="s">
         <v>24</v>
@@ -4874,13 +4868,13 @@
         <v>259</v>
       </c>
       <c r="AM12" s="24" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="AN12" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="AO12" s="14" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="AQ12" t="s">
         <v>223</v>
@@ -4900,7 +4894,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>24</v>
@@ -4927,7 +4921,7 @@
         <v>257</v>
       </c>
       <c r="M13" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="N13" t="s">
         <v>258</v>
@@ -4936,7 +4930,7 @@
         <v>222</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="AK13" s="8" t="s">
         <v>24</v>
@@ -4945,13 +4939,13 @@
         <v>259</v>
       </c>
       <c r="AM13" s="25" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="AO13" s="24" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:64" ht="27">
+    <row r="14" spans="1:64" ht="101.25">
       <c r="A14" s="14" t="s">
         <v>269</v>
       </c>
@@ -4962,7 +4956,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>24</v>
@@ -4989,7 +4983,7 @@
         <v>257</v>
       </c>
       <c r="M14" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="N14" t="s">
         <v>221</v>
@@ -4998,7 +4992,7 @@
         <v>222</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="AK14" s="8" t="s">
         <v>24</v>
@@ -5006,17 +5000,20 @@
       <c r="AL14" s="14" t="s">
         <v>259</v>
       </c>
+      <c r="AM14" s="24" t="s">
+        <v>867</v>
+      </c>
       <c r="AP14" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="AQ14" t="s">
         <v>223</v>
       </c>
       <c r="AR14" s="14" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="15" spans="1:64" ht="90.75">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" ht="101.25">
       <c r="A15" s="14" t="s">
         <v>271</v>
       </c>
@@ -5027,7 +5024,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>24</v>
@@ -5054,7 +5051,7 @@
         <v>257</v>
       </c>
       <c r="M15" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="N15" t="s">
         <v>273</v>
@@ -5063,7 +5060,7 @@
         <v>222</v>
       </c>
       <c r="AJ15" s="2" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="AK15" s="8" t="s">
         <v>24</v>
@@ -5072,13 +5069,13 @@
         <v>259</v>
       </c>
       <c r="AM15" s="24" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="AN15" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="AO15" s="14" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="AQ15" t="s">
         <v>223</v>
@@ -5095,7 +5092,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>24</v>
@@ -5117,10 +5114,10 @@
       </c>
       <c r="M16" s="14"/>
       <c r="AM16" s="24" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="AN16" s="14" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="17" spans="1:60" ht="25.5">
@@ -5134,7 +5131,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>24</v>
@@ -5156,10 +5153,10 @@
       </c>
       <c r="M17" s="14"/>
       <c r="AM17" s="23" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="AN17" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="18" spans="1:60" ht="25.5">
@@ -5173,7 +5170,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>24</v>
@@ -5206,7 +5203,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>24</v>
@@ -5239,7 +5236,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>24</v>
@@ -5264,7 +5261,7 @@
       </c>
       <c r="L20" s="14"/>
       <c r="M20" s="14" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="N20" s="14" t="s">
         <v>221</v>
@@ -5297,7 +5294,7 @@
         <v>223</v>
       </c>
       <c r="AR20" s="14" t="s">
-        <v>867</v>
+        <v>905</v>
       </c>
     </row>
     <row r="21" spans="1:60" ht="25.5">
@@ -5311,7 +5308,7 @@
         <v>23</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>24</v>
@@ -5348,7 +5345,7 @@
         <v>23</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>24</v>
@@ -5369,11 +5366,11 @@
         <v>28</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="14" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="N22" t="s">
         <v>221</v>
@@ -5382,7 +5379,7 @@
         <v>92</v>
       </c>
       <c r="AH22" s="14" t="s">
-        <v>880</v>
+        <v>288</v>
       </c>
       <c r="AI22" s="14"/>
       <c r="AJ22" s="14"/>
@@ -5401,7 +5398,7 @@
         <v>35</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>24</v>
@@ -5422,11 +5419,11 @@
         <v>28</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>868</v>
+        <v>395</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="N23" t="s">
         <v>221</v>
@@ -5451,7 +5448,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>24</v>
@@ -5511,7 +5508,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>24</v>
@@ -5558,7 +5555,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>24</v>
@@ -5619,7 +5616,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>24</v>
@@ -5644,7 +5641,7 @@
       </c>
       <c r="L27" s="14"/>
       <c r="M27" s="14" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="N27" s="14" t="s">
         <v>221</v>
@@ -5695,7 +5692,7 @@
         <v>35</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>24</v>
@@ -5716,10 +5713,10 @@
         <v>28</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="N28" s="14" t="s">
         <v>221</v>
@@ -5766,7 +5763,7 @@
         <v>39</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>24</v>
@@ -5787,10 +5784,10 @@
         <v>28</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="N29" s="14" t="s">
         <v>221</v>
@@ -5823,7 +5820,7 @@
         <v>35</v>
       </c>
       <c r="BH29" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="30" spans="1:60" ht="25.5">
@@ -5837,7 +5834,7 @@
         <v>23</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>24</v>
@@ -5861,7 +5858,7 @@
         <v>35</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="N30" s="14" t="s">
         <v>221</v>
@@ -5898,7 +5895,7 @@
         <v>23</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>24</v>
@@ -5922,7 +5919,7 @@
         <v>35</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="N31" s="14" t="s">
         <v>221</v>
@@ -5953,7 +5950,7 @@
     </row>
     <row r="32" spans="1:60" ht="38.25">
       <c r="A32" s="34" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B32" t="s">
         <v>306</v>
@@ -5962,7 +5959,7 @@
         <v>23</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>24</v>
@@ -6009,7 +6006,7 @@
     </row>
     <row r="33" spans="1:64" ht="38.25">
       <c r="A33" s="34" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B33" t="s">
         <v>308</v>
@@ -6018,7 +6015,7 @@
         <v>23</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>24</v>
@@ -6042,7 +6039,7 @@
         <v>23</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="N33" s="14" t="s">
         <v>221</v>
@@ -6081,7 +6078,7 @@
         <v>23</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>24</v>
@@ -6102,22 +6099,22 @@
         <v>28</v>
       </c>
       <c r="Q34" s="28" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="R34" s="28" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="S34" s="28" t="s">
+        <v>890</v>
+      </c>
+      <c r="T34" s="28" t="s">
+        <v>894</v>
+      </c>
+      <c r="U34" s="28" t="s">
         <v>898</v>
       </c>
-      <c r="T34" s="28" t="s">
-        <v>902</v>
-      </c>
-      <c r="U34" s="28" t="s">
-        <v>906</v>
-      </c>
       <c r="V34" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AA34" s="14" t="s">
         <v>313</v>
@@ -6140,7 +6137,7 @@
         <v>23</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>24</v>
@@ -6161,10 +6158,10 @@
         <v>28</v>
       </c>
       <c r="V35" t="s">
+        <v>641</v>
+      </c>
+      <c r="X35" s="35" t="s">
         <v>642</v>
-      </c>
-      <c r="X35" s="35" t="s">
-        <v>643</v>
       </c>
       <c r="Y35" s="35" t="s">
         <v>318</v>
@@ -6181,7 +6178,7 @@
         <v>23</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>24</v>
@@ -6202,22 +6199,22 @@
         <v>28</v>
       </c>
       <c r="Q36" s="28" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="R36" s="28" t="s">
+        <v>887</v>
+      </c>
+      <c r="S36" s="28" t="s">
+        <v>891</v>
+      </c>
+      <c r="T36" s="28" t="s">
         <v>895</v>
       </c>
-      <c r="S36" s="28" t="s">
+      <c r="U36" s="28" t="s">
         <v>899</v>
       </c>
-      <c r="T36" s="28" t="s">
-        <v>903</v>
-      </c>
-      <c r="U36" s="28" t="s">
-        <v>907</v>
-      </c>
       <c r="V36" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AA36" s="14" t="s">
         <v>313</v>
@@ -6240,7 +6237,7 @@
         <v>23</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>24</v>
@@ -6261,13 +6258,13 @@
         <v>28</v>
       </c>
       <c r="V37" t="s">
+        <v>643</v>
+      </c>
+      <c r="X37" s="35" t="s">
         <v>644</v>
       </c>
-      <c r="X37" s="35" t="s">
+      <c r="Y37" s="35" t="s">
         <v>645</v>
-      </c>
-      <c r="Y37" s="35" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="38" spans="1:64" ht="76.5">
@@ -6281,7 +6278,7 @@
         <v>23</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>24</v>
@@ -6302,22 +6299,22 @@
         <v>28</v>
       </c>
       <c r="Q38" s="28" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="R38" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="S38" s="28" t="s">
+        <v>892</v>
+      </c>
+      <c r="T38" s="28" t="s">
         <v>896</v>
       </c>
-      <c r="S38" s="28" t="s">
+      <c r="U38" s="28" t="s">
         <v>900</v>
       </c>
-      <c r="T38" s="28" t="s">
-        <v>904</v>
-      </c>
-      <c r="U38" s="28" t="s">
-        <v>908</v>
-      </c>
       <c r="V38" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AA38" s="14" t="s">
         <v>313</v>
@@ -6340,7 +6337,7 @@
         <v>23</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>24</v>
@@ -6361,10 +6358,10 @@
         <v>28</v>
       </c>
       <c r="X39" s="35" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y39" s="35" t="s">
         <v>645</v>
-      </c>
-      <c r="Y39" s="35" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="40" spans="1:64" ht="76.5">
@@ -6378,7 +6375,7 @@
         <v>23</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>24</v>
@@ -6399,22 +6396,22 @@
         <v>28</v>
       </c>
       <c r="Q40" s="28" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="R40" s="28" t="s">
+        <v>889</v>
+      </c>
+      <c r="S40" s="28" t="s">
+        <v>893</v>
+      </c>
+      <c r="T40" s="28" t="s">
         <v>897</v>
       </c>
-      <c r="S40" s="28" t="s">
+      <c r="U40" s="28" t="s">
         <v>901</v>
       </c>
-      <c r="T40" s="28" t="s">
-        <v>905</v>
-      </c>
-      <c r="U40" s="28" t="s">
-        <v>909</v>
-      </c>
       <c r="V40" s="28" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="W40" s="28"/>
       <c r="X40" s="28"/>
@@ -6447,7 +6444,7 @@
         <v>23</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>24</v>
@@ -6475,10 +6472,10 @@
       <c r="V41" s="28"/>
       <c r="W41" s="28"/>
       <c r="X41" s="35" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y41" s="35" t="s">
         <v>645</v>
-      </c>
-      <c r="Y41" s="35" t="s">
-        <v>646</v>
       </c>
       <c r="Z41" s="28"/>
       <c r="AA41" s="28"/>
@@ -6495,7 +6492,7 @@
         <v>23</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>24</v>
@@ -6516,7 +6513,7 @@
         <v>28</v>
       </c>
       <c r="P42" s="28" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="R42" s="28"/>
       <c r="S42" s="28"/>
@@ -6552,7 +6549,7 @@
         <v>23</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>24</v>
@@ -6586,7 +6583,7 @@
         <v>337</v>
       </c>
       <c r="AF43" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="44" spans="1:64" ht="25.5">
@@ -6600,7 +6597,7 @@
         <v>23</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>24</v>
@@ -6624,7 +6621,7 @@
         <v>337</v>
       </c>
       <c r="AF44" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="45" spans="1:64" ht="25.5">
@@ -6638,7 +6635,7 @@
         <v>23</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>24</v>
@@ -6673,7 +6670,7 @@
         <v>23</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E46" s="29" t="s">
         <v>24</v>
@@ -6705,7 +6702,7 @@
         <v>23</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E47" s="29" t="s">
         <v>24</v>
@@ -6728,16 +6725,16 @@
     </row>
     <row r="48" spans="1:64" ht="25.5">
       <c r="A48" t="s">
+        <v>699</v>
+      </c>
+      <c r="B48" t="s">
         <v>701</v>
-      </c>
-      <c r="B48" t="s">
-        <v>703</v>
       </c>
       <c r="C48" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E48" s="29" t="s">
         <v>24</v>
@@ -6761,19 +6758,19 @@
         <v>35</v>
       </c>
       <c r="V48" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AS48" s="5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AT48" t="s">
+        <v>693</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>694</v>
+      </c>
+      <c r="AV48" t="s">
         <v>695</v>
-      </c>
-      <c r="AU48" t="s">
-        <v>696</v>
-      </c>
-      <c r="AV48" t="s">
-        <v>697</v>
       </c>
       <c r="AX48" s="5"/>
       <c r="AY48" s="5"/>
@@ -6782,30 +6779,30 @@
       <c r="BF48" s="5"/>
       <c r="BG48" s="5"/>
       <c r="BI48" s="5" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="BJ48" s="5" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="BK48" s="5" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="BL48" s="5" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="49" spans="1:64" ht="25.5">
       <c r="A49" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B49" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C49" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E49" s="29" t="s">
         <v>24</v>
@@ -6829,7 +6826,7 @@
         <v>158</v>
       </c>
       <c r="V49" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AS49" s="5" t="s">
         <v>158</v>
@@ -6838,11 +6835,11 @@
         <v>97</v>
       </c>
       <c r="AX49" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AY49" s="5"/>
       <c r="AZ49" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="BA49" s="5" t="s">
         <v>99</v>
@@ -6860,24 +6857,24 @@
         <v>176</v>
       </c>
       <c r="BF49" s="5" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="BG49" s="5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="50" spans="1:64" ht="25.5">
       <c r="A50" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B50" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C50" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>24</v>
@@ -6901,7 +6898,7 @@
         <v>158</v>
       </c>
       <c r="V50" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AS50" s="5" t="s">
         <v>158</v>
@@ -6910,11 +6907,11 @@
         <v>97</v>
       </c>
       <c r="AX50" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AY50" s="5"/>
       <c r="AZ50" s="5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="BA50" s="5" t="s">
         <v>99</v>
@@ -6932,24 +6929,24 @@
         <v>176</v>
       </c>
       <c r="BF50" s="5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="BG50" s="5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="51" spans="1:64" ht="25.5">
       <c r="A51" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B51" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C51" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E51" s="29" t="s">
         <v>24</v>
@@ -6970,27 +6967,27 @@
         <v>28</v>
       </c>
       <c r="V51" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AS51" s="5"/>
       <c r="AT51" t="s">
+        <v>693</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>694</v>
+      </c>
+      <c r="AV51" t="s">
         <v>695</v>
-      </c>
-      <c r="AU51" t="s">
-        <v>696</v>
-      </c>
-      <c r="AV51" t="s">
-        <v>697</v>
       </c>
       <c r="AW51" t="s">
         <v>97</v>
       </c>
       <c r="AX51" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AY51" s="5"/>
       <c r="AZ51" s="5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="BA51" s="5" t="s">
         <v>99</v>
@@ -7008,22 +7005,22 @@
         <v>176</v>
       </c>
       <c r="BF51" s="5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="BG51" s="5" t="s">
         <v>158</v>
       </c>
       <c r="BI51" s="5" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="BJ51" s="5" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="BK51" s="5" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="BL51" s="5" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
   </sheetData>
@@ -7109,7 +7106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DE59E1-40D4-4304-98CF-4F2DACF7F643}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -7171,19 +7168,19 @@
         <v>186</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>206</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>738</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>12</v>
@@ -7191,16 +7188,16 @@
     </row>
     <row r="2" spans="1:18" ht="26.45" customHeight="1">
       <c r="A2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>24</v>
@@ -7218,25 +7215,25 @@
         <v>28</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="M2" t="s">
+        <v>739</v>
+      </c>
+      <c r="N2" t="s">
+        <v>740</v>
+      </c>
+      <c r="O2" t="s">
         <v>741</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>742</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>743</v>
-      </c>
-      <c r="P2" t="s">
-        <v>744</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>745</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>425</v>
@@ -7244,16 +7241,16 @@
     </row>
     <row r="3" spans="1:18" ht="21.6" customHeight="1">
       <c r="A3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>24</v>
@@ -7271,14 +7268,14 @@
         <v>28</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="N3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>425</v>
@@ -7286,16 +7283,16 @@
     </row>
     <row r="4" spans="1:18" ht="40.5" customHeight="1">
       <c r="A4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>24</v>
@@ -7316,13 +7313,13 @@
         <v>28</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="M4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>425</v>
@@ -7330,16 +7327,16 @@
     </row>
     <row r="5" spans="1:18" ht="26.45" customHeight="1">
       <c r="A5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>24</v>
@@ -7357,13 +7354,13 @@
         <v>28</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="M5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>425</v>
@@ -7438,16 +7435,16 @@
         <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>461</v>
@@ -7473,46 +7470,46 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H2" t="s">
         <v>447</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>425</v>
       </c>
       <c r="K2" t="s">
+        <v>711</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>712</v>
+      </c>
+      <c r="Q2" t="s">
         <v>713</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>714</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>715</v>
       </c>
       <c r="R2" t="s">
         <v>28</v>
@@ -7523,10 +7520,10 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>23</v>
@@ -7538,7 +7535,7 @@
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
@@ -7549,16 +7546,16 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
@@ -7567,7 +7564,7 @@
         <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O4" t="s">
         <v>33</v>
@@ -7578,25 +7575,25 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O5" t="s">
         <v>33</v>
@@ -7607,16 +7604,16 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E6" t="s">
         <v>56</v>
@@ -7625,16 +7622,16 @@
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H6" t="s">
         <v>447</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="O6" t="s">
         <v>33</v>
@@ -7645,45 +7642,45 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B7" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H7" t="s">
         <v>447</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B8" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
@@ -7692,19 +7689,19 @@
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H8" t="s">
         <v>447</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>425</v>
       </c>
       <c r="K8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2" t="s">
@@ -7713,37 +7710,37 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
+        <v>722</v>
+      </c>
+      <c r="B9" t="s">
         <v>724</v>
-      </c>
-      <c r="B9" t="s">
-        <v>726</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E9" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F9" t="s">
         <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H9" t="s">
         <v>447</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>425</v>
       </c>
       <c r="K9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>24</v>
@@ -7751,40 +7748,40 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B10" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E10" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H10" t="s">
         <v>447</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>425</v>
       </c>
       <c r="K10" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>24</v>
@@ -7792,84 +7789,84 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B11" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F11" t="s">
         <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H11" t="s">
         <v>447</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>425</v>
       </c>
       <c r="K11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B12" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E12" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F12" t="s">
         <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H12" t="s">
         <v>447</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>425</v>
       </c>
       <c r="K12" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L12" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="M12" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -7973,7 +7970,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>24</v>
@@ -8000,7 +7997,7 @@
         <v>240</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="N2" t="s">
         <v>221</v>
@@ -8017,7 +8014,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>24</v>
@@ -8038,7 +8035,7 @@
         <v>28</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="N3" t="s">
         <v>221</v>
@@ -8055,7 +8052,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E4" s="36" t="s">
         <v>24</v>
@@ -8076,7 +8073,7 @@
         <v>28</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="38.25">
@@ -8090,7 +8087,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>24</v>
@@ -8117,7 +8114,7 @@
         <v>240</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="N5" t="s">
         <v>221</v>
@@ -8134,7 +8131,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>24</v>
@@ -8158,7 +8155,7 @@
         <v>240</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="O6" t="s">
         <v>248</v>
@@ -8175,7 +8172,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E7" s="36" t="s">
         <v>24</v>
@@ -8199,7 +8196,7 @@
         <v>240</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="O7" t="s">
         <v>41</v>
@@ -8219,7 +8216,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>24</v>
@@ -8257,7 +8254,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E9" s="36" t="s">
         <v>24</v>
@@ -8281,7 +8278,7 @@
         <v>240</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="O9" t="s">
         <v>254</v>
@@ -8310,7 +8307,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8388,7 +8385,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>24</v>
@@ -8415,7 +8412,7 @@
         <v>240</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="N2" t="s">
         <v>221</v>
@@ -8432,7 +8429,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>24</v>
@@ -8453,7 +8450,7 @@
         <v>28</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="N3" t="s">
         <v>221</v>
@@ -8470,7 +8467,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E4" s="36" t="s">
         <v>24</v>
@@ -8491,7 +8488,7 @@
         <v>28</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="38.25">
@@ -8505,7 +8502,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>24</v>
@@ -8532,7 +8529,7 @@
         <v>240</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="N5" t="s">
         <v>221</v>
@@ -8549,7 +8546,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>24</v>
@@ -8588,7 +8585,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E7" s="36" t="s">
         <v>24</v>
@@ -8630,7 +8627,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>24</v>
@@ -8668,7 +8665,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E9" s="36" t="s">
         <v>24</v>
@@ -8692,7 +8689,7 @@
         <v>240</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="O9" t="s">
         <v>431</v>
@@ -8719,8 +8716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BFD00C-4C77-4061-96F5-9E8A25C83776}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8743,7 +8740,7 @@
     <col min="18" max="18" width="14.85546875" customWidth="1"/>
     <col min="19" max="19" width="17.42578125" customWidth="1"/>
     <col min="20" max="20" width="24" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" customWidth="1"/>
+    <col min="21" max="21" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -8822,7 +8819,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>24</v>
@@ -8864,7 +8861,7 @@
         <v>495</v>
       </c>
       <c r="R2" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -8878,7 +8875,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>24</v>
@@ -8920,7 +8917,7 @@
         <v>495</v>
       </c>
       <c r="S3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -8934,7 +8931,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>24</v>
@@ -8974,6 +8971,9 @@
       </c>
       <c r="Q4" t="s">
         <v>495</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -8987,7 +8987,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>24</v>
@@ -9025,7 +9025,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>24</v>
@@ -9066,7 +9066,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>24</v>
@@ -9107,7 +9107,7 @@
         <v>43</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>24</v>
@@ -9151,7 +9151,7 @@
         <v>49</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>24</v>
@@ -9195,7 +9195,7 @@
         <v>125</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>24</v>
@@ -9245,7 +9245,7 @@
         <v>129</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>24</v>
@@ -9295,7 +9295,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>24</v>
@@ -9333,7 +9333,7 @@
         <v>35</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>24</v>
@@ -9374,7 +9374,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>24</v>
@@ -9415,7 +9415,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>24</v>
@@ -9459,7 +9459,7 @@
         <v>49</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>24</v>
@@ -9503,7 +9503,7 @@
         <v>125</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>24</v>
@@ -9553,7 +9553,7 @@
         <v>129</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>24</v>
@@ -9621,6 +9621,7 @@
     <hyperlink ref="E17" r:id="rId25" xr:uid="{60E31666-75EA-442C-B3B5-B4F5129D82D8}"/>
     <hyperlink ref="E18" r:id="rId26" xr:uid="{41A91B9D-69EC-47FB-80EE-033A910721B7}"/>
     <hyperlink ref="D3:D17" r:id="rId27" display="test105@gmail.com" xr:uid="{1721DFA1-55DE-4364-9C89-B2DF98BACA98}"/>
+    <hyperlink ref="U4" r:id="rId28" xr:uid="{63D5E5C6-4454-4F92-BC52-BB5455572741}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9735,7 +9736,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -9765,7 +9766,7 @@
         <v>528</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="O2" t="s">
         <v>529</v>
@@ -9794,7 +9795,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -9815,7 +9816,7 @@
         <v>28</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="T3" t="s">
         <v>533</v>
@@ -9838,7 +9839,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -9862,7 +9863,7 @@
         <v>527</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="U4" s="49" t="s">
         <v>534</v>
@@ -9879,7 +9880,7 @@
         <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -9906,7 +9907,7 @@
         <v>512</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="U5" s="14" t="s">
         <v>288</v>
@@ -9923,7 +9924,7 @@
         <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -9947,10 +9948,10 @@
         <v>527</v>
       </c>
       <c r="L6" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>667</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>668</v>
       </c>
       <c r="U6" t="s">
         <v>538</v>
@@ -9967,7 +9968,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -9988,7 +9989,7 @@
         <v>28</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="T7" t="s">
         <v>533</v>
@@ -10159,13 +10160,13 @@
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>425</v>
@@ -10179,7 +10180,7 @@
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="19" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>237</v>
@@ -10200,7 +10201,7 @@
         <v>447</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="T3" s="18" t="s">
         <v>550</v>
@@ -10220,18 +10221,18 @@
         <v>552</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="31" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="N4" s="31" t="s">
         <v>553</v>
@@ -10997,8 +10998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50470925-EDAD-44CC-A96C-FD71ACD42249}">
   <dimension ref="A1:AL35"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11101,7 +11102,7 @@
         <v>6</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>597</v>
@@ -11166,7 +11167,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>24</v>
@@ -11175,7 +11176,7 @@
         <v>425</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -11193,7 +11194,7 @@
         <v>604</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>676</v>
+        <v>910</v>
       </c>
       <c r="N2" t="s">
         <v>221</v>
@@ -11217,7 +11218,7 @@
         <v>607</v>
       </c>
       <c r="Y2" s="41" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="38.25">
@@ -11231,7 +11232,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>24</v>
@@ -11240,7 +11241,7 @@
         <v>425</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
@@ -11273,13 +11274,13 @@
         <v>605</v>
       </c>
       <c r="T3" t="s">
-        <v>610</v>
+        <v>909</v>
       </c>
       <c r="X3" t="s">
         <v>607</v>
       </c>
       <c r="Y3" s="41" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="38.25">
@@ -11287,13 +11288,13 @@
         <v>608</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>24</v>
@@ -11302,7 +11303,7 @@
         <v>425</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
@@ -11338,7 +11339,7 @@
         <v>607</v>
       </c>
       <c r="Y4" s="41" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="38.25">
@@ -11346,13 +11347,13 @@
         <v>608</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>24</v>
@@ -11361,7 +11362,7 @@
         <v>425</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
@@ -11379,7 +11380,7 @@
         <v>604</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="O5" t="s">
         <v>313</v>
@@ -11397,21 +11398,21 @@
         <v>607</v>
       </c>
       <c r="Y5" s="41" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="38.25">
       <c r="A6" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="B6" t="s">
         <v>613</v>
-      </c>
-      <c r="B6" t="s">
-        <v>614</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>24</v>
@@ -11420,7 +11421,7 @@
         <v>425</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
@@ -11456,21 +11457,21 @@
         <v>607</v>
       </c>
       <c r="Y6" s="41" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="38.25">
       <c r="A7" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B7" t="s">
         <v>615</v>
-      </c>
-      <c r="B7" t="s">
-        <v>616</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>24</v>
@@ -11479,7 +11480,7 @@
         <v>425</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -11500,28 +11501,28 @@
         <v>1.01</v>
       </c>
       <c r="AA7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AB7" s="44" t="s">
+        <v>798</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="AD7" s="45" t="s">
         <v>800</v>
-      </c>
-      <c r="AC7" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="AD7" s="45" t="s">
-        <v>802</v>
       </c>
       <c r="AE7" s="43">
         <v>931</v>
       </c>
       <c r="AF7" t="s">
+        <v>617</v>
+      </c>
+      <c r="AG7" t="s">
         <v>618</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>619</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>620</v>
       </c>
       <c r="AI7" t="s">
         <v>176</v>
@@ -11535,16 +11536,16 @@
     </row>
     <row r="8" spans="1:38" ht="38.25">
       <c r="A8" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="B8" t="s">
         <v>621</v>
-      </c>
-      <c r="B8" t="s">
-        <v>622</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>24</v>
@@ -11553,7 +11554,7 @@
         <v>425</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
@@ -11574,25 +11575,25 @@
         <v>607</v>
       </c>
       <c r="Y8" s="41" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AA8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AD8" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AE8">
         <v>123</v>
       </c>
       <c r="AF8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AH8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AI8" t="s">
         <v>176</v>
@@ -11604,21 +11605,21 @@
         <v>105</v>
       </c>
       <c r="AL8" s="28" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="38.25">
       <c r="A9" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="B9" t="s">
         <v>625</v>
-      </c>
-      <c r="B9" t="s">
-        <v>626</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>24</v>
@@ -11627,7 +11628,7 @@
         <v>425</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
@@ -11648,21 +11649,21 @@
         <v>607</v>
       </c>
       <c r="Y9" s="41" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="242.25">
       <c r="A10" s="28" t="s">
+        <v>626</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>627</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>628</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>24</v>
@@ -11671,7 +11672,7 @@
         <v>425</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>26</v>
@@ -11689,32 +11690,32 @@
         <v>604</v>
       </c>
       <c r="AA10" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB10" s="28" t="s">
         <v>629</v>
-      </c>
-      <c r="AB10" s="28" t="s">
-        <v>630</v>
       </c>
       <c r="AC10" s="28"/>
       <c r="AD10" s="28" t="s">
+        <v>630</v>
+      </c>
+      <c r="AE10" s="28" t="s">
         <v>631</v>
       </c>
-      <c r="AE10" s="28" t="s">
+      <c r="AF10" s="28" t="s">
         <v>632</v>
       </c>
-      <c r="AF10" s="28" t="s">
+      <c r="AG10" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="AH10" s="28" t="s">
         <v>633</v>
-      </c>
-      <c r="AG10" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="AH10" s="28" t="s">
-        <v>634</v>
       </c>
       <c r="AI10" s="16" t="s">
         <v>176</v>
       </c>
       <c r="AJ10" s="46" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AK10" s="16" t="s">
         <v>105</v>
@@ -11722,16 +11723,16 @@
     </row>
     <row r="11" spans="1:38" ht="38.25">
       <c r="A11" s="28" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>237</v>
@@ -11740,7 +11741,7 @@
         <v>425</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>26</v>
@@ -11770,7 +11771,7 @@
         <v>353</v>
       </c>
       <c r="AB11" s="16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AC11" s="16"/>
       <c r="AJ11" s="16"/>
@@ -11778,16 +11779,16 @@
     </row>
     <row r="12" spans="1:38" ht="38.25">
       <c r="A12" s="28" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>237</v>
@@ -11796,7 +11797,7 @@
         <v>425</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>26</v>
@@ -11814,7 +11815,7 @@
         <v>604</v>
       </c>
       <c r="T12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="W12" t="s">
         <v>33</v>
@@ -11826,27 +11827,27 @@
         <v>353</v>
       </c>
       <c r="AB12" s="16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AC12" s="16"/>
       <c r="AD12" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AJ12" s="16"/>
       <c r="AK12" s="16"/>
     </row>
     <row r="13" spans="1:38" ht="38.25">
       <c r="A13" s="28" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C13" s="35" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>237</v>
@@ -11855,7 +11856,7 @@
         <v>425</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>26</v>
@@ -11879,13 +11880,13 @@
         <v>33</v>
       </c>
       <c r="Z13" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AA13" t="s">
         <v>353</v>
       </c>
       <c r="AB13" s="16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AC13" s="16"/>
       <c r="AD13" s="5" t="s">
@@ -11895,23 +11896,23 @@
         <v>123</v>
       </c>
       <c r="AG13" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AJ13" s="16"/>
       <c r="AK13" s="16"/>
     </row>
     <row r="14" spans="1:38" ht="38.25">
       <c r="A14" s="28" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>237</v>
@@ -11920,7 +11921,7 @@
         <v>425</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>26</v>
@@ -11958,16 +11959,16 @@
     </row>
     <row r="15" spans="1:38" ht="38.25">
       <c r="A15" s="28" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>125</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>237</v>
@@ -11976,7 +11977,7 @@
         <v>425</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>26</v>
@@ -12006,7 +12007,7 @@
         <v>353</v>
       </c>
       <c r="AB15" s="16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AC15" s="16"/>
       <c r="AD15" s="5" t="s">
@@ -12017,16 +12018,16 @@
     </row>
     <row r="16" spans="1:38" ht="38.25">
       <c r="A16" s="28" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>129</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>237</v>
@@ -12035,7 +12036,7 @@
         <v>425</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H16" s="16" t="s">
         <v>26</v>
@@ -12065,7 +12066,7 @@
         <v>353</v>
       </c>
       <c r="AB16" s="16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AC16" s="16"/>
       <c r="AD16" s="5" t="s">
@@ -12075,26 +12076,26 @@
         <v>123</v>
       </c>
       <c r="AF16" t="s">
+        <v>661</v>
+      </c>
+      <c r="AG16" t="s">
         <v>662</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>663</v>
       </c>
       <c r="AJ16" s="16"/>
       <c r="AK16" s="16"/>
     </row>
     <row r="17" spans="1:37" ht="38.25">
       <c r="A17" s="28" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>132</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>237</v>
@@ -12103,7 +12104,7 @@
         <v>425</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H17" s="16" t="s">
         <v>26</v>
@@ -12133,7 +12134,7 @@
         <v>353</v>
       </c>
       <c r="AB17" s="16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AC17" s="16"/>
       <c r="AD17" s="5" t="s">
@@ -12143,13 +12144,13 @@
         <v>123</v>
       </c>
       <c r="AF17" t="s">
+        <v>661</v>
+      </c>
+      <c r="AG17" t="s">
         <v>662</v>
       </c>
-      <c r="AG17" t="s">
-        <v>663</v>
-      </c>
       <c r="AH17" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AJ17">
         <v>503211</v>
@@ -12160,16 +12161,16 @@
     </row>
     <row r="18" spans="1:37" ht="38.25">
       <c r="A18" s="28" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C18" s="35" t="s">
         <v>139</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>237</v>
@@ -12178,7 +12179,7 @@
         <v>425</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H18" s="16" t="s">
         <v>26</v>
@@ -12196,7 +12197,7 @@
         <v>604</v>
       </c>
       <c r="T18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="W18" t="s">
         <v>33</v>
@@ -12208,7 +12209,7 @@
         <v>353</v>
       </c>
       <c r="AB18" s="16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AC18" s="16"/>
       <c r="AD18" s="5" t="s">
@@ -12218,13 +12219,13 @@
         <v>123</v>
       </c>
       <c r="AF18" t="s">
+        <v>661</v>
+      </c>
+      <c r="AG18" t="s">
         <v>662</v>
       </c>
-      <c r="AG18" t="s">
-        <v>663</v>
-      </c>
       <c r="AH18" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AI18" t="s">
         <v>176</v>
@@ -12235,7 +12236,7 @@
     </row>
     <row r="19" spans="1:37" ht="38.25">
       <c r="A19" s="28" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -12244,7 +12245,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>24</v>
@@ -12253,7 +12254,7 @@
         <v>425</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>26</v>
@@ -12280,7 +12281,7 @@
         <v>223</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="V19" t="s">
         <v>58</v>
@@ -12288,7 +12289,7 @@
     </row>
     <row r="20" spans="1:37" ht="38.25">
       <c r="A20" s="28" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
@@ -12297,7 +12298,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>24</v>
@@ -12306,7 +12307,7 @@
         <v>425</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>26</v>
@@ -12341,7 +12342,7 @@
     </row>
     <row r="21" spans="1:37" ht="38.25">
       <c r="A21" s="28" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
@@ -12350,7 +12351,7 @@
         <v>39</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>24</v>
@@ -12359,7 +12360,7 @@
         <v>425</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H21" s="16" t="s">
         <v>26</v>
@@ -12394,7 +12395,7 @@
     </row>
     <row r="22" spans="1:37" ht="38.25">
       <c r="A22" s="28" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B22" t="s">
         <v>65</v>
@@ -12403,7 +12404,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>24</v>
@@ -12412,7 +12413,7 @@
         <v>425</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H22" s="16" t="s">
         <v>26</v>
@@ -12447,7 +12448,7 @@
     </row>
     <row r="23" spans="1:37" ht="38.25">
       <c r="A23" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B23" t="s">
         <v>96</v>
@@ -12456,7 +12457,7 @@
         <v>23</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>24</v>
@@ -12465,7 +12466,7 @@
         <v>425</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H23" s="16" t="s">
         <v>26</v>
@@ -12495,10 +12496,10 @@
         <v>33</v>
       </c>
       <c r="AA23" s="14" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AB23" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AC23" t="s">
         <v>172</v>
@@ -12530,7 +12531,7 @@
     </row>
     <row r="24" spans="1:37" ht="38.25">
       <c r="A24" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B24" t="s">
         <v>108</v>
@@ -12539,7 +12540,7 @@
         <v>35</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>24</v>
@@ -12548,7 +12549,7 @@
         <v>425</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>26</v>
@@ -12572,16 +12573,16 @@
         <v>221</v>
       </c>
       <c r="T24" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="W24" t="s">
         <v>33</v>
       </c>
       <c r="AA24" s="14" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AB24" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AC24" t="s">
         <v>172</v>
@@ -12613,7 +12614,7 @@
     </row>
     <row r="25" spans="1:37" ht="38.25">
       <c r="A25" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B25" t="s">
         <v>112</v>
@@ -12622,7 +12623,7 @@
         <v>39</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>24</v>
@@ -12631,7 +12632,7 @@
         <v>425</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>26</v>
@@ -12655,16 +12656,16 @@
         <v>221</v>
       </c>
       <c r="T25" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="W25" t="s">
         <v>33</v>
       </c>
       <c r="AA25" s="14" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AB25" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AC25" t="s">
         <v>172</v>
@@ -12696,7 +12697,7 @@
     </row>
     <row r="26" spans="1:37" ht="38.25">
       <c r="A26" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B26" t="s">
         <v>114</v>
@@ -12705,7 +12706,7 @@
         <v>43</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>24</v>
@@ -12714,7 +12715,7 @@
         <v>425</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H26" s="16" t="s">
         <v>26</v>
@@ -12744,10 +12745,10 @@
         <v>33</v>
       </c>
       <c r="AA26" s="14" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AB26" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AD26" s="5" t="s">
         <v>98</v>
@@ -12776,7 +12777,7 @@
     </row>
     <row r="27" spans="1:37" ht="38.25">
       <c r="A27" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B27" t="s">
         <v>118</v>
@@ -12785,7 +12786,7 @@
         <v>49</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>24</v>
@@ -12794,7 +12795,7 @@
         <v>425</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H27" s="16" t="s">
         <v>26</v>
@@ -12824,10 +12825,10 @@
         <v>33</v>
       </c>
       <c r="AA27" s="14" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AD27" s="5" t="s">
         <v>98</v>
@@ -12856,7 +12857,7 @@
     </row>
     <row r="28" spans="1:37" ht="38.25">
       <c r="A28" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B28" t="s">
         <v>124</v>
@@ -12865,7 +12866,7 @@
         <v>125</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>24</v>
@@ -12874,7 +12875,7 @@
         <v>425</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>26</v>
@@ -12904,7 +12905,7 @@
         <v>33</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AC28" t="s">
         <v>172</v>
@@ -12936,7 +12937,7 @@
     </row>
     <row r="29" spans="1:37" ht="38.25">
       <c r="A29" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B29" t="s">
         <v>128</v>
@@ -12945,7 +12946,7 @@
         <v>129</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>24</v>
@@ -12954,7 +12955,7 @@
         <v>425</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>26</v>
@@ -12984,7 +12985,7 @@
         <v>33</v>
       </c>
       <c r="AA29" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AC29" t="s">
         <v>172</v>
@@ -13016,7 +13017,7 @@
     </row>
     <row r="30" spans="1:37" ht="38.25">
       <c r="A30" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B30" t="s">
         <v>131</v>
@@ -13025,7 +13026,7 @@
         <v>132</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>24</v>
@@ -13034,7 +13035,7 @@
         <v>425</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H30" s="16" t="s">
         <v>26</v>
@@ -13064,10 +13065,10 @@
         <v>33</v>
       </c>
       <c r="AA30" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AB30" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AC30" t="s">
         <v>172</v>
@@ -13096,7 +13097,7 @@
     </row>
     <row r="31" spans="1:37" ht="38.25">
       <c r="A31" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B31" t="s">
         <v>138</v>
@@ -13105,7 +13106,7 @@
         <v>139</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>24</v>
@@ -13114,7 +13115,7 @@
         <v>425</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H31" s="16" t="s">
         <v>26</v>
@@ -13144,10 +13145,10 @@
         <v>33</v>
       </c>
       <c r="AA31" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AB31" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AC31" t="s">
         <v>172</v>
@@ -13176,7 +13177,7 @@
     </row>
     <row r="32" spans="1:37" ht="38.25">
       <c r="A32" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B32" t="s">
         <v>141</v>
@@ -13185,7 +13186,7 @@
         <v>142</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>24</v>
@@ -13194,7 +13195,7 @@
         <v>425</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H32" s="16" t="s">
         <v>26</v>
@@ -13224,10 +13225,10 @@
         <v>33</v>
       </c>
       <c r="AA32" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AB32" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AC32" t="s">
         <v>172</v>
@@ -13256,7 +13257,7 @@
     </row>
     <row r="33" spans="1:37" ht="38.25">
       <c r="A33" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B33" t="s">
         <v>144</v>
@@ -13265,7 +13266,7 @@
         <v>119</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>24</v>
@@ -13274,7 +13275,7 @@
         <v>425</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H33" s="16" t="s">
         <v>26</v>
@@ -13304,10 +13305,10 @@
         <v>33</v>
       </c>
       <c r="AA33" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AB33" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AC33" t="s">
         <v>172</v>
@@ -13336,7 +13337,7 @@
     </row>
     <row r="34" spans="1:37" ht="38.25">
       <c r="A34" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B34" t="s">
         <v>147</v>
@@ -13345,7 +13346,7 @@
         <v>148</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>24</v>
@@ -13354,7 +13355,7 @@
         <v>425</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>26</v>
@@ -13384,10 +13385,10 @@
         <v>33</v>
       </c>
       <c r="AA34" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AB34" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AC34" t="s">
         <v>172</v>
@@ -13416,7 +13417,7 @@
     </row>
     <row r="35" spans="1:37" ht="38.25">
       <c r="A35" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B35" t="s">
         <v>134</v>
@@ -13425,7 +13426,7 @@
         <v>583</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>24</v>
@@ -13434,7 +13435,7 @@
         <v>425</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H35" s="16" t="s">
         <v>26</v>
@@ -13464,10 +13465,10 @@
         <v>33</v>
       </c>
       <c r="AA35" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AB35" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AC35" t="s">
         <v>172</v>
@@ -13639,25 +13640,25 @@
         <v>94</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>694</v>
-      </c>
       <c r="AE1" s="1" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="51">
@@ -13671,7 +13672,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>24</v>
@@ -13680,13 +13681,13 @@
         <v>425</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H2" t="s">
         <v>97</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>98</v>
@@ -13742,7 +13743,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>24</v>
@@ -13751,13 +13752,13 @@
         <v>425</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H3" t="s">
         <v>97</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>109</v>
@@ -13784,7 +13785,7 @@
         <v>105</v>
       </c>
       <c r="S3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>26</v>
@@ -13813,7 +13814,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>24</v>
@@ -13822,13 +13823,13 @@
         <v>425</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H4" t="s">
         <v>97</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>113</v>
@@ -13855,7 +13856,7 @@
         <v>105</v>
       </c>
       <c r="S4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>26</v>
@@ -13884,7 +13885,7 @@
         <v>43</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>24</v>
@@ -13893,7 +13894,7 @@
         <v>425</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H5" t="s">
         <v>97</v>
@@ -13955,7 +13956,7 @@
         <v>49</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>24</v>
@@ -13964,13 +13965,13 @@
         <v>425</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H6" t="s">
         <v>97</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>98</v>
@@ -14026,7 +14027,7 @@
         <v>125</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>24</v>
@@ -14035,10 +14036,10 @@
         <v>425</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>98</v>
@@ -14094,7 +14095,7 @@
         <v>129</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>24</v>
@@ -14103,7 +14104,7 @@
         <v>425</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H8" t="s">
         <v>97</v>
@@ -14162,7 +14163,7 @@
         <v>132</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>24</v>
@@ -14171,13 +14172,13 @@
         <v>425</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H9" t="s">
         <v>97</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>99</v>
@@ -14230,7 +14231,7 @@
         <v>135</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>24</v>
@@ -14239,13 +14240,13 @@
         <v>425</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H10" t="s">
         <v>97</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>98</v>
@@ -14298,7 +14299,7 @@
         <v>139</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>24</v>
@@ -14307,13 +14308,13 @@
         <v>425</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H11" t="s">
         <v>97</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>98</v>
@@ -14366,7 +14367,7 @@
         <v>142</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>24</v>
@@ -14375,13 +14376,13 @@
         <v>425</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H12" t="s">
         <v>97</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>98</v>
@@ -14434,7 +14435,7 @@
         <v>119</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>24</v>
@@ -14443,13 +14444,13 @@
         <v>425</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H13" t="s">
         <v>97</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>98</v>
@@ -14502,7 +14503,7 @@
         <v>148</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>24</v>
@@ -14511,13 +14512,13 @@
         <v>425</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H14" t="s">
         <v>97</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>98</v>
@@ -14570,7 +14571,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>24</v>
@@ -14579,19 +14580,19 @@
         <v>425</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H15" t="s">
         <v>97</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J15" t="s">
         <v>152</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>153</v>
@@ -14638,7 +14639,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>24</v>
@@ -14647,13 +14648,13 @@
         <v>425</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H16" t="s">
         <v>97</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>161</v>
@@ -14703,7 +14704,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>24</v>
@@ -14712,10 +14713,10 @@
         <v>425</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="U17" s="5" t="s">
         <v>26</v>
@@ -14738,7 +14739,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>24</v>
@@ -14747,13 +14748,13 @@
         <v>425</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H18" t="s">
         <v>171</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J18" t="s">
         <v>152</v>
@@ -14786,7 +14787,7 @@
         <v>178</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="U18" s="5" t="s">
         <v>26</v>
@@ -14809,7 +14810,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>24</v>
@@ -14818,31 +14819,31 @@
         <v>425</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H19" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="K19" t="s">
         <v>684</v>
       </c>
-      <c r="I19" s="28" t="s">
+      <c r="L19" t="s">
         <v>685</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="s">
+        <v>687</v>
+      </c>
+      <c r="N19" t="s">
+        <v>687</v>
+      </c>
+      <c r="O19" t="s">
         <v>686</v>
       </c>
-      <c r="L19" t="s">
-        <v>687</v>
-      </c>
-      <c r="M19" t="s">
-        <v>689</v>
-      </c>
-      <c r="N19" t="s">
-        <v>689</v>
-      </c>
-      <c r="O19" t="s">
-        <v>688</v>
-      </c>
       <c r="Q19" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="U19" t="s">
         <v>26</v>
@@ -14865,7 +14866,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>24</v>
@@ -14874,31 +14875,31 @@
         <v>425</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H20" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="K20" t="s">
         <v>684</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="L20" t="s">
         <v>685</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="s">
+        <v>687</v>
+      </c>
+      <c r="N20" t="s">
+        <v>687</v>
+      </c>
+      <c r="O20" t="s">
         <v>686</v>
       </c>
-      <c r="L20" t="s">
-        <v>687</v>
-      </c>
-      <c r="M20" t="s">
-        <v>689</v>
-      </c>
-      <c r="N20" t="s">
-        <v>689</v>
-      </c>
-      <c r="O20" t="s">
-        <v>688</v>
-      </c>
       <c r="Q20" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="U20" t="s">
         <v>26</v>
@@ -14921,7 +14922,7 @@
         <v>23</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>24</v>
@@ -14930,7 +14931,7 @@
         <v>425</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="U21" t="s">
         <v>26</v>
@@ -14950,13 +14951,13 @@
     </row>
     <row r="22" spans="1:34">
       <c r="A22" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>24</v>
@@ -14971,13 +14972,13 @@
         <v>27</v>
       </c>
       <c r="AB22" t="s">
+        <v>693</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>694</v>
+      </c>
+      <c r="AD22" t="s">
         <v>695</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>696</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>697</v>
       </c>
       <c r="AE22">
         <v>122105278</v>
@@ -14986,24 +14987,24 @@
         <v>122105278</v>
       </c>
       <c r="AG22" s="5" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="AH22" s="5" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="51">
       <c r="A23" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B23" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>24</v>
@@ -15012,7 +15013,7 @@
         <v>425</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="U23" t="s">
         <v>26</v>
@@ -15162,7 +15163,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>24</v>
@@ -15171,7 +15172,7 @@
         <v>425</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -15221,7 +15222,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>24</v>
@@ -15230,7 +15231,7 @@
         <v>425</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
@@ -15368,7 +15369,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>24</v>
@@ -15377,13 +15378,13 @@
         <v>425</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H2" t="s">
         <v>171</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J2" t="s">
         <v>172</v>
@@ -15436,7 +15437,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>24</v>
@@ -15445,13 +15446,13 @@
         <v>425</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H3" t="s">
         <v>171</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J3" t="s">
         <v>172</v>
@@ -15484,7 +15485,7 @@
         <v>373</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="V3" t="s">
         <v>26</v>
@@ -15507,7 +15508,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>24</v>
@@ -15516,13 +15517,13 @@
         <v>425</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H4" t="s">
         <v>376</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="J4" t="s">
         <v>172</v>
@@ -15575,7 +15576,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>24</v>
@@ -15584,10 +15585,10 @@
         <v>425</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="K5" s="6"/>
       <c r="V5" t="s">
@@ -15611,7 +15612,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>24</v>
@@ -15620,13 +15621,13 @@
         <v>425</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>380</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J6" t="s">
         <v>172</v>
@@ -15679,7 +15680,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>24</v>
@@ -15688,13 +15689,13 @@
         <v>425</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H7" t="s">
         <v>387</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J7" t="s">
         <v>172</v>
@@ -15747,7 +15748,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>24</v>
@@ -15756,13 +15757,13 @@
         <v>425</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H8" t="s">
         <v>171</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J8" t="s">
         <v>172</v>
@@ -15824,7 +15825,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>24</v>
@@ -15833,13 +15834,13 @@
         <v>425</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H9" t="s">
         <v>171</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>109</v>
@@ -15866,7 +15867,7 @@
         <v>105</v>
       </c>
       <c r="S9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="U9" t="s">
         <v>33</v>
@@ -15895,7 +15896,7 @@
         <v>49</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>24</v>
@@ -15904,13 +15905,13 @@
         <v>425</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H10" t="s">
         <v>171</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>381</v>
@@ -15966,7 +15967,7 @@
         <v>125</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>24</v>
@@ -15975,10 +15976,10 @@
         <v>425</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J11" t="s">
         <v>172</v>
@@ -16037,7 +16038,7 @@
         <v>129</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>24</v>
@@ -16046,7 +16047,7 @@
         <v>425</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H12" t="s">
         <v>171</v>
@@ -16108,7 +16109,7 @@
         <v>132</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>24</v>
@@ -16117,13 +16118,13 @@
         <v>425</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H13" t="s">
         <v>171</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J13" t="s">
         <v>172</v>
@@ -16180,7 +16181,7 @@
         <v>135</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>24</v>
@@ -16189,13 +16190,13 @@
         <v>425</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H14" t="s">
         <v>171</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J14" t="s">
         <v>172</v>
@@ -16251,7 +16252,7 @@
         <v>139</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>24</v>
@@ -16260,13 +16261,13 @@
         <v>425</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H15" t="s">
         <v>171</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J15" t="s">
         <v>172</v>
@@ -16322,7 +16323,7 @@
         <v>142</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>24</v>
@@ -16331,13 +16332,13 @@
         <v>425</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H16" t="s">
         <v>171</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J16" t="s">
         <v>172</v>
@@ -16393,7 +16394,7 @@
         <v>119</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>24</v>
@@ -16402,13 +16403,13 @@
         <v>425</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H17" t="s">
         <v>171</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J17" t="s">
         <v>172</v>
@@ -16464,7 +16465,7 @@
         <v>148</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>24</v>
@@ -16473,13 +16474,13 @@
         <v>425</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H18" t="s">
         <v>171</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J18" t="s">
         <v>172</v>
@@ -16624,7 +16625,7 @@
         <v>197</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
@@ -16672,7 +16673,7 @@
         <v>424</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>425</v>
@@ -16681,16 +16682,16 @@
         <v>77</v>
       </c>
       <c r="R2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="T2" t="s">
         <v>33</v>
       </c>
       <c r="U2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -16741,7 +16742,7 @@
         <v>424</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="T4" t="s">
         <v>33</v>
@@ -16771,7 +16772,7 @@
         <v>424</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="T5" t="s">
         <v>33</v>
@@ -16801,13 +16802,13 @@
         <v>424</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="R6" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="S6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="T6" t="s">
         <v>33</v>
@@ -16837,10 +16838,10 @@
         <v>424</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="R7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="T7" t="s">
         <v>33</v>
@@ -16870,7 +16871,7 @@
         <v>424</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="R8" t="s">
         <v>442</v>
@@ -16904,7 +16905,7 @@
         <v>424</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="N9" t="s">
         <v>77</v>
@@ -16916,10 +16917,10 @@
         <v>447</v>
       </c>
       <c r="R9" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="S9" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -16943,7 +16944,7 @@
         <v>424</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>450</v>
@@ -16952,16 +16953,16 @@
         <v>77</v>
       </c>
       <c r="R10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="T10" t="s">
         <v>33</v>
       </c>
       <c r="U10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -16982,7 +16983,7 @@
         <v>424</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="O11" t="s">
         <v>451</v>
@@ -16991,16 +16992,16 @@
         <v>77</v>
       </c>
       <c r="R11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="T11" t="s">
         <v>33</v>
       </c>
       <c r="U11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -17021,7 +17022,7 @@
         <v>424</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>452</v>
@@ -17030,16 +17031,16 @@
         <v>77</v>
       </c>
       <c r="R12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="T12" t="s">
         <v>33</v>
       </c>
       <c r="U12" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -17060,7 +17061,7 @@
         <v>424</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="O13" t="s">
         <v>453</v>
@@ -17069,16 +17070,16 @@
         <v>77</v>
       </c>
       <c r="R13" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S13" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="T13" t="s">
         <v>33</v>
       </c>
       <c r="U13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -17098,7 +17099,7 @@
         <v>424</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -17118,7 +17119,7 @@
         <v>424</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="R15" t="s">
         <v>457</v>
@@ -17214,16 +17215,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>827</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>829</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>17</v>
@@ -17232,24 +17233,24 @@
         <v>16</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="25.5">
       <c r="A2" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -17258,7 +17259,7 @@
         <v>425</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -17270,36 +17271,36 @@
         <v>28</v>
       </c>
       <c r="L2" t="s">
+        <v>830</v>
+      </c>
+      <c r="N2" s="48" t="s">
+        <v>831</v>
+      </c>
+      <c r="O2" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="N2" s="48" t="s">
-        <v>833</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>834</v>
-      </c>
       <c r="P2" s="13" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="Q2" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="R2" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="25.5">
       <c r="A3" s="4" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -17308,7 +17309,7 @@
         <v>425</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
@@ -17320,30 +17321,30 @@
         <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="L3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="M3" s="48" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="N3" s="48" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="25.5">
       <c r="A4" s="4" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B4" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -17352,7 +17353,7 @@
         <v>425</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
@@ -17364,10 +17365,10 @@
         <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="M4" s="48" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -17388,8 +17389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46AD7FE-9435-44BD-8C0B-F250320CFCB5}">
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -17456,13 +17457,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>458</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>91</v>
@@ -17474,66 +17475,66 @@
         <v>20</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>794</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>796</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>544</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>854</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -17542,7 +17543,7 @@
         <v>425</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>26</v>
@@ -17554,122 +17555,122 @@
         <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L2" s="39" t="s">
+        <v>761</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="S2" t="s">
         <v>763</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="V2" t="s">
         <v>764</v>
       </c>
-      <c r="S2" t="s">
+      <c r="W2" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y2" t="s">
         <v>765</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="Z2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" t="s">
         <v>766</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>767</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>761</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="S3" t="s">
+        <v>763</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="V3" t="s">
         <v>764</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>425</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>887</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>763</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="W3" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y3" t="s">
         <v>765</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="Z3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" t="s">
         <v>766</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>767</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="4" spans="1:32">
       <c r="A4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B4" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -17678,7 +17679,7 @@
         <v>425</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>26</v>
@@ -17690,48 +17691,48 @@
         <v>28</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L4" s="39" t="s">
+        <v>761</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="S4" t="s">
         <v>763</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="T4" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="V4" t="s">
         <v>764</v>
       </c>
-      <c r="S4" t="s">
-        <v>765</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="W4" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA4" t="s">
         <v>766</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -17740,7 +17741,7 @@
         <v>425</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>26</v>
@@ -17752,33 +17753,33 @@
         <v>28</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="N5" t="s">
-        <v>32</v>
+        <v>907</v>
       </c>
       <c r="O5" t="s">
         <v>33</v>
       </c>
       <c r="P5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B6" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -17787,7 +17788,7 @@
         <v>425</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>26</v>
@@ -17799,13 +17800,13 @@
         <v>28</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="N6" t="s">
         <v>41</v>
@@ -17814,21 +17815,21 @@
         <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B7" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -17837,7 +17838,7 @@
         <v>425</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>26</v>
@@ -17849,13 +17850,13 @@
         <v>28</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="M7" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="N7" t="s">
         <v>41</v>
@@ -17864,21 +17865,21 @@
         <v>33</v>
       </c>
       <c r="P7" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="8" spans="1:32">
       <c r="A8" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B8" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -17887,7 +17888,7 @@
         <v>425</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>26</v>
@@ -17899,13 +17900,13 @@
         <v>28</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="M8" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="N8" t="s">
         <v>41</v>
@@ -17914,21 +17915,21 @@
         <v>33</v>
       </c>
       <c r="P8" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B9" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -17937,7 +17938,7 @@
         <v>425</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>26</v>
@@ -17949,13 +17950,13 @@
         <v>28</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L9" s="39" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="N9" t="s">
         <v>41</v>
@@ -17964,21 +17965,21 @@
         <v>33</v>
       </c>
       <c r="P9" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B10" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>125</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
@@ -17987,7 +17988,7 @@
         <v>425</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>26</v>
@@ -17999,13 +18000,13 @@
         <v>28</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L10" s="39" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="N10" t="s">
         <v>41</v>
@@ -18014,21 +18015,21 @@
         <v>33</v>
       </c>
       <c r="P10" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="11" spans="1:32">
       <c r="A11" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B11" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>129</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -18037,7 +18038,7 @@
         <v>425</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>26</v>
@@ -18049,13 +18050,13 @@
         <v>28</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L11" s="39" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="N11" t="s">
         <v>41</v>
@@ -18064,21 +18065,21 @@
         <v>33</v>
       </c>
       <c r="P11" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="12" spans="1:32">
       <c r="A12" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B12" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>132</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -18087,7 +18088,7 @@
         <v>425</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>26</v>
@@ -18099,13 +18100,13 @@
         <v>28</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L12" s="39" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="M12" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="N12" t="s">
         <v>41</v>
@@ -18114,21 +18115,21 @@
         <v>33</v>
       </c>
       <c r="P12" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B13" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>139</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
@@ -18137,7 +18138,7 @@
         <v>425</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>26</v>
@@ -18149,13 +18150,13 @@
         <v>28</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L13" s="39" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="M13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>576</v>
@@ -18164,21 +18165,21 @@
         <v>33</v>
       </c>
       <c r="P13" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="14" spans="1:32">
       <c r="A14" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B14" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
@@ -18187,7 +18188,7 @@
         <v>425</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>26</v>
@@ -18199,10 +18200,10 @@
         <v>28</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L14" s="39" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="N14" t="s">
         <v>56</v>
@@ -18216,16 +18217,16 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" t="s">
+        <v>783</v>
+      </c>
+      <c r="B15" t="s">
         <v>785</v>
-      </c>
-      <c r="B15" t="s">
-        <v>787</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>24</v>
@@ -18234,7 +18235,7 @@
         <v>425</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>26</v>
@@ -18246,10 +18247,10 @@
         <v>28</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L15" s="39" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="Q15" s="5" t="s">
         <v>60</v>
@@ -18260,16 +18261,16 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" t="s">
+        <v>783</v>
+      </c>
+      <c r="B16" t="s">
         <v>785</v>
-      </c>
-      <c r="B16" t="s">
-        <v>787</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
@@ -18278,7 +18279,7 @@
         <v>425</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>26</v>
@@ -18290,13 +18291,13 @@
         <v>28</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L16" s="39" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="Q16" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="R16" t="s">
         <v>64</v>
@@ -18304,16 +18305,16 @@
     </row>
     <row r="17" spans="1:32">
       <c r="A17" t="s">
+        <v>783</v>
+      </c>
+      <c r="B17" t="s">
         <v>785</v>
-      </c>
-      <c r="B17" t="s">
-        <v>787</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>24</v>
@@ -18322,7 +18323,7 @@
         <v>425</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>26</v>
@@ -18334,30 +18335,30 @@
         <v>28</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L17" s="39" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="R17" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="18" spans="1:32">
       <c r="A18" t="s">
+        <v>783</v>
+      </c>
+      <c r="B18" t="s">
         <v>785</v>
-      </c>
-      <c r="B18" t="s">
-        <v>787</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>24</v>
@@ -18366,7 +18367,7 @@
         <v>425</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>26</v>
@@ -18378,10 +18379,10 @@
         <v>28</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L18" s="39" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="Q18" s="5" t="s">
         <v>57</v>
@@ -18392,16 +18393,16 @@
     </row>
     <row r="19" spans="1:32">
       <c r="A19" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B19" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>24</v>
@@ -18410,7 +18411,7 @@
         <v>425</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>26</v>
@@ -18430,33 +18431,33 @@
         <v>69</v>
       </c>
       <c r="AB19" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="AC19" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="AD19" s="5" t="s">
-        <v>866</v>
+        <v>906</v>
       </c>
       <c r="AE19" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="AF19" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="20" spans="1:32">
       <c r="A20" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B20" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>24</v>
@@ -18465,7 +18466,7 @@
         <v>425</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>26</v>
@@ -18485,33 +18486,33 @@
         <v>69</v>
       </c>
       <c r="AB20" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="AC20" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>839</v>
+        <v>863</v>
       </c>
       <c r="AE20" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="AF20" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="21" spans="1:32">
       <c r="A21" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B21" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>24</v>
@@ -18520,7 +18521,7 @@
         <v>425</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>26</v>
@@ -18532,10 +18533,10 @@
         <v>28</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L21" s="39" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="N21" t="s">
         <v>56</v>
@@ -18547,33 +18548,33 @@
         <v>58</v>
       </c>
       <c r="AB21" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="AC21" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>866</v>
+        <v>906</v>
       </c>
       <c r="AE21" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="AF21" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="22" spans="1:32">
       <c r="A22" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B22" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>24</v>
@@ -18582,7 +18583,7 @@
         <v>425</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>26</v>
@@ -18594,10 +18595,10 @@
         <v>28</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L22" s="39" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="Q22" s="5" t="s">
         <v>60</v>
@@ -18606,33 +18607,33 @@
         <v>61</v>
       </c>
       <c r="AB22" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="AC22" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="AD22" s="5" t="s">
-        <v>866</v>
+        <v>906</v>
       </c>
       <c r="AE22" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="AF22" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B23" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>24</v>
@@ -18641,7 +18642,7 @@
         <v>425</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>26</v>
@@ -18653,45 +18654,45 @@
         <v>28</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L23" s="39" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="Q23" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="R23" t="s">
         <v>64</v>
       </c>
       <c r="AB23" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="AC23" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="AD23" s="5" t="s">
-        <v>866</v>
+        <v>906</v>
       </c>
       <c r="AE23" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="AF23" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B24" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>24</v>
@@ -18700,7 +18701,7 @@
         <v>425</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>26</v>
@@ -18712,45 +18713,45 @@
         <v>28</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L24" s="39" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="R24" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="AB24" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="AC24" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="AD24" s="5" t="s">
-        <v>866</v>
+        <v>906</v>
       </c>
       <c r="AE24" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="AF24" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B25" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>24</v>
@@ -18759,7 +18760,7 @@
         <v>425</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>26</v>
@@ -18771,10 +18772,10 @@
         <v>28</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L25" s="39" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="Q25" s="5" t="s">
         <v>57</v>
@@ -18783,19 +18784,19 @@
         <v>69</v>
       </c>
       <c r="AB25" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="AC25" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>866</v>
+        <v>906</v>
       </c>
       <c r="AE25" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="AF25" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -18964,7 +18965,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>24</v>
@@ -19017,7 +19018,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>31</v>
@@ -19052,7 +19053,7 @@
     </row>
     <row r="4" spans="1:20" ht="30">
       <c r="A4" s="33" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B4" t="s">
         <v>472</v>
@@ -19061,7 +19062,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>24</v>
@@ -19105,7 +19106,7 @@
     </row>
     <row r="5" spans="1:20" ht="30">
       <c r="A5" s="33" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B5" t="s">
         <v>478</v>
@@ -19114,7 +19115,7 @@
         <v>35</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>24</v>
@@ -19145,7 +19146,7 @@
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="14" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="S5" t="s">
         <v>479</v>
@@ -19156,7 +19157,7 @@
     </row>
     <row r="6" spans="1:20" ht="30">
       <c r="A6" s="33" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B6" t="s">
         <v>481</v>
@@ -19165,7 +19166,7 @@
         <v>39</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>24</v>
@@ -19205,7 +19206,7 @@
     </row>
     <row r="7" spans="1:20" ht="30">
       <c r="A7" s="33" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B7" t="s">
         <v>481</v>
@@ -19214,7 +19215,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>24</v>
@@ -19245,7 +19246,7 @@
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="14" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="S7" t="s">
         <v>476</v>

--- a/Web/coyni/resources/testdata.xlsx
+++ b/Web/coyni/resources/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\2022\101922_Web\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coyni_web_2.3\clone_Merchant_2.3_20_02_2023\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECAC52D-B2B5-4C52-A38B-A57C1A31D31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA568C13-8C62-4695-980D-9D8E2E26CCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" tabRatio="500" firstSheet="12" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" firstSheet="14" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4607" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4653" uniqueCount="924">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2803,13 +2803,52 @@
   </si>
   <si>
     <t>39.00</t>
+  </si>
+  <si>
+    <t>Verify SignUp Business via Individual</t>
+  </si>
+  <si>
+    <t>Business via Individual</t>
+  </si>
+  <si>
+    <t>vishnu4@gmail.com</t>
+  </si>
+  <si>
+    <t>Pay and Request Money With coyni</t>
+  </si>
+  <si>
+    <t>Merch@123</t>
+  </si>
+  <si>
+    <t>verify add card</t>
+  </si>
+  <si>
+    <t>Add Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5298821252100002</t>
+  </si>
+  <si>
+    <t>03/26</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>Hitech city</t>
+  </si>
+  <si>
+    <t>Gowra</t>
+  </si>
+  <si>
+    <t>12345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2923,8 +2962,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2947,6 +2999,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2973,7 +3031,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -3070,6 +3128,23 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3451,27 +3526,27 @@
       <selection pane="topRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" customWidth="1"/>
-    <col min="7" max="7" width="63.85546875" customWidth="1"/>
-    <col min="8" max="8" width="63.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.44140625" customWidth="1"/>
+    <col min="2" max="2" width="50.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" customWidth="1"/>
+    <col min="7" max="7" width="63.88671875" customWidth="1"/>
+    <col min="8" max="8" width="63.44140625" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43" customWidth="1"/>
-    <col min="11" max="11" width="33.85546875" customWidth="1"/>
-    <col min="12" max="12" width="24.42578125" customWidth="1"/>
-    <col min="13" max="13" width="26.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" customWidth="1"/>
-    <col min="17" max="17" width="31.85546875" customWidth="1"/>
-    <col min="20" max="20" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="33.88671875" customWidth="1"/>
+    <col min="12" max="12" width="24.44140625" customWidth="1"/>
+    <col min="13" max="13" width="26.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.88671875" customWidth="1"/>
+    <col min="17" max="17" width="31.88671875" customWidth="1"/>
+    <col min="20" max="20" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3536,7 +3611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="25.5">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -3568,7 +3643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="25.5">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -3601,7 +3676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="25.5">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -3634,7 +3709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -3666,7 +3741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3698,7 +3773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -3733,7 +3808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -3754,7 +3829,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="25.5">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -3792,7 +3867,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="25.5">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3824,7 +3899,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="25.5">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -3856,7 +3931,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="25.5">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -3888,7 +3963,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="25.5">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -3920,7 +3995,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -3946,7 +4021,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -3981,7 +4056,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -4010,7 +4085,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -4036,7 +4111,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -4062,7 +4137,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -4088,7 +4163,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -4155,49 +4230,49 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="42.140625" customWidth="1"/>
-    <col min="8" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" hidden="1" customWidth="1"/>
-    <col min="13" max="16" width="19.85546875" customWidth="1"/>
-    <col min="17" max="21" width="30.140625" customWidth="1"/>
-    <col min="22" max="29" width="28.42578125" customWidth="1"/>
-    <col min="30" max="32" width="22.140625" customWidth="1"/>
-    <col min="33" max="37" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42.44140625" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="42.109375" customWidth="1"/>
+    <col min="8" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" customWidth="1"/>
+    <col min="12" max="12" width="19.88671875" hidden="1" customWidth="1"/>
+    <col min="13" max="16" width="19.88671875" customWidth="1"/>
+    <col min="17" max="21" width="30.109375" customWidth="1"/>
+    <col min="22" max="29" width="28.44140625" customWidth="1"/>
+    <col min="30" max="32" width="22.109375" customWidth="1"/>
+    <col min="33" max="37" width="19.88671875" customWidth="1"/>
     <col min="38" max="38" width="50" customWidth="1"/>
-    <col min="39" max="39" width="22.42578125" customWidth="1"/>
-    <col min="40" max="40" width="110.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.44140625" customWidth="1"/>
+    <col min="40" max="40" width="110.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="22" customWidth="1"/>
-    <col min="44" max="44" width="21.42578125" customWidth="1"/>
-    <col min="46" max="46" width="17.85546875" customWidth="1"/>
+    <col min="44" max="44" width="21.44140625" customWidth="1"/>
+    <col min="46" max="46" width="17.88671875" customWidth="1"/>
     <col min="47" max="47" width="23" customWidth="1"/>
-    <col min="48" max="48" width="16.42578125" customWidth="1"/>
-    <col min="49" max="49" width="26.140625" customWidth="1"/>
+    <col min="48" max="48" width="16.44140625" customWidth="1"/>
+    <col min="49" max="49" width="26.109375" customWidth="1"/>
     <col min="50" max="51" width="28" customWidth="1"/>
-    <col min="52" max="52" width="18.140625" customWidth="1"/>
+    <col min="52" max="52" width="18.109375" customWidth="1"/>
     <col min="53" max="53" width="17" customWidth="1"/>
-    <col min="54" max="54" width="17.42578125" customWidth="1"/>
+    <col min="54" max="54" width="17.44140625" customWidth="1"/>
     <col min="55" max="55" width="15" customWidth="1"/>
-    <col min="56" max="56" width="22.42578125" customWidth="1"/>
-    <col min="57" max="57" width="20.140625" customWidth="1"/>
-    <col min="58" max="58" width="12.85546875" customWidth="1"/>
-    <col min="61" max="61" width="16.85546875" customWidth="1"/>
-    <col min="62" max="62" width="17.42578125" customWidth="1"/>
+    <col min="56" max="56" width="22.44140625" customWidth="1"/>
+    <col min="57" max="57" width="20.109375" customWidth="1"/>
+    <col min="58" max="58" width="12.88671875" customWidth="1"/>
+    <col min="61" max="61" width="16.88671875" customWidth="1"/>
+    <col min="62" max="62" width="17.44140625" customWidth="1"/>
     <col min="63" max="63" width="21" customWidth="1"/>
-    <col min="64" max="64" width="22.42578125" customWidth="1"/>
+    <col min="64" max="64" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4391,7 +4466,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="25.5">
+    <row r="2" spans="1:64" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>216</v>
       </c>
@@ -4423,7 +4498,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="25.5">
+    <row r="3" spans="1:64" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>218</v>
       </c>
@@ -4465,7 +4540,7 @@
       </c>
       <c r="AR3" s="14"/>
     </row>
-    <row r="4" spans="1:64" ht="25.5">
+    <row r="4" spans="1:64" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>225</v>
       </c>
@@ -4497,7 +4572,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:64" ht="25.5">
+    <row r="5" spans="1:64" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>227</v>
       </c>
@@ -4529,7 +4604,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="25.5">
+    <row r="6" spans="1:64" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>229</v>
       </c>
@@ -4561,7 +4636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="25.5">
+    <row r="7" spans="1:64" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>231</v>
       </c>
@@ -4593,7 +4668,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:64" ht="25.5">
+    <row r="8" spans="1:64" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>233</v>
       </c>
@@ -4629,7 +4704,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="9" spans="1:64" ht="101.25">
+    <row r="9" spans="1:64" ht="84.6" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
         <v>255</v>
       </c>
@@ -4691,7 +4766,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="10" spans="1:64" ht="101.25">
+    <row r="10" spans="1:64" ht="84.6" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="s">
         <v>260</v>
       </c>
@@ -4753,7 +4828,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="11" spans="1:64" ht="101.25">
+    <row r="11" spans="1:64" ht="98.4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>262</v>
       </c>
@@ -4815,7 +4890,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:64" ht="101.25">
+    <row r="12" spans="1:64" ht="94.2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>265</v>
       </c>
@@ -4883,7 +4958,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:64" ht="58.5">
+    <row r="13" spans="1:64" ht="57" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>267</v>
       </c>
@@ -4945,7 +5020,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:64" ht="101.25">
+    <row r="14" spans="1:64" ht="84.6" x14ac:dyDescent="0.4">
       <c r="A14" s="14" t="s">
         <v>269</v>
       </c>
@@ -5013,7 +5088,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="15" spans="1:64" ht="101.25">
+    <row r="15" spans="1:64" ht="94.2" x14ac:dyDescent="0.4">
       <c r="A15" s="14" t="s">
         <v>271</v>
       </c>
@@ -5081,7 +5156,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:64" ht="85.5">
+    <row r="16" spans="1:64" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>274</v>
       </c>
@@ -5120,7 +5195,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="17" spans="1:60" ht="25.5">
+    <row r="17" spans="1:60" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>276</v>
       </c>
@@ -5159,7 +5234,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="18" spans="1:60" ht="25.5">
+    <row r="18" spans="1:60" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>278</v>
       </c>
@@ -5192,7 +5267,7 @@
       </c>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="1:60" ht="25.5">
+    <row r="19" spans="1:60" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>280</v>
       </c>
@@ -5225,7 +5300,7 @@
       </c>
       <c r="M19" s="14"/>
     </row>
-    <row r="20" spans="1:60" ht="25.5">
+    <row r="20" spans="1:60" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>282</v>
       </c>
@@ -5297,7 +5372,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="21" spans="1:60" ht="25.5">
+    <row r="21" spans="1:60" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>284</v>
       </c>
@@ -5334,7 +5409,7 @@
       <c r="AK21" s="14"/>
       <c r="AL21" s="14"/>
     </row>
-    <row r="22" spans="1:60" ht="38.25">
+    <row r="22" spans="1:60" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>286</v>
       </c>
@@ -5387,7 +5462,7 @@
       <c r="AL22" s="14"/>
       <c r="AP22" s="14"/>
     </row>
-    <row r="23" spans="1:60" ht="25.5">
+    <row r="23" spans="1:60" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>286</v>
       </c>
@@ -5437,7 +5512,7 @@
       <c r="AL23" s="14"/>
       <c r="AP23" s="14"/>
     </row>
-    <row r="24" spans="1:60" ht="25.5" hidden="1">
+    <row r="24" spans="1:60" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>290</v>
       </c>
@@ -5497,7 +5572,7 @@
       <c r="AG24" s="14"/>
       <c r="AH24" s="14"/>
     </row>
-    <row r="25" spans="1:60" ht="25.5">
+    <row r="25" spans="1:60" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>293</v>
       </c>
@@ -5544,7 +5619,7 @@
       <c r="AJ25" s="14"/>
       <c r="AK25" s="14"/>
     </row>
-    <row r="26" spans="1:60" ht="38.25">
+    <row r="26" spans="1:60" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>297</v>
       </c>
@@ -5605,7 +5680,7 @@
       <c r="AH26" s="14"/>
       <c r="AL26" s="21"/>
     </row>
-    <row r="27" spans="1:60" ht="25.5">
+    <row r="27" spans="1:60" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>300</v>
       </c>
@@ -5681,7 +5756,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="28" spans="1:60" ht="25.5">
+    <row r="28" spans="1:60" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>300</v>
       </c>
@@ -5752,7 +5827,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:60" ht="25.5">
+    <row r="29" spans="1:60" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>300</v>
       </c>
@@ -5823,7 +5898,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="30" spans="1:60" ht="25.5">
+    <row r="30" spans="1:60" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>302</v>
       </c>
@@ -5884,7 +5959,7 @@
       <c r="AG30" s="14"/>
       <c r="AH30" s="14"/>
     </row>
-    <row r="31" spans="1:60" ht="25.5">
+    <row r="31" spans="1:60" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>304</v>
       </c>
@@ -5948,7 +6023,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:60" ht="38.25">
+    <row r="32" spans="1:60" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
         <v>639</v>
       </c>
@@ -6004,7 +6079,7 @@
       <c r="AG32" s="21"/>
       <c r="AH32" s="21"/>
     </row>
-    <row r="33" spans="1:64" ht="38.25">
+    <row r="33" spans="1:64" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
         <v>640</v>
       </c>
@@ -6067,7 +6142,7 @@
       <c r="AG33" s="21"/>
       <c r="AH33" s="21"/>
     </row>
-    <row r="34" spans="1:64" ht="76.5">
+    <row r="34" spans="1:64" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>310</v>
       </c>
@@ -6126,7 +6201,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:64">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
         <v>316</v>
       </c>
@@ -6167,7 +6242,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="36" spans="1:64" ht="76.5">
+    <row r="36" spans="1:64" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>319</v>
       </c>
@@ -6226,7 +6301,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:64" ht="25.5">
+    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>321</v>
       </c>
@@ -6267,7 +6342,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="38" spans="1:64" ht="76.5">
+    <row r="38" spans="1:64" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>323</v>
       </c>
@@ -6326,7 +6401,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="39" spans="1:64" ht="25.5">
+    <row r="39" spans="1:64" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>325</v>
       </c>
@@ -6364,7 +6439,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="40" spans="1:64" ht="76.5">
+    <row r="40" spans="1:64" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>327</v>
       </c>
@@ -6433,7 +6508,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="41" spans="1:64" ht="25.5">
+    <row r="41" spans="1:64" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>329</v>
       </c>
@@ -6481,7 +6556,7 @@
       <c r="AA41" s="28"/>
       <c r="AB41" s="28"/>
     </row>
-    <row r="42" spans="1:64" ht="76.5">
+    <row r="42" spans="1:64" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>331</v>
       </c>
@@ -6538,7 +6613,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="43" spans="1:64" ht="25.5">
+    <row r="43" spans="1:64" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>335</v>
       </c>
@@ -6586,7 +6661,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="44" spans="1:64" ht="25.5">
+    <row r="44" spans="1:64" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>338</v>
       </c>
@@ -6624,7 +6699,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="45" spans="1:64" ht="25.5">
+    <row r="45" spans="1:64" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>339</v>
       </c>
@@ -6659,7 +6734,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="46" spans="1:64" ht="25.5">
+    <row r="46" spans="1:64" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>341</v>
       </c>
@@ -6691,7 +6766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:64" ht="25.5">
+    <row r="47" spans="1:64" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>343</v>
       </c>
@@ -6723,7 +6798,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:64" ht="25.5">
+    <row r="48" spans="1:64" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>699</v>
       </c>
@@ -6791,7 +6866,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="49" spans="1:64" ht="25.5">
+    <row r="49" spans="1:64" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>700</v>
       </c>
@@ -6863,7 +6938,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="50" spans="1:64" ht="25.5">
+    <row r="50" spans="1:64" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>704</v>
       </c>
@@ -6935,7 +7010,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="51" spans="1:64" ht="25.5">
+    <row r="51" spans="1:64" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>810</v>
       </c>
@@ -7110,27 +7185,27 @@
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" customWidth="1"/>
     <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" customWidth="1"/>
-    <col min="14" max="14" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" customWidth="1"/>
+    <col min="14" max="14" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7186,7 +7261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="26.45" customHeight="1">
+    <row r="2" spans="1:18" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>737</v>
       </c>
@@ -7239,7 +7314,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="21.6" customHeight="1">
+    <row r="3" spans="1:18" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>744</v>
       </c>
@@ -7281,7 +7356,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="40.5" customHeight="1">
+    <row r="4" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>748</v>
       </c>
@@ -7325,7 +7400,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="26.45" customHeight="1">
+    <row r="5" spans="1:18" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>749</v>
       </c>
@@ -7387,29 +7462,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.85546875" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" customWidth="1"/>
+    <col min="1" max="1" width="57.88671875" customWidth="1"/>
+    <col min="2" max="2" width="61.109375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" customWidth="1"/>
-    <col min="5" max="5" width="49.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" customWidth="1"/>
-    <col min="9" max="9" width="28.140625" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" customWidth="1"/>
-    <col min="13" max="13" width="30.5703125" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" customWidth="1"/>
+    <col min="5" max="5" width="49.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="27.109375" customWidth="1"/>
+    <col min="8" max="8" width="31.109375" customWidth="1"/>
+    <col min="9" max="9" width="28.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.88671875" customWidth="1"/>
+    <col min="12" max="12" width="26.88671875" customWidth="1"/>
+    <col min="13" max="13" width="30.5546875" customWidth="1"/>
+    <col min="14" max="14" width="19.88671875" customWidth="1"/>
+    <col min="15" max="15" width="24.109375" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="17" width="79.85546875" customWidth="1"/>
-    <col min="18" max="18" width="25.85546875" customWidth="1"/>
-    <col min="19" max="19" width="21.42578125" customWidth="1"/>
+    <col min="17" max="17" width="79.88671875" customWidth="1"/>
+    <col min="18" max="18" width="25.88671875" customWidth="1"/>
+    <col min="19" max="19" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7468,7 +7543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>708</v>
       </c>
@@ -7518,7 +7593,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>714</v>
       </c>
@@ -7544,7 +7619,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>714</v>
       </c>
@@ -7573,7 +7648,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>714</v>
       </c>
@@ -7602,7 +7677,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>718</v>
       </c>
@@ -7640,7 +7715,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>720</v>
       </c>
@@ -7669,7 +7744,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>722</v>
       </c>
@@ -7708,7 +7783,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>722</v>
       </c>
@@ -7746,7 +7821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>722</v>
       </c>
@@ -7787,7 +7862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>722</v>
       </c>
@@ -7828,7 +7903,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>722</v>
       </c>
@@ -7895,21 +7970,21 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" customWidth="1"/>
-    <col min="8" max="10" width="29.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" customWidth="1"/>
-    <col min="13" max="14" width="13.85546875" customWidth="1"/>
+    <col min="1" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" customWidth="1"/>
+    <col min="8" max="10" width="29.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" customWidth="1"/>
+    <col min="13" max="14" width="13.88671875" customWidth="1"/>
     <col min="15" max="15" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7959,7 +8034,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="38.25">
+    <row r="2" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>235</v>
       </c>
@@ -8003,7 +8078,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="38.25">
+    <row r="3" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>241</v>
       </c>
@@ -8041,7 +8116,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="38.25">
+    <row r="4" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>243</v>
       </c>
@@ -8076,7 +8151,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="38.25">
+    <row r="5" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>245</v>
       </c>
@@ -8120,7 +8195,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="38.25">
+    <row r="6" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>246</v>
       </c>
@@ -8161,7 +8236,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="38.25">
+    <row r="7" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>246</v>
       </c>
@@ -8205,7 +8280,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="38.25">
+    <row r="8" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>246</v>
       </c>
@@ -8243,7 +8318,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="38.25">
+    <row r="9" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>246</v>
       </c>
@@ -8310,21 +8385,21 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" customWidth="1"/>
-    <col min="8" max="10" width="29.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" customWidth="1"/>
-    <col min="13" max="14" width="13.85546875" customWidth="1"/>
+    <col min="1" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" customWidth="1"/>
+    <col min="8" max="10" width="29.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" customWidth="1"/>
+    <col min="13" max="14" width="13.88671875" customWidth="1"/>
     <col min="15" max="15" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8374,7 +8449,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="38.25">
+    <row r="2" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>235</v>
       </c>
@@ -8418,7 +8493,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="38.25">
+    <row r="3" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>241</v>
       </c>
@@ -8456,7 +8531,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="38.25">
+    <row r="4" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>243</v>
       </c>
@@ -8491,7 +8566,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="38.25">
+    <row r="5" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>245</v>
       </c>
@@ -8535,7 +8610,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="38.25">
+    <row r="6" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>246</v>
       </c>
@@ -8574,7 +8649,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="38.25">
+    <row r="7" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>246</v>
       </c>
@@ -8616,7 +8691,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="38.25">
+    <row r="8" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>246</v>
       </c>
@@ -8654,7 +8729,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="38.25">
+    <row r="9" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>246</v>
       </c>
@@ -8720,30 +8795,30 @@
       <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="18.109375" customWidth="1"/>
+    <col min="17" max="17" width="22.44140625" customWidth="1"/>
+    <col min="18" max="18" width="14.88671875" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" customWidth="1"/>
     <col min="20" max="20" width="24" customWidth="1"/>
-    <col min="21" max="21" width="20.85546875" customWidth="1"/>
+    <col min="21" max="21" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8808,7 +8883,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>489</v>
       </c>
@@ -8864,7 +8939,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>496</v>
       </c>
@@ -8920,7 +8995,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -8976,7 +9051,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>500</v>
       </c>
@@ -9014,7 +9089,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>500</v>
       </c>
@@ -9055,7 +9130,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>500</v>
       </c>
@@ -9096,7 +9171,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>500</v>
       </c>
@@ -9140,7 +9215,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>500</v>
       </c>
@@ -9184,7 +9259,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>500</v>
       </c>
@@ -9234,7 +9309,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>500</v>
       </c>
@@ -9284,7 +9359,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>516</v>
       </c>
@@ -9322,7 +9397,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>516</v>
       </c>
@@ -9363,7 +9438,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>516</v>
       </c>
@@ -9404,7 +9479,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>516</v>
       </c>
@@ -9448,7 +9523,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>516</v>
       </c>
@@ -9492,7 +9567,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>516</v>
       </c>
@@ -9542,7 +9617,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>516</v>
       </c>
@@ -9635,29 +9710,29 @@
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" customWidth="1"/>
-    <col min="21" max="21" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" customWidth="1"/>
+    <col min="17" max="17" width="17.109375" customWidth="1"/>
+    <col min="19" max="19" width="14.109375" customWidth="1"/>
+    <col min="20" max="20" width="15.109375" customWidth="1"/>
+    <col min="21" max="21" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9725,7 +9800,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>525</v>
       </c>
@@ -9784,7 +9859,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>539</v>
       </c>
@@ -9828,7 +9903,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>536</v>
       </c>
@@ -9869,7 +9944,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="51">
+    <row r="5" spans="1:22" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>536</v>
       </c>
@@ -9913,7 +9988,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>536</v>
       </c>
@@ -9957,7 +10032,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>531</v>
       </c>
@@ -10016,37 +10091,40 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B18C423-D7E7-4B7B-9167-D2BDC190AA4E}">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="77.85546875" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="49.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" customWidth="1"/>
-    <col min="16" max="16" width="23.85546875" customWidth="1"/>
-    <col min="17" max="18" width="19.140625" customWidth="1"/>
-    <col min="19" max="19" width="29.140625" customWidth="1"/>
-    <col min="20" max="20" width="19.140625" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" customWidth="1"/>
-    <col min="25" max="25" width="17" customWidth="1"/>
+    <col min="1" max="1" width="49.44140625" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="77.88671875" customWidth="1"/>
+    <col min="5" max="5" width="35.88671875" customWidth="1"/>
+    <col min="6" max="6" width="35.109375" customWidth="1"/>
+    <col min="7" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="14" width="16.109375" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
+    <col min="16" max="23" width="16.109375" customWidth="1"/>
+    <col min="24" max="24" width="16.109375" style="55" customWidth="1"/>
+    <col min="25" max="25" width="49.109375" customWidth="1"/>
+    <col min="26" max="26" width="12.44140625" customWidth="1"/>
+    <col min="28" max="28" width="13.109375" customWidth="1"/>
+    <col min="29" max="29" width="13.88671875" customWidth="1"/>
+    <col min="30" max="30" width="15.44140625" customWidth="1"/>
+    <col min="31" max="31" width="19.109375" customWidth="1"/>
+    <col min="32" max="32" width="23.88671875" customWidth="1"/>
+    <col min="33" max="34" width="19.109375" customWidth="1"/>
+    <col min="35" max="35" width="29.109375" customWidth="1"/>
+    <col min="36" max="36" width="19.109375" customWidth="1"/>
+    <col min="40" max="40" width="13.44140625" customWidth="1"/>
+    <col min="41" max="41" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -10069,55 +10147,103 @@
         <v>12</v>
       </c>
       <c r="H1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="L1" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y1" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="AA1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="AB1" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
         <v>541</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="AF1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="AG1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="AH1" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="AI1" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="AK1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>546</v>
       </c>
@@ -10138,18 +10264,34 @@
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
-      <c r="O2" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>547</v>
-      </c>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
       <c r="T2" s="15"/>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="AF2" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>548</v>
       </c>
@@ -10171,43 +10313,59 @@
       <c r="G3" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="18" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="Z3" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="19" t="s">
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="19" t="s">
         <v>865</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="AE3" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="AF3" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="AG3" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="AH3" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="AJ3" s="18" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="134.44999999999999" customHeight="1">
+    <row r="4" spans="1:39" ht="134.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>551</v>
       </c>
@@ -10223,28 +10381,28 @@
       <c r="F4" s="19" t="s">
         <v>816</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="Y4" s="28" t="s">
         <v>815</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="Z4" s="16" t="s">
         <v>815</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="31" t="s">
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="31" t="s">
         <v>817</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="AD4" s="31" t="s">
         <v>553</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="AE4" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="AF4" s="18" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>554</v>
       </c>
@@ -10263,31 +10421,31 @@
       <c r="F5" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" t="s">
+      <c r="Y5" s="18"/>
+      <c r="Z5" t="s">
         <v>549</v>
       </c>
-      <c r="K5" t="s">
+      <c r="AA5" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="2" t="s">
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="AD5" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="AE5" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="AF5" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="U5" t="s">
+      <c r="AK5" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>554</v>
       </c>
@@ -10306,29 +10464,29 @@
       <c r="F6" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="Y6" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="K6" t="s">
+      <c r="AA6" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="AC6" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="AD6" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="AE6" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="AF6" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="U6" t="s">
+      <c r="AK6" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>554</v>
       </c>
@@ -10345,32 +10503,32 @@
       <c r="F7" s="19" t="s">
         <v>563</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="Y7" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="J7" t="s">
+      <c r="Z7" t="s">
         <v>549</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="AC7" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="AD7" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="AE7" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="P7" s="18" t="s">
+      <c r="AF7" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="V7" t="s">
+      <c r="AL7" t="s">
         <v>47</v>
       </c>
-      <c r="W7" s="13" t="s">
+      <c r="AM7" s="13" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>554</v>
       </c>
@@ -10387,32 +10545,32 @@
         <v>428</v>
       </c>
       <c r="F8" s="19"/>
-      <c r="I8" s="18" t="s">
+      <c r="Y8" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="J8" t="s">
+      <c r="Z8" t="s">
         <v>549</v>
       </c>
-      <c r="K8" t="s">
+      <c r="AA8" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="AC8" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="AD8" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="AE8" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="AF8" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="U8" t="s">
+      <c r="AK8" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>554</v>
       </c>
@@ -10429,32 +10587,32 @@
       <c r="F9" s="19" t="s">
         <v>566</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="Y9" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="J9" t="s">
+      <c r="Z9" t="s">
         <v>549</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="AC9" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="AD9" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="AE9" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="P9" s="18" t="s">
+      <c r="AF9" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="V9" t="s">
+      <c r="AL9" t="s">
         <v>47</v>
       </c>
-      <c r="W9" s="13" t="s">
+      <c r="AM9" s="13" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>554</v>
       </c>
@@ -10473,32 +10631,32 @@
       <c r="F10" s="19" t="s">
         <v>569</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="Y10" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="J10" t="s">
+      <c r="Z10" t="s">
         <v>549</v>
       </c>
-      <c r="K10" t="s">
+      <c r="AA10" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="AC10" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="AD10" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="O10" s="18" t="s">
+      <c r="AE10" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="P10" s="18" t="s">
+      <c r="AF10" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="U10" t="s">
+      <c r="AK10" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>554</v>
       </c>
@@ -10515,32 +10673,32 @@
       <c r="F11" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="Y11" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="J11" t="s">
+      <c r="Z11" t="s">
         <v>549</v>
       </c>
-      <c r="K11" t="s">
+      <c r="AA11" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="AC11" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="AD11" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="AE11" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="P11" s="18" t="s">
+      <c r="AF11" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="U11" t="s">
+      <c r="AK11" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>554</v>
       </c>
@@ -10559,32 +10717,32 @@
       <c r="F12" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="Y12" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="J12" t="s">
+      <c r="Z12" t="s">
         <v>549</v>
       </c>
-      <c r="K12" t="s">
+      <c r="AA12" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="AC12" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="AD12" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="O12" s="18" t="s">
+      <c r="AE12" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="P12" s="18" t="s">
+      <c r="AF12" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="U12" t="s">
+      <c r="AK12" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>554</v>
       </c>
@@ -10603,32 +10761,32 @@
       <c r="F13" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="Y13" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="J13" t="s">
+      <c r="Z13" t="s">
         <v>549</v>
       </c>
-      <c r="K13" t="s">
+      <c r="AA13" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="AC13" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="AD13" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="O13" s="18" t="s">
+      <c r="AE13" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="P13" s="18" t="s">
+      <c r="AF13" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="U13" t="s">
+      <c r="AK13" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>554</v>
       </c>
@@ -10644,35 +10802,35 @@
       <c r="F14" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="Y14" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="J14" t="s">
+      <c r="Z14" t="s">
         <v>549</v>
       </c>
-      <c r="K14" t="s">
+      <c r="AA14" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="AC14" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="AD14" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="O14" s="18" t="s">
+      <c r="AE14" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="P14" s="18" t="s">
+      <c r="AF14" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="V14" t="s">
+      <c r="AL14" t="s">
         <v>47</v>
       </c>
-      <c r="W14" s="13" t="s">
+      <c r="AM14" s="13" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>554</v>
       </c>
@@ -10684,20 +10842,20 @@
       </c>
       <c r="D15" s="2"/>
       <c r="F15" s="19"/>
-      <c r="I15" s="18"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="18" t="s">
+      <c r="Y15" s="18"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="P15" s="18" t="s">
+      <c r="AF15" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="U15" t="s">
+      <c r="AK15" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>554</v>
       </c>
@@ -10716,32 +10874,32 @@
       <c r="F16" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="Y16" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="J16" t="s">
+      <c r="Z16" t="s">
         <v>549</v>
       </c>
-      <c r="K16" t="s">
+      <c r="AA16" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="AC16" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="AD16" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="O16" s="18" t="s">
+      <c r="AE16" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="P16" s="18" t="s">
+      <c r="AF16" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="U16" t="s">
+      <c r="AK16" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>554</v>
       </c>
@@ -10760,32 +10918,32 @@
       <c r="F17" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="Y17" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="J17" t="s">
+      <c r="Z17" t="s">
         <v>549</v>
       </c>
-      <c r="K17" t="s">
+      <c r="AA17" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="AC17" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="AD17" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="O17" s="18" t="s">
+      <c r="AE17" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="P17" s="18" t="s">
+      <c r="AF17" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="U17" t="s">
+      <c r="AK17" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>554</v>
       </c>
@@ -10802,26 +10960,26 @@
       <c r="F18" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="Y18" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="J18" t="s">
+      <c r="Z18" t="s">
         <v>549</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="AC18" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="AD18" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="O18" s="18" t="s">
+      <c r="AE18" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="P18" s="18" t="s">
+      <c r="AF18" s="18" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>554</v>
       </c>
@@ -10838,24 +10996,24 @@
       <c r="F19" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="Y19" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="J19" t="s">
+      <c r="Z19" t="s">
         <v>549</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2" t="s">
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="O19" s="18" t="s">
+      <c r="AE19" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="P19" s="18" t="s">
+      <c r="AF19" s="18" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>554</v>
       </c>
@@ -10872,24 +11030,24 @@
       <c r="F20" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="Y20" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="J20" t="s">
+      <c r="Z20" t="s">
         <v>549</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="AC20" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="18" t="s">
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="P20" s="18" t="s">
+      <c r="AF20" s="18" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>554</v>
       </c>
@@ -10906,26 +11064,26 @@
       <c r="F21" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="Y21" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="J21" t="s">
+      <c r="Z21" t="s">
         <v>549</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="AC21" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="AD21" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="O21" s="18" t="s">
+      <c r="AE21" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="P21" s="18" t="s">
+      <c r="AF21" s="18" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>554</v>
       </c>
@@ -10936,47 +11094,155 @@
         <v>591</v>
       </c>
     </row>
+    <row r="23" spans="1:37" ht="27" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>911</v>
+      </c>
+      <c r="B23" t="s">
+        <v>912</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>913</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>914</v>
+      </c>
+      <c r="M23" s="52" t="s">
+        <v>915</v>
+      </c>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="2"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>916</v>
+      </c>
+      <c r="B24" t="s">
+        <v>917</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>913</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="52" t="s">
+        <v>915</v>
+      </c>
+      <c r="N24" s="52" t="s">
+        <v>808</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="P24" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q24" s="58" t="s">
+        <v>919</v>
+      </c>
+      <c r="R24" s="59" t="s">
+        <v>920</v>
+      </c>
+      <c r="S24" t="s">
+        <v>921</v>
+      </c>
+      <c r="T24" t="s">
+        <v>922</v>
+      </c>
+      <c r="U24" t="s">
+        <v>619</v>
+      </c>
+      <c r="V24" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="W24" t="s">
+        <v>371</v>
+      </c>
+      <c r="X24" s="60" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1" xr:uid="{40B15EDC-AE23-443B-B49A-CCCCBA695541}"/>
-    <hyperlink ref="N3" r:id="rId2" xr:uid="{34364467-99E6-4A73-9F0A-367BEB8795A2}"/>
+    <hyperlink ref="AC3" r:id="rId1" xr:uid="{40B15EDC-AE23-443B-B49A-CCCCBA695541}"/>
+    <hyperlink ref="AD3" r:id="rId2" xr:uid="{34364467-99E6-4A73-9F0A-367BEB8795A2}"/>
     <hyperlink ref="D4" r:id="rId3" display="a@b.in,a@b.com,a@bcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghiklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopq.com,a@bcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopq.com,a@bcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefgdhijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopq.com" xr:uid="{D85F07D2-8350-4ED7-8B33-F7CA31166E0B}"/>
-    <hyperlink ref="M4" r:id="rId4" xr:uid="{F327B5B9-39C0-4E36-8260-EAE33FD2F23D}"/>
-    <hyperlink ref="N4" r:id="rId5" xr:uid="{2CD354E4-B66C-41FA-BDFD-8AFA1B4E8B5C}"/>
+    <hyperlink ref="AC4" r:id="rId4" xr:uid="{F327B5B9-39C0-4E36-8260-EAE33FD2F23D}"/>
+    <hyperlink ref="AD4" r:id="rId5" xr:uid="{2CD354E4-B66C-41FA-BDFD-8AFA1B4E8B5C}"/>
     <hyperlink ref="D5" r:id="rId6" xr:uid="{20339AF2-C8BA-4B30-AEE4-496788AD1DEB}"/>
-    <hyperlink ref="M5" r:id="rId7" xr:uid="{E7C43A6C-94BC-4043-9ECF-77B7D5DF1885}"/>
+    <hyperlink ref="AC5" r:id="rId7" xr:uid="{E7C43A6C-94BC-4043-9ECF-77B7D5DF1885}"/>
     <hyperlink ref="D17" r:id="rId8" xr:uid="{3D16A510-B7FF-4D47-B98C-798854F2138A}"/>
-    <hyperlink ref="M6" r:id="rId9" xr:uid="{2E2C7FEC-FCC8-46D6-9F28-09008EFC2E98}"/>
-    <hyperlink ref="M8" r:id="rId10" xr:uid="{C1F46BD4-6CC0-40A9-81D2-1CE2EF3468B0}"/>
-    <hyperlink ref="M11" r:id="rId11" xr:uid="{36F051C4-93B2-4CA1-B88C-A4F7703E33AD}"/>
-    <hyperlink ref="M18" r:id="rId12" display="Admin@123" xr:uid="{9240E756-8D87-41B2-B88F-E7318A883255}"/>
-    <hyperlink ref="M20" r:id="rId13" xr:uid="{55D19047-56C1-49FE-9CCE-7D25FBDBF4B5}"/>
-    <hyperlink ref="M10" r:id="rId14" xr:uid="{15D24EA3-471F-4C1E-B4AD-34402BF33E77}"/>
-    <hyperlink ref="M17" r:id="rId15" xr:uid="{F3D351E3-E3DC-40A9-AD4B-8DD339B49D09}"/>
-    <hyperlink ref="M21" r:id="rId16" xr:uid="{A3AAD49F-A299-483D-B1A0-13A778A16041}"/>
-    <hyperlink ref="N5" r:id="rId17" xr:uid="{341F89AA-596A-4DA3-B806-A9BE76EDF4BC}"/>
-    <hyperlink ref="N6" r:id="rId18" xr:uid="{78CC411F-73E5-4722-9EA0-34121AB42845}"/>
-    <hyperlink ref="N8" r:id="rId19" xr:uid="{4CAC76BA-32D2-45A8-A5D7-EDDC3F152EA9}"/>
-    <hyperlink ref="N11" r:id="rId20" xr:uid="{4388A44E-59AD-4708-91C4-530E760F78F4}"/>
-    <hyperlink ref="N10" r:id="rId21" xr:uid="{D407EAC0-1091-4612-80FF-8D4FD29BB2D2}"/>
-    <hyperlink ref="N17" r:id="rId22" xr:uid="{16FB91A2-A1DC-4B32-8025-C328CD33494E}"/>
-    <hyperlink ref="N21" r:id="rId23" xr:uid="{03F9F991-6E42-41D0-8F37-6CEBCAF682CD}"/>
-    <hyperlink ref="N18" r:id="rId24" display="Admin@123" xr:uid="{A8129A54-3091-4463-8093-D69A20642FE6}"/>
-    <hyperlink ref="N19" r:id="rId25" xr:uid="{4FE7D3D7-5789-409A-A37D-9B6A7CE36AA3}"/>
-    <hyperlink ref="M7" r:id="rId26" xr:uid="{F7E0475C-BECA-44D4-8598-5466FA3F3C8D}"/>
-    <hyperlink ref="N7" r:id="rId27" xr:uid="{4996C6EC-8A3D-4BF8-9255-D8976D660284}"/>
-    <hyperlink ref="M9" r:id="rId28" xr:uid="{EC37FB4E-FD41-4BD4-888B-17599E0851E0}"/>
-    <hyperlink ref="N9" r:id="rId29" xr:uid="{3C2971C2-1D9C-4A98-81CD-06619C3FF246}"/>
+    <hyperlink ref="AC6" r:id="rId9" xr:uid="{2E2C7FEC-FCC8-46D6-9F28-09008EFC2E98}"/>
+    <hyperlink ref="AC8" r:id="rId10" xr:uid="{C1F46BD4-6CC0-40A9-81D2-1CE2EF3468B0}"/>
+    <hyperlink ref="AC11" r:id="rId11" xr:uid="{36F051C4-93B2-4CA1-B88C-A4F7703E33AD}"/>
+    <hyperlink ref="AC18" r:id="rId12" display="Admin@123" xr:uid="{9240E756-8D87-41B2-B88F-E7318A883255}"/>
+    <hyperlink ref="AC20" r:id="rId13" xr:uid="{55D19047-56C1-49FE-9CCE-7D25FBDBF4B5}"/>
+    <hyperlink ref="AC10" r:id="rId14" xr:uid="{15D24EA3-471F-4C1E-B4AD-34402BF33E77}"/>
+    <hyperlink ref="AC17" r:id="rId15" xr:uid="{F3D351E3-E3DC-40A9-AD4B-8DD339B49D09}"/>
+    <hyperlink ref="AC21" r:id="rId16" xr:uid="{A3AAD49F-A299-483D-B1A0-13A778A16041}"/>
+    <hyperlink ref="AD5" r:id="rId17" xr:uid="{341F89AA-596A-4DA3-B806-A9BE76EDF4BC}"/>
+    <hyperlink ref="AD6" r:id="rId18" xr:uid="{78CC411F-73E5-4722-9EA0-34121AB42845}"/>
+    <hyperlink ref="AD8" r:id="rId19" xr:uid="{4CAC76BA-32D2-45A8-A5D7-EDDC3F152EA9}"/>
+    <hyperlink ref="AD11" r:id="rId20" xr:uid="{4388A44E-59AD-4708-91C4-530E760F78F4}"/>
+    <hyperlink ref="AD10" r:id="rId21" xr:uid="{D407EAC0-1091-4612-80FF-8D4FD29BB2D2}"/>
+    <hyperlink ref="AD17" r:id="rId22" xr:uid="{16FB91A2-A1DC-4B32-8025-C328CD33494E}"/>
+    <hyperlink ref="AD21" r:id="rId23" xr:uid="{03F9F991-6E42-41D0-8F37-6CEBCAF682CD}"/>
+    <hyperlink ref="AD18" r:id="rId24" display="Admin@123" xr:uid="{A8129A54-3091-4463-8093-D69A20642FE6}"/>
+    <hyperlink ref="AD19" r:id="rId25" xr:uid="{4FE7D3D7-5789-409A-A37D-9B6A7CE36AA3}"/>
+    <hyperlink ref="AC7" r:id="rId26" xr:uid="{F7E0475C-BECA-44D4-8598-5466FA3F3C8D}"/>
+    <hyperlink ref="AD7" r:id="rId27" xr:uid="{4996C6EC-8A3D-4BF8-9255-D8976D660284}"/>
+    <hyperlink ref="AC9" r:id="rId28" xr:uid="{EC37FB4E-FD41-4BD4-888B-17599E0851E0}"/>
+    <hyperlink ref="AD9" r:id="rId29" xr:uid="{3C2971C2-1D9C-4A98-81CD-06619C3FF246}"/>
     <hyperlink ref="D14" r:id="rId30" xr:uid="{B6C0F823-494E-4294-96D5-9FCAA5223E6F}"/>
-    <hyperlink ref="M12" r:id="rId31" xr:uid="{C65FFAFE-4C1A-490A-BC23-344C6FD61C43}"/>
-    <hyperlink ref="M13" r:id="rId32" xr:uid="{59B714BA-CE77-461F-9CF7-47EC25791E08}"/>
-    <hyperlink ref="M14" r:id="rId33" xr:uid="{749C29F6-07B2-4B1A-AC57-43EB9FB7B60E}"/>
-    <hyperlink ref="N12" r:id="rId34" xr:uid="{9953B0C0-235B-4726-8007-8AD465206505}"/>
-    <hyperlink ref="N13" r:id="rId35" xr:uid="{5B268448-BA40-493C-999B-4CDB7D75DBFC}"/>
-    <hyperlink ref="N14" r:id="rId36" xr:uid="{4BC6D98A-2D01-49A2-A12E-E7ED1E6887F6}"/>
+    <hyperlink ref="AC12" r:id="rId31" xr:uid="{C65FFAFE-4C1A-490A-BC23-344C6FD61C43}"/>
+    <hyperlink ref="AC13" r:id="rId32" xr:uid="{59B714BA-CE77-461F-9CF7-47EC25791E08}"/>
+    <hyperlink ref="AC14" r:id="rId33" xr:uid="{749C29F6-07B2-4B1A-AC57-43EB9FB7B60E}"/>
+    <hyperlink ref="AD12" r:id="rId34" xr:uid="{9953B0C0-235B-4726-8007-8AD465206505}"/>
+    <hyperlink ref="AD13" r:id="rId35" xr:uid="{5B268448-BA40-493C-999B-4CDB7D75DBFC}"/>
+    <hyperlink ref="AD14" r:id="rId36" xr:uid="{4BC6D98A-2D01-49A2-A12E-E7ED1E6887F6}"/>
     <hyperlink ref="D16" r:id="rId37" xr:uid="{8BB4EB86-E4AC-40F7-BB9F-2C54C3A33A80}"/>
-    <hyperlink ref="M16" r:id="rId38" xr:uid="{7246A40C-6325-4CA5-A6C9-5DF1854D7C01}"/>
-    <hyperlink ref="N16" r:id="rId39" xr:uid="{D2F84660-768E-49AA-992D-86B2C8CC7CFB}"/>
+    <hyperlink ref="AC16" r:id="rId38" xr:uid="{7246A40C-6325-4CA5-A6C9-5DF1854D7C01}"/>
+    <hyperlink ref="AD16" r:id="rId39" xr:uid="{D2F84660-768E-49AA-992D-86B2C8CC7CFB}"/>
     <hyperlink ref="D6" r:id="rId40" xr:uid="{210486E1-181F-434B-A7F4-6A41E5AC3574}"/>
     <hyperlink ref="D7" r:id="rId41" xr:uid="{1BECB6E8-0DC5-415D-BE0C-CCF4117C771E}"/>
     <hyperlink ref="D8" r:id="rId42" xr:uid="{01B86751-44DB-4618-85FF-6BCC7D7ACD15}"/>
@@ -10988,7 +11254,11 @@
     <hyperlink ref="D20" r:id="rId48" xr:uid="{8601F8BB-0610-4FEB-BF33-2515FEA0C8C9}"/>
     <hyperlink ref="D21" r:id="rId49" xr:uid="{46AFB659-8E60-4290-B464-A85F725F775A}"/>
     <hyperlink ref="D3" r:id="rId50" xr:uid="{0D61BC90-58AA-4540-8FEF-D958A9E6DD5B}"/>
-    <hyperlink ref="S3" r:id="rId51" xr:uid="{61EF980A-E41A-4E42-90C3-0BBA206A2881}"/>
+    <hyperlink ref="AI3" r:id="rId51" xr:uid="{61EF980A-E41A-4E42-90C3-0BBA206A2881}"/>
+    <hyperlink ref="D23" r:id="rId52" xr:uid="{C4C5A1AA-1BE3-4C7B-9337-0779C188874D}"/>
+    <hyperlink ref="M23" r:id="rId53" xr:uid="{A51B3573-B461-4991-AE70-6F5DA87DB5E4}"/>
+    <hyperlink ref="D24" r:id="rId54" xr:uid="{35431226-3E54-4BA3-88DD-C3876578F581}"/>
+    <hyperlink ref="M24" r:id="rId55" xr:uid="{6908F794-5487-4E20-8439-BE9FDB6BD152}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10998,49 +11268,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50470925-EDAD-44CC-A96C-FD71ACD42249}">
   <dimension ref="A1:AL35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.5546875" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" customWidth="1"/>
+    <col min="9" max="9" width="31.44140625" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
     <col min="11" max="11" width="29" customWidth="1"/>
     <col min="12" max="12" width="34" customWidth="1"/>
-    <col min="14" max="14" width="27.5703125" customWidth="1"/>
+    <col min="14" max="14" width="27.5546875" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" customWidth="1"/>
-    <col min="18" max="18" width="29.42578125" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" customWidth="1"/>
-    <col min="20" max="20" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" customWidth="1"/>
-    <col min="24" max="24" width="22.7109375" customWidth="1"/>
-    <col min="25" max="25" width="16.42578125" customWidth="1"/>
-    <col min="26" max="26" width="19.28515625" customWidth="1"/>
-    <col min="27" max="27" width="19.42578125" customWidth="1"/>
-    <col min="28" max="29" width="20.42578125" customWidth="1"/>
-    <col min="30" max="30" width="17.5703125" customWidth="1"/>
+    <col min="17" max="17" width="17.109375" customWidth="1"/>
+    <col min="18" max="18" width="29.44140625" customWidth="1"/>
+    <col min="19" max="19" width="24.6640625" customWidth="1"/>
+    <col min="20" max="20" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5546875" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" customWidth="1"/>
+    <col min="23" max="23" width="13.109375" customWidth="1"/>
+    <col min="24" max="24" width="22.6640625" customWidth="1"/>
+    <col min="25" max="25" width="16.44140625" customWidth="1"/>
+    <col min="26" max="26" width="19.33203125" customWidth="1"/>
+    <col min="27" max="27" width="19.44140625" customWidth="1"/>
+    <col min="28" max="29" width="20.44140625" customWidth="1"/>
+    <col min="30" max="30" width="17.5546875" customWidth="1"/>
     <col min="31" max="31" width="20" customWidth="1"/>
     <col min="32" max="32" width="16" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" customWidth="1"/>
+    <col min="33" max="33" width="30.6640625" customWidth="1"/>
     <col min="34" max="34" width="14" customWidth="1"/>
     <col min="35" max="35" width="13" customWidth="1"/>
-    <col min="36" max="36" width="15.7109375" customWidth="1"/>
-    <col min="37" max="37" width="16.85546875" customWidth="1"/>
-    <col min="38" max="38" width="33.28515625" customWidth="1"/>
+    <col min="36" max="36" width="15.6640625" customWidth="1"/>
+    <col min="37" max="37" width="16.88671875" customWidth="1"/>
+    <col min="38" max="38" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11156,7 +11426,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="38.25">
+    <row r="2" spans="1:38" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>601</v>
       </c>
@@ -11221,7 +11491,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="38.25">
+    <row r="3" spans="1:38" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>608</v>
       </c>
@@ -11283,7 +11553,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="38.25">
+    <row r="4" spans="1:38" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>608</v>
       </c>
@@ -11342,7 +11612,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="38.25">
+    <row r="5" spans="1:38" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>608</v>
       </c>
@@ -11401,7 +11671,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="38.25">
+    <row r="6" spans="1:38" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>612</v>
       </c>
@@ -11460,7 +11730,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="38.25">
+    <row r="7" spans="1:38" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>614</v>
       </c>
@@ -11534,7 +11804,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="38.25">
+    <row r="8" spans="1:38" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>620</v>
       </c>
@@ -11608,7 +11878,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="38.25">
+    <row r="9" spans="1:38" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>624</v>
       </c>
@@ -11652,7 +11922,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="242.25">
+    <row r="10" spans="1:38" ht="250.8" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>626</v>
       </c>
@@ -11721,7 +11991,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="38.25">
+    <row r="11" spans="1:38" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>626</v>
       </c>
@@ -11777,7 +12047,7 @@
       <c r="AJ11" s="16"/>
       <c r="AK11" s="16"/>
     </row>
-    <row r="12" spans="1:38" ht="38.25">
+    <row r="12" spans="1:38" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>626</v>
       </c>
@@ -11836,7 +12106,7 @@
       <c r="AJ12" s="16"/>
       <c r="AK12" s="16"/>
     </row>
-    <row r="13" spans="1:38" ht="38.25">
+    <row r="13" spans="1:38" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>626</v>
       </c>
@@ -11901,7 +12171,7 @@
       <c r="AJ13" s="16"/>
       <c r="AK13" s="16"/>
     </row>
-    <row r="14" spans="1:38" ht="38.25">
+    <row r="14" spans="1:38" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>626</v>
       </c>
@@ -11957,7 +12227,7 @@
       <c r="AJ14" s="16"/>
       <c r="AK14" s="16"/>
     </row>
-    <row r="15" spans="1:38" ht="38.25">
+    <row r="15" spans="1:38" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>626</v>
       </c>
@@ -12016,7 +12286,7 @@
       <c r="AJ15" s="16"/>
       <c r="AK15" s="16"/>
     </row>
-    <row r="16" spans="1:38" ht="38.25">
+    <row r="16" spans="1:38" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>626</v>
       </c>
@@ -12084,7 +12354,7 @@
       <c r="AJ16" s="16"/>
       <c r="AK16" s="16"/>
     </row>
-    <row r="17" spans="1:37" ht="38.25">
+    <row r="17" spans="1:37" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>626</v>
       </c>
@@ -12159,7 +12429,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="38.25">
+    <row r="18" spans="1:37" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>626</v>
       </c>
@@ -12234,7 +12504,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="38.25">
+    <row r="19" spans="1:37" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>634</v>
       </c>
@@ -12287,7 +12557,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="38.25">
+    <row r="20" spans="1:37" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>634</v>
       </c>
@@ -12340,7 +12610,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="38.25">
+    <row r="21" spans="1:37" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>634</v>
       </c>
@@ -12393,7 +12663,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="38.25">
+    <row r="22" spans="1:37" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>634</v>
       </c>
@@ -12446,7 +12716,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="38.25">
+    <row r="23" spans="1:37" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>807</v>
       </c>
@@ -12529,7 +12799,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="38.25">
+    <row r="24" spans="1:37" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>807</v>
       </c>
@@ -12612,7 +12882,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="38.25">
+    <row r="25" spans="1:37" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>807</v>
       </c>
@@ -12695,7 +12965,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="38.25">
+    <row r="26" spans="1:37" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>807</v>
       </c>
@@ -12775,7 +13045,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="38.25">
+    <row r="27" spans="1:37" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>807</v>
       </c>
@@ -12855,7 +13125,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="38.25">
+    <row r="28" spans="1:37" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>807</v>
       </c>
@@ -12935,7 +13205,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="38.25">
+    <row r="29" spans="1:37" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>807</v>
       </c>
@@ -13015,7 +13285,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="38.25">
+    <row r="30" spans="1:37" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>807</v>
       </c>
@@ -13095,7 +13365,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="38.25">
+    <row r="31" spans="1:37" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>807</v>
       </c>
@@ -13175,7 +13445,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="38.25">
+    <row r="32" spans="1:37" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>807</v>
       </c>
@@ -13255,7 +13525,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="38.25">
+    <row r="33" spans="1:37" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>807</v>
       </c>
@@ -13335,7 +13605,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="38.25">
+    <row r="34" spans="1:37" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>807</v>
       </c>
@@ -13415,7 +13685,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="38.25">
+    <row r="35" spans="1:37" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>807</v>
       </c>
@@ -13540,24 +13810,24 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" customWidth="1"/>
-    <col min="31" max="31" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" customWidth="1"/>
+    <col min="2" max="2" width="47.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="19" max="19" width="16.109375" customWidth="1"/>
+    <col min="31" max="31" width="17.88671875" customWidth="1"/>
     <col min="32" max="32" width="19" customWidth="1"/>
-    <col min="33" max="33" width="17.85546875" customWidth="1"/>
-    <col min="34" max="34" width="21.28515625" customWidth="1"/>
+    <col min="33" max="33" width="17.88671875" customWidth="1"/>
+    <col min="34" max="34" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13661,7 +13931,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="51">
+    <row r="2" spans="1:34" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>95</v>
       </c>
@@ -13732,7 +14002,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="51">
+    <row r="3" spans="1:34" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>95</v>
       </c>
@@ -13803,7 +14073,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="51">
+    <row r="4" spans="1:34" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>95</v>
       </c>
@@ -13874,7 +14144,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="51">
+    <row r="5" spans="1:34" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>95</v>
       </c>
@@ -13945,7 +14215,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="51">
+    <row r="6" spans="1:34" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>95</v>
       </c>
@@ -14016,7 +14286,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="51">
+    <row r="7" spans="1:34" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>95</v>
       </c>
@@ -14084,7 +14354,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="51">
+    <row r="8" spans="1:34" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>95</v>
       </c>
@@ -14152,7 +14422,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="51">
+    <row r="9" spans="1:34" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>95</v>
       </c>
@@ -14220,7 +14490,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="51">
+    <row r="10" spans="1:34" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>95</v>
       </c>
@@ -14288,7 +14558,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="51">
+    <row r="11" spans="1:34" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>95</v>
       </c>
@@ -14356,7 +14626,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="51">
+    <row r="12" spans="1:34" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>95</v>
       </c>
@@ -14424,7 +14694,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="51">
+    <row r="13" spans="1:34" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>95</v>
       </c>
@@ -14492,7 +14762,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="51">
+    <row r="14" spans="1:34" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>95</v>
       </c>
@@ -14560,7 +14830,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="51">
+    <row r="15" spans="1:34" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>150</v>
       </c>
@@ -14628,7 +14898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="51">
+    <row r="16" spans="1:34" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>159</v>
       </c>
@@ -14693,7 +14963,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="51">
+    <row r="17" spans="1:34" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>167</v>
       </c>
@@ -14728,7 +14998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="51">
+    <row r="18" spans="1:34" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>169</v>
       </c>
@@ -14799,7 +15069,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="114.75">
+    <row r="19" spans="1:34" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>179</v>
       </c>
@@ -14855,7 +15125,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="114.75">
+    <row r="20" spans="1:34" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>181</v>
       </c>
@@ -14911,7 +15181,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="51">
+    <row r="21" spans="1:34" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>182</v>
       </c>
@@ -14949,7 +15219,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>803</v>
       </c>
@@ -14993,7 +15263,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="51">
+    <row r="23" spans="1:34" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>804</v>
       </c>
@@ -15068,29 +15338,29 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="12" width="11.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" customWidth="1"/>
+    <col min="11" max="12" width="11.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
-    <col min="17" max="17" width="29.85546875" customWidth="1"/>
-    <col min="18" max="18" width="15.85546875" customWidth="1"/>
-    <col min="19" max="19" width="20.42578125" customWidth="1"/>
-    <col min="20" max="20" width="32.42578125" customWidth="1"/>
+    <col min="15" max="15" width="17.44140625" customWidth="1"/>
+    <col min="16" max="16" width="17.109375" customWidth="1"/>
+    <col min="17" max="17" width="29.88671875" customWidth="1"/>
+    <col min="18" max="18" width="15.88671875" customWidth="1"/>
+    <col min="19" max="19" width="20.44140625" customWidth="1"/>
+    <col min="20" max="20" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15152,7 +15422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="38.25">
+    <row r="2" spans="1:20" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>351</v>
       </c>
@@ -15211,7 +15481,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="38.25">
+    <row r="3" spans="1:20" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>360</v>
       </c>
@@ -15265,23 +15535,23 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.44140625" customWidth="1"/>
     <col min="19" max="19" width="42" customWidth="1"/>
-    <col min="24" max="24" width="9.42578125" customWidth="1"/>
+    <col min="24" max="24" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15358,7 +15628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="38.25">
+    <row r="2" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>363</v>
       </c>
@@ -15426,7 +15696,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="38.25">
+    <row r="3" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>368</v>
       </c>
@@ -15497,7 +15767,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="38.25">
+    <row r="4" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>374</v>
       </c>
@@ -15565,7 +15835,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="38.25">
+    <row r="5" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>377</v>
       </c>
@@ -15601,7 +15871,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="38.25">
+    <row r="6" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>378</v>
       </c>
@@ -15669,7 +15939,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="38.25">
+    <row r="7" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>378</v>
       </c>
@@ -15737,7 +16007,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="38.25">
+    <row r="8" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>378</v>
       </c>
@@ -15814,7 +16084,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="38.25">
+    <row r="9" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>378</v>
       </c>
@@ -15885,7 +16155,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="38.25">
+    <row r="10" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>378</v>
       </c>
@@ -15956,7 +16226,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="38.25">
+    <row r="11" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>378</v>
       </c>
@@ -16027,7 +16297,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="38.25">
+    <row r="12" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>378</v>
       </c>
@@ -16098,7 +16368,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="38.25">
+    <row r="13" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>378</v>
       </c>
@@ -16170,7 +16440,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="38.25">
+    <row r="14" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>378</v>
       </c>
@@ -16241,7 +16511,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="38.25">
+    <row r="15" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>378</v>
       </c>
@@ -16312,7 +16582,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="38.25">
+    <row r="16" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>378</v>
       </c>
@@ -16383,7 +16653,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="38.25">
+    <row r="17" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>378</v>
       </c>
@@ -16454,7 +16724,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="38.25">
+    <row r="18" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>378</v>
       </c>
@@ -16561,30 +16831,30 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="65.42578125" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" customWidth="1"/>
-    <col min="17" max="18" width="13.42578125" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="65.44140625" customWidth="1"/>
+    <col min="7" max="7" width="43.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" customWidth="1"/>
+    <col min="14" max="14" width="19.88671875" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" customWidth="1"/>
+    <col min="16" max="16" width="18.44140625" customWidth="1"/>
+    <col min="17" max="18" width="13.44140625" customWidth="1"/>
+    <col min="20" max="20" width="16.44140625" customWidth="1"/>
     <col min="21" max="21" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15">
+    <row r="1" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16652,7 +16922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>422</v>
       </c>
@@ -16694,7 +16964,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>426</v>
       </c>
@@ -16721,7 +16991,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>426</v>
       </c>
@@ -16751,7 +17021,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>426</v>
       </c>
@@ -16781,7 +17051,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>434</v>
       </c>
@@ -16817,7 +17087,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>434</v>
       </c>
@@ -16850,7 +17120,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>434</v>
       </c>
@@ -16887,7 +17157,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>445</v>
       </c>
@@ -16923,7 +17193,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>448</v>
       </c>
@@ -16965,7 +17235,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>448</v>
       </c>
@@ -17004,7 +17274,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>448</v>
       </c>
@@ -17043,7 +17313,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>448</v>
       </c>
@@ -17082,7 +17352,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>454</v>
       </c>
@@ -17102,7 +17372,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>455</v>
       </c>
@@ -17148,7 +17418,7 @@
       <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17163,27 +17433,27 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="1"/>
-    <col min="16" max="16" width="25.140625" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="19.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" customWidth="1"/>
+    <col min="16" max="16" width="25.109375" customWidth="1"/>
+    <col min="17" max="17" width="15.88671875" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17239,7 +17509,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="25.5">
+    <row r="2" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>818</v>
       </c>
@@ -17289,7 +17559,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="25.5">
+    <row r="3" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>820</v>
       </c>
@@ -17333,7 +17603,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="25.5">
+    <row r="4" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>822</v>
       </c>
@@ -17393,39 +17663,39 @@
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
     <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" customWidth="1"/>
-    <col min="13" max="13" width="25.5703125" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" customWidth="1"/>
+    <col min="13" max="13" width="25.5546875" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" customWidth="1"/>
+    <col min="16" max="16" width="17.5546875" customWidth="1"/>
     <col min="19" max="19" width="12" customWidth="1"/>
-    <col min="20" max="20" width="26.85546875" customWidth="1"/>
-    <col min="22" max="22" width="23.5703125" customWidth="1"/>
-    <col min="23" max="23" width="23.28515625" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="31.5703125" customWidth="1"/>
-    <col min="26" max="26" width="19.7109375" customWidth="1"/>
-    <col min="27" max="27" width="28.42578125" customWidth="1"/>
+    <col min="20" max="20" width="26.88671875" customWidth="1"/>
+    <col min="22" max="22" width="23.5546875" customWidth="1"/>
+    <col min="23" max="23" width="23.33203125" customWidth="1"/>
+    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31.5546875" customWidth="1"/>
+    <col min="26" max="26" width="19.6640625" customWidth="1"/>
+    <col min="27" max="27" width="28.44140625" customWidth="1"/>
     <col min="28" max="28" width="33" customWidth="1"/>
-    <col min="29" max="29" width="35.42578125" customWidth="1"/>
-    <col min="30" max="30" width="31.28515625" customWidth="1"/>
-    <col min="31" max="31" width="43.7109375" customWidth="1"/>
-    <col min="32" max="32" width="36.140625" customWidth="1"/>
-    <col min="33" max="33" width="43.85546875" customWidth="1"/>
+    <col min="29" max="29" width="35.44140625" customWidth="1"/>
+    <col min="30" max="30" width="31.33203125" customWidth="1"/>
+    <col min="31" max="31" width="43.6640625" customWidth="1"/>
+    <col min="32" max="32" width="36.109375" customWidth="1"/>
+    <col min="33" max="33" width="43.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17523,7 +17793,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>758</v>
       </c>
@@ -17591,7 +17861,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>758</v>
       </c>
@@ -17659,7 +17929,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>767</v>
       </c>
@@ -17721,7 +17991,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>769</v>
       </c>
@@ -17768,7 +18038,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>769</v>
       </c>
@@ -17818,7 +18088,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>769</v>
       </c>
@@ -17868,7 +18138,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>769</v>
       </c>
@@ -17918,7 +18188,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>769</v>
       </c>
@@ -17968,7 +18238,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>769</v>
       </c>
@@ -18018,7 +18288,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>769</v>
       </c>
@@ -18068,7 +18338,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>769</v>
       </c>
@@ -18118,7 +18388,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>769</v>
       </c>
@@ -18168,7 +18438,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>783</v>
       </c>
@@ -18215,7 +18485,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>783</v>
       </c>
@@ -18259,7 +18529,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>783</v>
       </c>
@@ -18303,7 +18573,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>783</v>
       </c>
@@ -18347,7 +18617,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>783</v>
       </c>
@@ -18391,7 +18661,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>848</v>
       </c>
@@ -18446,7 +18716,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>848</v>
       </c>
@@ -18501,7 +18771,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>858</v>
       </c>
@@ -18563,7 +18833,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>858</v>
       </c>
@@ -18622,7 +18892,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>858</v>
       </c>
@@ -18681,7 +18951,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>858</v>
       </c>
@@ -18740,7 +19010,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>858</v>
       </c>
@@ -18869,30 +19139,30 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="35.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="35.5546875" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" customWidth="1"/>
-    <col min="15" max="15" width="26.5703125" customWidth="1"/>
-    <col min="16" max="16" width="47.5703125" customWidth="1"/>
-    <col min="17" max="17" width="28.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" customWidth="1"/>
+    <col min="11" max="11" width="21.88671875" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" customWidth="1"/>
+    <col min="14" max="14" width="20.88671875" customWidth="1"/>
+    <col min="15" max="15" width="26.5546875" customWidth="1"/>
+    <col min="16" max="16" width="47.5546875" customWidth="1"/>
+    <col min="17" max="17" width="28.5546875" customWidth="1"/>
     <col min="18" max="18" width="23" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" customWidth="1"/>
+    <col min="20" max="20" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18954,7 +19224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="34.5" customHeight="1">
+    <row r="2" spans="1:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>465</v>
       </c>
@@ -19007,7 +19277,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="34.5" customHeight="1">
+    <row r="3" spans="1:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>465</v>
       </c>
@@ -19051,7 +19321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="30">
+    <row r="4" spans="1:20" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>635</v>
       </c>
@@ -19104,7 +19374,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="30">
+    <row r="5" spans="1:20" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>635</v>
       </c>
@@ -19155,7 +19425,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="30">
+    <row r="6" spans="1:20" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>635</v>
       </c>
@@ -19204,7 +19474,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="30">
+    <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>635</v>
       </c>
